--- a/analysis.xlsx
+++ b/analysis.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mgphy\GitHub_scripts\Koopman\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mgphy\Documents\GitHub\Koopman\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC5381EC-3B83-40D4-8C1C-8B01FCC41C45}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F9BD08A-2613-422D-B1E6-8C9A75E5F724}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15630" yWindow="2250" windowWidth="20625" windowHeight="17385" firstSheet="1" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="23236" windowHeight="13875" firstSheet="1" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="time_gt_facebook_ct1" sheetId="1" r:id="rId1"/>
@@ -448,22 +448,22 @@
       <selection activeCell="J88" sqref="J88:J89"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.73046875" bestFit="1" customWidth="1"/>
     <col min="2" max="3" width="12" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="15" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.7109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="19.7109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="18.42578125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.59765625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.1328125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.73046875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.73046875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18.3984375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.73046875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.265625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="15.265625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -501,7 +501,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A2">
         <v>0.27272727272727271</v>
       </c>
@@ -539,7 +539,7 @@
         <v>2.1009595581846269E-249</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A3">
         <v>0.76470588235294112</v>
       </c>
@@ -577,7 +577,7 @@
         <v>2.1009595581846269E-249</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A4">
         <v>0.84090909090909094</v>
       </c>
@@ -615,7 +615,7 @@
         <v>2.1009595581846269E-249</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A5">
         <v>0.78125</v>
       </c>
@@ -653,7 +653,7 @@
         <v>2.1009595581846269E-249</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A6">
         <v>0.62222222222222223</v>
       </c>
@@ -691,7 +691,7 @@
         <v>2.1009595581846269E-249</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A7">
         <v>0.5</v>
       </c>
@@ -729,7 +729,7 @@
         <v>2.1009595581846269E-249</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A8">
         <v>0.2</v>
       </c>
@@ -767,7 +767,7 @@
         <v>2.1009595581846269E-249</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A9">
         <v>1</v>
       </c>
@@ -805,7 +805,7 @@
         <v>2.1009595581846269E-249</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A10">
         <v>0.80952380952380953</v>
       </c>
@@ -843,7 +843,7 @@
         <v>2.1009595581846269E-249</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A11">
         <v>0.90909090909090906</v>
       </c>
@@ -881,7 +881,7 @@
         <v>2.1009595581846269E-249</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A12">
         <v>0.7142857142857143</v>
       </c>
@@ -919,7 +919,7 @@
         <v>2.1009595581846269E-249</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A13">
         <v>0.80303030303030298</v>
       </c>
@@ -957,7 +957,7 @@
         <v>2.1009595581846269E-249</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A14">
         <v>0.7142857142857143</v>
       </c>
@@ -995,7 +995,7 @@
         <v>2.1009595581846269E-249</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A15">
         <v>0.33333333333333331</v>
       </c>
@@ -1033,7 +1033,7 @@
         <v>2.1009595581846269E-249</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A16">
         <v>0.75806451612903225</v>
       </c>
@@ -1071,7 +1071,7 @@
         <v>2.1009595581846269E-249</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A17">
         <v>0.3888888888888889</v>
       </c>
@@ -1109,7 +1109,7 @@
         <v>2.1009595581846269E-249</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A18">
         <v>0.42857142857142849</v>
       </c>
@@ -1147,7 +1147,7 @@
         <v>2.1009595581846269E-249</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A19">
         <v>0.69491525423728817</v>
       </c>
@@ -1185,7 +1185,7 @@
         <v>2.1009595581846269E-249</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A20">
         <v>0.5</v>
       </c>
@@ -1223,7 +1223,7 @@
         <v>2.1009595581846269E-249</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A21">
         <v>0.5</v>
       </c>
@@ -1261,7 +1261,7 @@
         <v>2.1009595581846269E-249</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A22">
         <v>0.22222222222222221</v>
       </c>
@@ -1299,7 +1299,7 @@
         <v>2.1009595581846269E-249</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A23">
         <v>0.83720930232558144</v>
       </c>
@@ -1337,7 +1337,7 @@
         <v>2.1009595581846269E-249</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A24">
         <v>0.33333333333333331</v>
       </c>
@@ -1375,7 +1375,7 @@
         <v>2.1009595581846269E-249</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A25">
         <v>0.7441860465116279</v>
       </c>
@@ -1413,7 +1413,7 @@
         <v>2.1009595581846269E-249</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A26">
         <v>0.86842105263157898</v>
       </c>
@@ -1451,7 +1451,7 @@
         <v>2.1009595581846269E-249</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A27">
         <v>0.83870967741935487</v>
       </c>
@@ -1489,7 +1489,7 @@
         <v>2.1009595581846269E-249</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A28">
         <v>0.79411764705882348</v>
       </c>
@@ -1527,7 +1527,7 @@
         <v>2.1009595581846269E-249</v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A29">
         <v>0.16666666666666671</v>
       </c>
@@ -1565,7 +1565,7 @@
         <v>2.1009595581846269E-249</v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A30">
         <v>0.57999999999999996</v>
       </c>
@@ -1603,7 +1603,7 @@
         <v>2.1009595581846269E-249</v>
       </c>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A31">
         <v>0.33333333333333331</v>
       </c>
@@ -1641,7 +1641,7 @@
         <v>2.1009595581846269E-249</v>
       </c>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A32">
         <v>0.76363636363636367</v>
       </c>
@@ -1679,7 +1679,7 @@
         <v>2.1009595581846269E-249</v>
       </c>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A33">
         <v>0.76315789473684215</v>
       </c>
@@ -1717,7 +1717,7 @@
         <v>2.1009595581846269E-249</v>
       </c>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A34">
         <v>0.82089552238805974</v>
       </c>
@@ -1755,7 +1755,7 @@
         <v>2.1009595581846269E-249</v>
       </c>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A35">
         <v>0.84210526315789469</v>
       </c>
@@ -1793,7 +1793,7 @@
         <v>2.1009595581846269E-249</v>
       </c>
     </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A36">
         <v>0.6875</v>
       </c>
@@ -1831,7 +1831,7 @@
         <v>2.1009595581846269E-249</v>
       </c>
     </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A37">
         <v>0.84848484848484851</v>
       </c>
@@ -1869,7 +1869,7 @@
         <v>2.1009595581846269E-249</v>
       </c>
     </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A38">
         <v>0.41666666666666669</v>
       </c>
@@ -1907,7 +1907,7 @@
         <v>2.1009595581846269E-249</v>
       </c>
     </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A39">
         <v>0.8571428571428571</v>
       </c>
@@ -1945,7 +1945,7 @@
         <v>2.1009595581846269E-249</v>
       </c>
     </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A40">
         <v>0.48148148148148151</v>
       </c>
@@ -1983,7 +1983,7 @@
         <v>2.1009595581846269E-249</v>
       </c>
     </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A41">
         <v>0.703125</v>
       </c>
@@ -2021,7 +2021,7 @@
         <v>2.1009595581846269E-249</v>
       </c>
     </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A42">
         <v>0</v>
       </c>
@@ -2059,7 +2059,7 @@
         <v>2.1009595581846269E-249</v>
       </c>
     </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A43">
         <v>0.25</v>
       </c>
@@ -2097,7 +2097,7 @@
         <v>2.1009595581846269E-249</v>
       </c>
     </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A44">
         <v>0.70588235294117652</v>
       </c>
@@ -2135,7 +2135,7 @@
         <v>2.1009595581846269E-249</v>
       </c>
     </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A45">
         <v>0.93478260869565222</v>
       </c>
@@ -2173,7 +2173,7 @@
         <v>2.1009595581846269E-249</v>
       </c>
     </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A46">
         <v>0.75</v>
       </c>
@@ -2211,7 +2211,7 @@
         <v>2.1009595581846269E-249</v>
       </c>
     </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A47">
         <v>0.66666666666666663</v>
       </c>
@@ -2249,7 +2249,7 @@
         <v>2.1009595581846269E-249</v>
       </c>
     </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A48">
         <v>0.62790697674418605</v>
       </c>
@@ -2287,7 +2287,7 @@
         <v>2.1009595581846269E-249</v>
       </c>
     </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A49">
         <v>0.33333333333333331</v>
       </c>
@@ -2325,7 +2325,7 @@
         <v>2.1009595581846269E-249</v>
       </c>
     </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A50">
         <v>0.77358490566037741</v>
       </c>
@@ -2363,7 +2363,7 @@
         <v>2.1009595581846269E-249</v>
       </c>
     </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A51">
         <v>0.84375</v>
       </c>
@@ -2401,7 +2401,7 @@
         <v>2.1009595581846269E-249</v>
       </c>
     </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A52">
         <v>0.83673469387755106</v>
       </c>
@@ -2439,7 +2439,7 @@
         <v>2.1009595581846269E-249</v>
       </c>
     </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A53">
         <v>0.82857142857142863</v>
       </c>
@@ -2477,7 +2477,7 @@
         <v>2.1009595581846269E-249</v>
       </c>
     </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A54">
         <v>0</v>
       </c>
@@ -2515,7 +2515,7 @@
         <v>2.1009595581846269E-249</v>
       </c>
     </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A55">
         <v>0.73333333333333328</v>
       </c>
@@ -2553,7 +2553,7 @@
         <v>2.1009595581846269E-249</v>
       </c>
     </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A56">
         <v>0.64</v>
       </c>
@@ -2591,7 +2591,7 @@
         <v>2.1009595581846269E-249</v>
       </c>
     </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A57">
         <v>0.42105263157894729</v>
       </c>
@@ -2629,7 +2629,7 @@
         <v>2.1009595581846269E-249</v>
       </c>
     </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A58">
         <v>0.2</v>
       </c>
@@ -2667,7 +2667,7 @@
         <v>2.1009595581846269E-249</v>
       </c>
     </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A59">
         <v>0.2857142857142857</v>
       </c>
@@ -2705,7 +2705,7 @@
         <v>2.1009595581846269E-249</v>
       </c>
     </row>
-    <row r="60" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A60">
         <v>0.79411764705882348</v>
       </c>
@@ -2743,7 +2743,7 @@
         <v>2.1009595581846269E-249</v>
       </c>
     </row>
-    <row r="61" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A61">
         <v>0.77142857142857146</v>
       </c>
@@ -2781,7 +2781,7 @@
         <v>2.1009595581846269E-249</v>
       </c>
     </row>
-    <row r="62" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A62">
         <v>0</v>
       </c>
@@ -2819,7 +2819,7 @@
         <v>2.1009595581846269E-249</v>
       </c>
     </row>
-    <row r="63" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A63">
         <v>0.72</v>
       </c>
@@ -2857,7 +2857,7 @@
         <v>2.1009595581846269E-249</v>
       </c>
     </row>
-    <row r="64" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A64">
         <v>0.4</v>
       </c>
@@ -2895,7 +2895,7 @@
         <v>2.1009595581846269E-249</v>
       </c>
     </row>
-    <row r="65" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A65">
         <v>0.33333333333333331</v>
       </c>
@@ -2933,7 +2933,7 @@
         <v>2.1009595581846269E-249</v>
       </c>
     </row>
-    <row r="66" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A66">
         <v>0.5714285714285714</v>
       </c>
@@ -2971,7 +2971,7 @@
         <v>2.1009595581846269E-249</v>
       </c>
     </row>
-    <row r="67" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A67">
         <v>0.7931034482758621</v>
       </c>
@@ -3009,7 +3009,7 @@
         <v>2.1009595581846269E-249</v>
       </c>
     </row>
-    <row r="68" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A68">
         <v>0</v>
       </c>
@@ -3047,7 +3047,7 @@
         <v>2.1009595581846269E-249</v>
       </c>
     </row>
-    <row r="69" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A69">
         <v>0.76923076923076927</v>
       </c>
@@ -3085,7 +3085,7 @@
         <v>2.1009595581846269E-249</v>
       </c>
     </row>
-    <row r="70" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A70">
         <v>0.72972972972972971</v>
       </c>
@@ -3123,7 +3123,7 @@
         <v>2.1009595581846269E-249</v>
       </c>
     </row>
-    <row r="71" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A71">
         <v>0.3</v>
       </c>
@@ -3161,7 +3161,7 @@
         <v>2.1009595581846269E-249</v>
       </c>
     </row>
-    <row r="72" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A72">
         <v>0.75</v>
       </c>
@@ -3199,7 +3199,7 @@
         <v>2.1009595581846269E-249</v>
       </c>
     </row>
-    <row r="73" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A73">
         <v>0.50793650793650791</v>
       </c>
@@ -3237,7 +3237,7 @@
         <v>2.1009595581846269E-249</v>
       </c>
     </row>
-    <row r="74" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A74">
         <v>0.83018867924528306</v>
       </c>
@@ -3275,7 +3275,7 @@
         <v>2.1009595581846269E-249</v>
       </c>
     </row>
-    <row r="75" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A75">
         <v>0.85185185185185186</v>
       </c>
@@ -3313,7 +3313,7 @@
         <v>2.1009595581846269E-249</v>
       </c>
     </row>
-    <row r="76" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A76">
         <v>0.25</v>
       </c>
@@ -3351,7 +3351,7 @@
         <v>2.1009595581846269E-249</v>
       </c>
     </row>
-    <row r="77" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A77">
         <v>0.45454545454545447</v>
       </c>
@@ -3389,7 +3389,7 @@
         <v>2.1009595581846269E-249</v>
       </c>
     </row>
-    <row r="78" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A78">
         <v>0</v>
       </c>
@@ -3427,7 +3427,7 @@
         <v>2.1009595581846269E-249</v>
       </c>
     </row>
-    <row r="79" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A79">
         <v>0.29411764705882348</v>
       </c>
@@ -3465,7 +3465,7 @@
         <v>2.1009595581846269E-249</v>
       </c>
     </row>
-    <row r="80" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A80">
         <v>1</v>
       </c>
@@ -3503,7 +3503,7 @@
         <v>2.1009595581846269E-249</v>
       </c>
     </row>
-    <row r="81" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A81">
         <v>0.7142857142857143</v>
       </c>
@@ -3541,7 +3541,7 @@
         <v>2.1009595581846269E-249</v>
       </c>
     </row>
-    <row r="82" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A82">
         <v>0.2</v>
       </c>
@@ -3579,7 +3579,7 @@
         <v>2.1009595581846269E-249</v>
       </c>
     </row>
-    <row r="83" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A83">
         <v>0.78947368421052633</v>
       </c>
@@ -3617,7 +3617,7 @@
         <v>2.1009595581846269E-249</v>
       </c>
     </row>
-    <row r="84" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A84">
         <v>0</v>
       </c>
@@ -3655,7 +3655,7 @@
         <v>2.1009595581846269E-249</v>
       </c>
     </row>
-    <row r="85" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A85">
         <v>0.25</v>
       </c>
@@ -3693,7 +3693,7 @@
         <v>2.1009595581846269E-249</v>
       </c>
     </row>
-    <row r="86" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A86">
         <v>0.33333333333333331</v>
       </c>
@@ -3731,7 +3731,7 @@
         <v>2.1009595581846269E-249</v>
       </c>
     </row>
-    <row r="88" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A88">
         <f>AVERAGE(A2:A86)</f>
         <v>0.57267785504535984</v>
@@ -3777,7 +3777,7 @@
         <v>0.14476985296128944</v>
       </c>
     </row>
-    <row r="89" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A89">
         <f>_xlfn.STDEV.P(A2:A86)</f>
         <v>0.27214814491389477</v>
@@ -3834,2319 +3834,2319 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A2">
         <v>0.78465346534653468</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A3">
         <v>0.41014492753623188</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A4">
         <v>0.67735042735042739</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A5">
         <v>0.55345911949685522</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A6">
         <v>0.49906015037593981</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A7">
         <v>0.55778688524590159</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A8">
         <v>0.44945355191256831</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A9">
         <v>0.59377289377289366</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A10">
         <v>0.63229755178907721</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A11">
         <v>0.407258064516129</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A12">
         <v>0.79261363636363635</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A13">
         <v>0.74450549450549453</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A14">
         <v>0.66056338028169004</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A15">
         <v>0.66019417475728159</v>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A16">
         <v>0.59609374999999998</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A17">
         <v>0.66352201257861632</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A18">
         <v>0.71006944444444442</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A19">
         <v>0.45151033386327499</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A20">
         <v>0.91999999999999993</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A21">
         <v>0.5033333333333333</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A22">
         <v>0.63963963963963966</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A23">
         <v>0.8275290215588722</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A24">
         <v>0.50815850815850816</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A25">
         <v>0.27777777777777779</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A26">
         <v>0.66596638655462181</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A27">
         <v>0.64673913043478259</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A28">
         <v>0.6655092592592593</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A29">
         <v>0.501</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A30">
         <v>0.48127853881278537</v>
       </c>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A31">
         <v>0.44819819819819823</v>
       </c>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A32">
         <v>0.6063829787234043</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A33">
         <v>0.63043478260869568</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A34">
         <v>0.5427413411938099</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A35">
         <v>0.54682539682539688</v>
       </c>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A36">
         <v>0.66187290969899659</v>
       </c>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A37">
         <v>0.79104477611940294</v>
       </c>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A38">
         <v>0.56923639020825723</v>
       </c>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A39">
         <v>0.74528301886792458</v>
       </c>
     </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A40">
         <v>0.69624329159212883</v>
       </c>
     </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A41">
         <v>0.57363253856942487</v>
       </c>
     </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A42">
         <v>0.88461538461538458</v>
       </c>
     </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A43">
         <v>0.52884615384615385</v>
       </c>
     </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A44">
         <v>0.34343434343434343</v>
       </c>
     </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A45">
         <v>0.86290322580645162</v>
       </c>
     </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A46">
         <v>0.57517482517482521</v>
       </c>
     </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A47">
         <v>0.85106382978723405</v>
       </c>
     </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A48">
         <v>0.70370370370370372</v>
       </c>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A49">
         <v>0.60144927536231885</v>
       </c>
     </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A50">
         <v>0.81901041666666663</v>
       </c>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A51">
         <v>0.42753623188405798</v>
       </c>
     </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A52">
         <v>0.44974358974358969</v>
       </c>
     </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A53">
         <v>0.52045633359559407</v>
       </c>
     </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A54">
         <v>0.64777327935222684</v>
       </c>
     </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A55">
         <v>0.68617021276595747</v>
       </c>
     </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A56">
         <v>0.78421052631578947</v>
       </c>
     </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A57">
         <v>0.46410256410256412</v>
       </c>
     </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A58">
         <v>0.65909090909090917</v>
       </c>
     </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A59">
         <v>0.54865616311399446</v>
       </c>
     </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A60">
         <v>0.65824175824175823</v>
       </c>
     </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A61">
         <v>0.58940719144800779</v>
       </c>
     </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A62">
         <v>0.53975903614457832</v>
       </c>
     </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A63">
         <v>0.61013567438148442</v>
       </c>
     </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A64">
         <v>0.69808102345415779</v>
       </c>
     </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A65">
         <v>0.5995798319327732</v>
       </c>
     </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A66">
         <v>0.74584199584199584</v>
       </c>
     </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A67">
         <v>0.68867924528301894</v>
       </c>
     </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A68">
         <v>0.39175257731958768</v>
       </c>
     </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A69">
         <v>0.58354011579818033</v>
       </c>
     </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A70">
         <v>0.429160419790105</v>
       </c>
     </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A71">
         <v>0.5059370160041301</v>
       </c>
     </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A72">
         <v>0.69311215290299322</v>
       </c>
     </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A73">
         <v>0.62639109697933226</v>
       </c>
     </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A74">
         <v>0.79089253187613839</v>
       </c>
     </row>
-    <row r="75" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A75">
         <v>0.75601374570446733</v>
       </c>
     </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A76">
         <v>0.62816901408450709</v>
       </c>
     </row>
-    <row r="77" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A77">
         <v>0.6206896551724137</v>
       </c>
     </row>
-    <row r="78" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A78">
         <v>0.6010204081632653</v>
       </c>
     </row>
-    <row r="79" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A79">
         <v>0.77124183006535951</v>
       </c>
     </row>
-    <row r="80" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A80">
         <v>0.59032012195121952</v>
       </c>
     </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A81">
         <v>0.56698564593301437</v>
       </c>
     </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A82">
         <v>0.46879999999999999</v>
       </c>
     </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A83">
         <v>0.74659863945578231</v>
       </c>
     </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A84">
         <v>0.69534050179211471</v>
       </c>
     </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A85">
         <v>0.73466666666666669</v>
       </c>
     </row>
-    <row r="86" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A86">
         <v>0.50960735171261484</v>
       </c>
     </row>
-    <row r="87" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A87">
         <v>0.73620253164556959</v>
       </c>
     </row>
-    <row r="88" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A88">
         <v>0.62561205273069687</v>
       </c>
     </row>
-    <row r="89" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A89">
         <v>0.5070785070785071</v>
       </c>
     </row>
-    <row r="90" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A90">
         <v>0.98076923076923084</v>
       </c>
     </row>
-    <row r="91" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A91">
         <v>0.59993792675356916</v>
       </c>
     </row>
-    <row r="92" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A92">
         <v>0.48616780045351482</v>
       </c>
     </row>
-    <row r="93" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A93">
         <v>0.66137566137566139</v>
       </c>
     </row>
-    <row r="94" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A94">
         <v>0.68793706293706303</v>
       </c>
     </row>
-    <row r="95" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A95">
         <v>0.79347826086956519</v>
       </c>
     </row>
-    <row r="96" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A96">
         <v>0.79634703196347023</v>
       </c>
     </row>
-    <row r="97" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A97">
         <v>0.6250620347394541</v>
       </c>
     </row>
-    <row r="98" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A98">
         <v>0.61818181818181817</v>
       </c>
     </row>
-    <row r="99" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A99">
         <v>0.44527629233511579</v>
       </c>
     </row>
-    <row r="100" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A100">
         <v>0.43388429752066121</v>
       </c>
     </row>
-    <row r="101" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A101">
         <v>0.68584825234441604</v>
       </c>
     </row>
-    <row r="102" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A102">
         <v>0.73174603174603181</v>
       </c>
     </row>
-    <row r="103" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A103">
         <v>0.59768064228367535</v>
       </c>
     </row>
-    <row r="104" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A104">
         <v>0.46725571725571718</v>
       </c>
     </row>
-    <row r="105" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A105">
         <v>0.55222437137330749</v>
       </c>
     </row>
-    <row r="106" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A106">
         <v>0.60696517412935325</v>
       </c>
     </row>
-    <row r="107" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A107">
         <v>0.5857354028085735</v>
       </c>
     </row>
-    <row r="108" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A108">
         <v>0.81036931818181812</v>
       </c>
     </row>
-    <row r="109" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A109">
         <v>0.61707746478873238</v>
       </c>
     </row>
-    <row r="110" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A110">
         <v>0.48914431673052372</v>
       </c>
     </row>
-    <row r="111" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A111">
         <v>0.8</v>
       </c>
     </row>
-    <row r="112" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A112">
         <v>0.56609574000878349</v>
       </c>
     </row>
-    <row r="113" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A113">
         <v>0.47368421052631582</v>
       </c>
     </row>
-    <row r="114" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A114">
         <v>0.61969696969696975</v>
       </c>
     </row>
-    <row r="115" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A115">
         <v>0.97340425531914898</v>
       </c>
     </row>
-    <row r="116" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A116">
         <v>0.48428731762065103</v>
       </c>
     </row>
-    <row r="117" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A117">
         <v>0.59653647752394989</v>
       </c>
     </row>
-    <row r="118" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A118">
         <v>0.40465631929046558</v>
       </c>
     </row>
-    <row r="119" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A119">
         <v>0.66817838246409678</v>
       </c>
     </row>
-    <row r="120" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A120">
         <v>0.67683031869078381</v>
       </c>
     </row>
-    <row r="121" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A121">
         <v>0.57358156028368801</v>
       </c>
     </row>
-    <row r="122" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A122">
         <v>0.79411764705882348</v>
       </c>
     </row>
-    <row r="123" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A123">
         <v>0.59262672811059902</v>
       </c>
     </row>
-    <row r="124" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A124">
         <v>0.63829787234042556</v>
       </c>
     </row>
-    <row r="125" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A125">
         <v>0.7393617021276595</v>
       </c>
     </row>
-    <row r="126" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A126">
         <v>0.57448979591836724</v>
       </c>
     </row>
-    <row r="127" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A127">
         <v>0.5831939799331104</v>
       </c>
     </row>
-    <row r="128" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A128">
         <v>0.60833902939166096</v>
       </c>
     </row>
-    <row r="129" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A129">
         <v>0.64824120603015067</v>
       </c>
     </row>
-    <row r="130" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A130">
         <v>0.46652452025586361</v>
       </c>
     </row>
-    <row r="131" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A131">
         <v>0.64722222222222225</v>
       </c>
     </row>
-    <row r="132" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A132">
         <v>0.60790980672870432</v>
       </c>
     </row>
-    <row r="133" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A133">
         <v>0.61762391817466566</v>
       </c>
     </row>
-    <row r="134" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A134">
         <v>0.40272288098375048</v>
       </c>
     </row>
-    <row r="135" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A135">
         <v>0.76029962546816476</v>
       </c>
     </row>
-    <row r="136" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A136">
         <v>0.59411764705882353</v>
       </c>
     </row>
-    <row r="137" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A137">
         <v>0.80499999999999994</v>
       </c>
     </row>
-    <row r="138" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A138">
         <v>0.52556818181818177</v>
       </c>
     </row>
-    <row r="139" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A139">
         <v>0.65662064942640475</v>
       </c>
     </row>
-    <row r="140" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A140">
         <v>0.88834951456310685</v>
       </c>
     </row>
-    <row r="141" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A141">
         <v>0.90047393364928907</v>
       </c>
     </row>
-    <row r="142" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A142">
         <v>0.64030612244897955</v>
       </c>
     </row>
-    <row r="143" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A143">
         <v>0.67294034090909094</v>
       </c>
     </row>
-    <row r="144" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A144">
         <v>0.67755270773046716</v>
       </c>
     </row>
-    <row r="145" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A145">
         <v>0.77936507936507937</v>
       </c>
     </row>
-    <row r="146" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A146">
         <v>0.51211072664359869</v>
       </c>
     </row>
-    <row r="147" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A147">
         <v>0.77623762376237626</v>
       </c>
     </row>
-    <row r="148" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A148">
         <v>0.56451612903225801</v>
       </c>
     </row>
-    <row r="149" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A149">
         <v>0.73401297497683038</v>
       </c>
     </row>
-    <row r="150" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A150">
         <v>0.40009990009990021</v>
       </c>
     </row>
-    <row r="151" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A151">
         <v>0.47373188405797101</v>
       </c>
     </row>
-    <row r="152" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A152">
         <v>0.83592644978783592</v>
       </c>
     </row>
-    <row r="153" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A153">
         <v>0.49793103448275861</v>
       </c>
     </row>
-    <row r="154" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A154">
         <v>0.52187948350071733</v>
       </c>
     </row>
-    <row r="155" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A155">
         <v>0.61650485436893199</v>
       </c>
     </row>
-    <row r="156" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A156">
         <v>0.62289562289562284</v>
       </c>
     </row>
-    <row r="157" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A157">
         <v>0.69772727272727286</v>
       </c>
     </row>
-    <row r="158" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A158">
         <v>0.67455357142857142</v>
       </c>
     </row>
-    <row r="159" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A159">
         <v>0.68882602545968885</v>
       </c>
     </row>
-    <row r="160" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A160">
         <v>0.43636363636363629</v>
       </c>
     </row>
-    <row r="161" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A161">
         <v>0.47421549264867241</v>
       </c>
     </row>
-    <row r="162" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A162">
         <v>0.50358422939068093</v>
       </c>
     </row>
-    <row r="163" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A163">
         <v>0.49407894736842112</v>
       </c>
     </row>
-    <row r="164" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A164">
         <v>0.53209242618741981</v>
       </c>
     </row>
-    <row r="165" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A165">
         <v>0.62017336485421581</v>
       </c>
     </row>
-    <row r="166" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A166">
         <v>0.5146520146520146</v>
       </c>
     </row>
-    <row r="167" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A167">
         <v>0.40491875274483968</v>
       </c>
     </row>
-    <row r="168" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A168">
         <v>0.65346534653465349</v>
       </c>
     </row>
-    <row r="169" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A169">
         <v>0.53842592592592597</v>
       </c>
     </row>
-    <row r="170" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A170">
         <v>0.424834193072955</v>
       </c>
     </row>
-    <row r="171" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A171">
         <v>0.60739436619718312</v>
       </c>
     </row>
-    <row r="172" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A172">
         <v>0.69811320754716988</v>
       </c>
     </row>
-    <row r="173" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A173">
         <v>0.44</v>
       </c>
     </row>
-    <row r="174" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A174">
         <v>0.60904255319148937</v>
       </c>
     </row>
-    <row r="175" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A175">
         <v>0.6985815602836879</v>
       </c>
     </row>
-    <row r="176" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A176">
         <v>0.52644230769230771</v>
       </c>
     </row>
-    <row r="177" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A177">
         <v>0.71577380952380942</v>
       </c>
     </row>
-    <row r="178" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A178">
         <v>0.62816901408450698</v>
       </c>
     </row>
-    <row r="179" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A179">
         <v>0.52811515969410705</v>
       </c>
     </row>
-    <row r="180" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A180">
         <v>0.68911685994647631</v>
       </c>
     </row>
-    <row r="181" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A181">
         <v>0.72382198952879584</v>
       </c>
     </row>
-    <row r="182" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A182">
         <v>0.45567010309278361</v>
       </c>
     </row>
-    <row r="183" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A183">
         <v>0.68124999999999991</v>
       </c>
     </row>
-    <row r="184" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A184">
         <v>0.74675324675324672</v>
       </c>
     </row>
-    <row r="185" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A185">
         <v>0.6738983050847458</v>
       </c>
     </row>
-    <row r="186" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A186">
         <v>0.68448795180722888</v>
       </c>
     </row>
-    <row r="187" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A187">
         <v>0.52970297029702973</v>
       </c>
     </row>
-    <row r="188" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A188">
         <v>0.92788461538461542</v>
       </c>
     </row>
-    <row r="189" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A189">
         <v>0.72865497076023389</v>
       </c>
     </row>
-    <row r="190" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A190">
         <v>0.69444444444444442</v>
       </c>
     </row>
-    <row r="191" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A191">
         <v>0.39778062313273582</v>
       </c>
     </row>
-    <row r="192" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A192">
         <v>0.54465075154730336</v>
       </c>
     </row>
-    <row r="193" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A193">
         <v>0.40659340659340659</v>
       </c>
     </row>
-    <row r="194" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A194">
         <v>0.67999999999999994</v>
       </c>
     </row>
-    <row r="195" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A195">
         <v>0.83736263736263727</v>
       </c>
     </row>
-    <row r="196" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A196">
         <v>0.63699906803355077</v>
       </c>
     </row>
-    <row r="197" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A197">
         <v>0.55255681818181812</v>
       </c>
     </row>
-    <row r="198" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A198">
         <v>0.72010869565217395</v>
       </c>
     </row>
-    <row r="199" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A199">
         <v>0.68847539015606241</v>
       </c>
     </row>
-    <row r="200" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A200">
         <v>0.5</v>
       </c>
     </row>
-    <row r="201" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A201">
         <v>0.67173913043478262</v>
       </c>
     </row>
-    <row r="202" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A202">
         <v>0.55218855218855223</v>
       </c>
     </row>
-    <row r="203" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A203">
         <v>0.87943262411347511</v>
       </c>
     </row>
-    <row r="204" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A204">
         <v>0.51865079365079358</v>
       </c>
     </row>
-    <row r="205" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A205">
         <v>0.60344827586206895</v>
       </c>
     </row>
-    <row r="206" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A206">
         <v>0.5</v>
       </c>
     </row>
-    <row r="207" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A207">
         <v>0.60599334073251931</v>
       </c>
     </row>
-    <row r="208" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A208">
         <v>0.6712904581757041</v>
       </c>
     </row>
-    <row r="209" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A209">
         <v>0.50452898550724634</v>
       </c>
     </row>
-    <row r="210" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A210">
         <v>0.98058252427184467</v>
       </c>
     </row>
-    <row r="211" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A211">
         <v>0.81</v>
       </c>
     </row>
-    <row r="212" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A212">
         <v>0.45759368836291908</v>
       </c>
     </row>
-    <row r="213" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A213">
         <v>0.46959459459459463</v>
       </c>
     </row>
-    <row r="214" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A214">
         <v>0.57369614512471656</v>
       </c>
     </row>
-    <row r="215" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A215">
         <v>0.61274509803921573</v>
       </c>
     </row>
-    <row r="216" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A216">
         <v>0.78</v>
       </c>
     </row>
-    <row r="217" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A217">
         <v>0.72146118721461194</v>
       </c>
     </row>
-    <row r="218" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A218">
         <v>0.9285714285714286</v>
       </c>
     </row>
-    <row r="219" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A219">
         <v>0.49038461538461542</v>
       </c>
     </row>
-    <row r="220" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A220">
         <v>0.70268199233716488</v>
       </c>
     </row>
-    <row r="221" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A221">
         <v>0.7286324786324786</v>
       </c>
     </row>
-    <row r="222" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A222">
         <v>0.73816568047337272</v>
       </c>
     </row>
-    <row r="223" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A223">
         <v>0.83870967741935476</v>
       </c>
     </row>
-    <row r="224" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A224">
         <v>0.52482269503546097</v>
       </c>
     </row>
-    <row r="225" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A225">
         <v>0.38638638638638639</v>
       </c>
     </row>
-    <row r="226" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A226">
         <v>0.40867850098619329</v>
       </c>
     </row>
-    <row r="227" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A227">
         <v>0.59682539682539681</v>
       </c>
     </row>
-    <row r="228" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A228">
         <v>0.6875</v>
       </c>
     </row>
-    <row r="229" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A229">
         <v>0.70432868672046955</v>
       </c>
     </row>
-    <row r="230" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A230">
         <v>0.46071428571428569</v>
       </c>
     </row>
-    <row r="231" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A231">
         <v>0.79068825910931184</v>
       </c>
     </row>
-    <row r="232" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A232">
         <v>0.62565550625252109</v>
       </c>
     </row>
-    <row r="233" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A233">
         <v>0.81351200446677829</v>
       </c>
     </row>
-    <row r="234" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A234">
         <v>0.44147157190635461</v>
       </c>
     </row>
-    <row r="235" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A235">
         <v>0.63298890164561805</v>
       </c>
     </row>
-    <row r="236" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A236">
         <v>0.72826086956521741</v>
       </c>
     </row>
-    <row r="237" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A237">
         <v>0.39128787878787891</v>
       </c>
     </row>
-    <row r="238" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A238">
         <v>0.5409986257443884</v>
       </c>
     </row>
-    <row r="239" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A239">
         <v>0.87813620071684584</v>
       </c>
     </row>
-    <row r="240" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A240">
         <v>0.71739130434782616</v>
       </c>
     </row>
-    <row r="241" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A241">
         <v>0.63906250000000009</v>
       </c>
     </row>
-    <row r="242" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A242">
         <v>0.63802816901408455</v>
       </c>
     </row>
-    <row r="243" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A243">
         <v>0.58762886597938135</v>
       </c>
     </row>
-    <row r="244" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A244">
         <v>0.66711650922177235</v>
       </c>
     </row>
-    <row r="245" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A245">
         <v>0.71268656716417911</v>
       </c>
     </row>
-    <row r="246" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A246">
         <v>0.36153846153846148</v>
       </c>
     </row>
-    <row r="247" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A247">
         <v>0.67972350230414746</v>
       </c>
     </row>
-    <row r="248" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A248">
         <v>0.68378378378378391</v>
       </c>
     </row>
-    <row r="249" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A249">
         <v>0.5439453125</v>
       </c>
     </row>
-    <row r="250" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A250">
         <v>0.62831439393939392</v>
       </c>
     </row>
-    <row r="251" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A251">
         <v>0.74528301886792458</v>
       </c>
     </row>
-    <row r="252" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A252">
         <v>0.4693957115009747</v>
       </c>
     </row>
-    <row r="253" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A253">
         <v>0.66666666666666663</v>
       </c>
     </row>
-    <row r="254" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A254">
         <v>0.42822774659182039</v>
       </c>
     </row>
-    <row r="255" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A255">
         <v>0.55476190476190479</v>
       </c>
     </row>
-    <row r="256" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A256">
         <v>0.49706959706959708</v>
       </c>
     </row>
-    <row r="257" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A257">
         <v>0.74743589743589745</v>
       </c>
     </row>
-    <row r="258" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A258">
         <v>0.74516908212560384</v>
       </c>
     </row>
-    <row r="259" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A259">
         <v>0.9946236559139785</v>
       </c>
     </row>
-    <row r="260" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A260">
         <v>0.51804969526488509</v>
       </c>
     </row>
-    <row r="261" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A261">
         <v>0.74509803921568629</v>
       </c>
     </row>
-    <row r="262" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A262">
         <v>0.47311827956989239</v>
       </c>
     </row>
-    <row r="263" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A263">
         <v>0.41681574239713781</v>
       </c>
     </row>
-    <row r="264" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A264">
         <v>0.90816326530612235</v>
       </c>
     </row>
-    <row r="265" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A265">
         <v>0.64712918660287078</v>
       </c>
     </row>
-    <row r="266" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A266">
         <v>0.60049019607843135</v>
       </c>
     </row>
-    <row r="267" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A267">
         <v>0.99298245614035086</v>
       </c>
     </row>
-    <row r="268" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A268">
         <v>0.52138157894736836</v>
       </c>
     </row>
-    <row r="269" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A269">
         <v>0.53601609657947691</v>
       </c>
     </row>
-    <row r="270" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A270">
         <v>0.58762886597938147</v>
       </c>
     </row>
-    <row r="271" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A271">
         <v>0.80555555555555558</v>
       </c>
     </row>
-    <row r="272" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A272">
         <v>0.75252525252525249</v>
       </c>
     </row>
-    <row r="273" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A273">
         <v>0.58229813664596275</v>
       </c>
     </row>
-    <row r="274" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A274">
         <v>0.42478813559322032</v>
       </c>
     </row>
-    <row r="275" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A275">
         <v>0.70404984423676009</v>
       </c>
     </row>
-    <row r="276" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A276">
         <v>0.32902467685076381</v>
       </c>
     </row>
-    <row r="277" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A277">
         <v>0.67535744322960467</v>
       </c>
     </row>
-    <row r="278" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A278">
         <v>0.43202208419599719</v>
       </c>
     </row>
-    <row r="279" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A279">
         <v>0.75252525252525249</v>
       </c>
     </row>
-    <row r="280" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A280">
         <v>0.57088122605363978</v>
       </c>
     </row>
-    <row r="281" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A281">
         <v>0.50895140664961636</v>
       </c>
     </row>
-    <row r="282" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A282">
         <v>0.64254385964912286</v>
       </c>
     </row>
-    <row r="283" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A283">
         <v>0.81954887218045114</v>
       </c>
     </row>
-    <row r="284" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A284">
         <v>0.53003246753246747</v>
       </c>
     </row>
-    <row r="285" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A285">
         <v>0.76923076923076916</v>
       </c>
     </row>
-    <row r="286" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A286">
         <v>0.64</v>
       </c>
     </row>
-    <row r="287" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A287">
         <v>0.70388349514563109</v>
       </c>
     </row>
-    <row r="288" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A288">
         <v>0.74519230769230771</v>
       </c>
     </row>
-    <row r="289" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A289">
         <v>0.48785996612083571</v>
       </c>
     </row>
-    <row r="290" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A290">
         <v>0.69791666666666674</v>
       </c>
     </row>
-    <row r="291" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A291">
         <v>0.65404040404040409</v>
       </c>
     </row>
-    <row r="292" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A292">
         <v>0.39750519750519753</v>
       </c>
     </row>
-    <row r="293" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A293">
         <v>0.65817091454272869</v>
       </c>
     </row>
-    <row r="294" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A294">
         <v>0.42875816993464061</v>
       </c>
     </row>
-    <row r="295" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A295">
         <v>0.69918699186991884</v>
       </c>
     </row>
-    <row r="296" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A296">
         <v>0.66666666666666674</v>
       </c>
     </row>
-    <row r="297" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A297">
         <v>0.49337121212121221</v>
       </c>
     </row>
-    <row r="298" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A298">
         <v>0.63192307692307692</v>
       </c>
     </row>
-    <row r="299" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A299">
         <v>0.28705882352941181</v>
       </c>
     </row>
-    <row r="300" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A300">
         <v>0.55118755118755114</v>
       </c>
     </row>
-    <row r="301" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A301">
         <v>0.42787524366471741</v>
       </c>
     </row>
-    <row r="302" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A302">
         <v>0.55788982259570497</v>
       </c>
     </row>
-    <row r="303" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A303">
         <v>0.70167151162790697</v>
       </c>
     </row>
-    <row r="304" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A304">
         <v>0.83368421052631581</v>
       </c>
     </row>
-    <row r="305" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A305">
         <v>0.58793576184880536</v>
       </c>
     </row>
-    <row r="306" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A306">
         <v>0.78712871287128716</v>
       </c>
     </row>
-    <row r="307" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A307">
         <v>0.41311475409836068</v>
       </c>
     </row>
-    <row r="308" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A308">
         <v>0.54395604395604402</v>
       </c>
     </row>
-    <row r="309" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A309">
         <v>0.88265306122448983</v>
       </c>
     </row>
-    <row r="310" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A310">
         <v>0.48615916955017302</v>
       </c>
     </row>
-    <row r="311" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A311">
         <v>0.60052910052910047</v>
       </c>
     </row>
-    <row r="312" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A312">
         <v>0.36058823529411771</v>
       </c>
     </row>
-    <row r="313" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A313">
         <v>0.55994005994005991</v>
       </c>
     </row>
-    <row r="314" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A314">
         <v>0.59615384615384615</v>
       </c>
     </row>
-    <row r="315" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A315">
         <v>0.78535353535353536</v>
       </c>
     </row>
-    <row r="316" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A316">
         <v>0.33169533169533172</v>
       </c>
     </row>
-    <row r="317" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A317">
         <v>0.66185666185666181</v>
       </c>
     </row>
-    <row r="318" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A318">
         <v>0.66326530612244894</v>
       </c>
     </row>
-    <row r="319" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A319">
         <v>0.64583333333333337</v>
       </c>
     </row>
-    <row r="320" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A320">
         <v>0.73333333333333328</v>
       </c>
     </row>
-    <row r="321" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A321">
         <v>0.64153732446415379</v>
       </c>
     </row>
-    <row r="322" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A322">
         <v>0.71099290780141844</v>
       </c>
     </row>
-    <row r="323" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A323">
         <v>0.84246575342465757</v>
       </c>
     </row>
-    <row r="324" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A324">
         <v>0.63725490196078427</v>
       </c>
     </row>
-    <row r="325" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A325">
         <v>0.76842105263157889</v>
       </c>
     </row>
-    <row r="326" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A326">
         <v>0.56160714285714286</v>
       </c>
     </row>
-    <row r="327" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A327">
         <v>0.54235197368421051</v>
       </c>
     </row>
-    <row r="328" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A328">
         <v>0.44593626924453988</v>
       </c>
     </row>
-    <row r="329" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A329">
         <v>0.83333333333333337</v>
       </c>
     </row>
-    <row r="330" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A330">
         <v>0.65427373792600696</v>
       </c>
     </row>
-    <row r="331" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A331">
         <v>0.64385964912280702</v>
       </c>
     </row>
-    <row r="332" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A332">
         <v>0.94791666666666663</v>
       </c>
     </row>
-    <row r="333" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A333">
         <v>0.90136054421768719</v>
       </c>
     </row>
-    <row r="334" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A334">
         <v>0.71396011396011394</v>
       </c>
     </row>
-    <row r="335" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A335">
         <v>0.36763518966908798</v>
       </c>
     </row>
-    <row r="336" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A336">
         <v>0.38022113022113019</v>
       </c>
     </row>
-    <row r="337" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A337">
         <v>0.77173913043478248</v>
       </c>
     </row>
-    <row r="338" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A338">
         <v>0.69105113636363635</v>
       </c>
     </row>
-    <row r="339" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A339">
         <v>0.60377358490566035</v>
       </c>
     </row>
-    <row r="340" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A340">
         <v>0.29055816379760052</v>
       </c>
     </row>
-    <row r="341" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A341">
         <v>0.74528301886792447</v>
       </c>
     </row>
-    <row r="342" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A342">
         <v>0.58560606060606069</v>
       </c>
     </row>
-    <row r="343" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A343">
         <v>0.64909638554216864</v>
       </c>
     </row>
-    <row r="344" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A344">
         <v>0.55646551724137927</v>
       </c>
     </row>
-    <row r="345" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A345">
         <v>0.65306122448979598</v>
       </c>
     </row>
-    <row r="346" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A346">
         <v>0.83895131086142327</v>
       </c>
     </row>
-    <row r="347" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A347">
         <v>0.65346729708431839</v>
       </c>
     </row>
-    <row r="348" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A348">
         <v>0.40756704980842912</v>
       </c>
     </row>
-    <row r="349" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A349">
         <v>0.71904761904761905</v>
       </c>
     </row>
-    <row r="350" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A350">
         <v>0.43557692307692308</v>
       </c>
     </row>
-    <row r="351" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A351">
         <v>0.66040843214756262</v>
       </c>
     </row>
-    <row r="352" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A352">
         <v>0.96190476190476193</v>
       </c>
     </row>
-    <row r="353" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A353">
         <v>0.89999999999999991</v>
       </c>
     </row>
-    <row r="354" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A354">
         <v>0.71381306865177829</v>
       </c>
     </row>
-    <row r="355" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A355">
         <v>0.6206896551724137</v>
       </c>
     </row>
-    <row r="356" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A356">
         <v>0.509493670886076</v>
       </c>
     </row>
-    <row r="357" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A357">
         <v>0.8794642857142857</v>
       </c>
     </row>
-    <row r="358" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A358">
         <v>0.71457326892109507</v>
       </c>
     </row>
-    <row r="359" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A359">
         <v>0.45028957528957531</v>
       </c>
     </row>
-    <row r="360" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A360">
         <v>0.94554455445544561</v>
       </c>
     </row>
-    <row r="361" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A361">
         <v>0.4563543003851091</v>
       </c>
     </row>
-    <row r="362" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A362">
         <v>0.62526315789473685</v>
       </c>
     </row>
-    <row r="363" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A363">
         <v>0.57000000000000006</v>
       </c>
     </row>
-    <row r="364" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A364">
         <v>0.47858472998137802</v>
       </c>
     </row>
-    <row r="365" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A365">
         <v>0.625</v>
       </c>
     </row>
-    <row r="366" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A366">
         <v>0.51248923341946595</v>
       </c>
     </row>
-    <row r="367" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A367">
         <v>0.38330419580419578</v>
       </c>
     </row>
-    <row r="368" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A368">
         <v>0.41865605658709099</v>
       </c>
     </row>
-    <row r="369" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A369">
         <v>0.62735849056603776</v>
       </c>
     </row>
-    <row r="370" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A370">
         <v>0.55526083112290014</v>
       </c>
     </row>
-    <row r="371" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A371">
         <v>0.55673758865248224</v>
       </c>
     </row>
-    <row r="372" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A372">
         <v>0.50543478260869557</v>
       </c>
     </row>
-    <row r="373" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A373">
         <v>0.63073005093378609</v>
       </c>
     </row>
-    <row r="374" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A374">
         <v>0.52299465240641707</v>
       </c>
     </row>
-    <row r="375" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A375">
         <v>0.66323417238749027</v>
       </c>
     </row>
-    <row r="376" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A376">
         <v>0.93269230769230771</v>
       </c>
     </row>
-    <row r="377" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A377">
         <v>0.70297029702970293</v>
       </c>
     </row>
-    <row r="378" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A378">
         <v>0.35492549668874168</v>
       </c>
     </row>
-    <row r="379" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A379">
         <v>0.67548500881834217</v>
       </c>
     </row>
-    <row r="380" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A380">
         <v>0.60256410256410253</v>
       </c>
     </row>
-    <row r="381" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A381">
         <v>0.61743450767841013</v>
       </c>
     </row>
-    <row r="382" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A382">
         <v>0.49897959183673468</v>
       </c>
     </row>
-    <row r="383" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A383">
         <v>0.71361132966168372</v>
       </c>
     </row>
-    <row r="384" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A384">
         <v>0.44379276637341158</v>
       </c>
     </row>
-    <row r="385" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A385">
         <v>0.63058419243986252</v>
       </c>
     </row>
-    <row r="386" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A386">
         <v>0.66470588235294115</v>
       </c>
     </row>
-    <row r="387" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A387">
         <v>0.27272727272727271</v>
       </c>
     </row>
-    <row r="388" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A388">
         <v>0.7857142857142857</v>
       </c>
     </row>
-    <row r="389" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A389">
         <v>0.5542735042735043</v>
       </c>
     </row>
-    <row r="390" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A390">
         <v>0.75</v>
       </c>
     </row>
-    <row r="391" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A391">
         <v>0.65236258437801353</v>
       </c>
     </row>
-    <row r="392" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A392">
         <v>0.62037037037037035</v>
       </c>
     </row>
-    <row r="393" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A393">
         <v>0.79591836734693877</v>
       </c>
     </row>
-    <row r="394" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A394">
         <v>0.74629629629629624</v>
       </c>
     </row>
-    <row r="395" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A395">
         <v>0.59039876113046852</v>
       </c>
     </row>
-    <row r="396" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A396">
         <v>0.66666666666666663</v>
       </c>
     </row>
-    <row r="397" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A397">
         <v>0.58338012352610891</v>
       </c>
     </row>
-    <row r="398" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A398">
         <v>0.80299667036625966</v>
       </c>
     </row>
-    <row r="399" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A399">
         <v>0.89565217391304353</v>
       </c>
     </row>
-    <row r="400" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A400">
         <v>0.77812018489984591</v>
       </c>
     </row>
-    <row r="401" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A401">
         <v>0.43805516596540439</v>
       </c>
     </row>
-    <row r="402" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A402">
         <v>0.52159624413145544</v>
       </c>
     </row>
-    <row r="403" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A403">
         <v>0.74999999999999989</v>
       </c>
     </row>
-    <row r="404" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A404">
         <v>0.72106481481481488</v>
       </c>
     </row>
-    <row r="405" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A405">
         <v>0.60252100840336131</v>
       </c>
     </row>
-    <row r="406" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A406">
         <v>0.58455882352941169</v>
       </c>
     </row>
-    <row r="407" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A407">
         <v>0.70891089108910887</v>
       </c>
     </row>
-    <row r="408" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A408">
         <v>0.6219806763285024</v>
       </c>
     </row>
-    <row r="409" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A409">
         <v>0.69587628865979378</v>
       </c>
     </row>
-    <row r="410" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A410">
         <v>0.69178082191780821</v>
       </c>
     </row>
-    <row r="411" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A411">
         <v>0.6785714285714286</v>
       </c>
     </row>
-    <row r="412" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A412">
         <v>0.7088888888888889</v>
       </c>
     </row>
-    <row r="413" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A413">
         <v>0.81749829118250172</v>
       </c>
     </row>
-    <row r="414" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A414">
         <v>0.54017857142857151</v>
       </c>
     </row>
-    <row r="415" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A415">
         <v>0.85093632958801491</v>
       </c>
     </row>
-    <row r="416" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A416">
         <v>0.7</v>
       </c>
     </row>
-    <row r="417" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A417">
         <v>0.73287981859410423</v>
       </c>
     </row>
-    <row r="418" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A418">
         <v>0.64478114478114479</v>
       </c>
     </row>
-    <row r="419" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A419">
         <v>0.51260504201680668</v>
       </c>
     </row>
-    <row r="420" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A420">
         <v>0.42268041237113407</v>
       </c>
     </row>
-    <row r="421" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A421">
         <v>0.62411347517730498</v>
       </c>
     </row>
-    <row r="422" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A422">
         <v>0.60175438596491226</v>
       </c>
     </row>
-    <row r="423" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A423">
         <v>0.24846480869154469</v>
       </c>
     </row>
-    <row r="424" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A424">
         <v>0.66506024096385541</v>
       </c>
     </row>
-    <row r="425" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A425">
         <v>0.75627240143369179</v>
       </c>
     </row>
-    <row r="426" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A426">
         <v>0.66721311475409828</v>
       </c>
     </row>
-    <row r="427" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A427">
         <v>0.62290969899665549</v>
       </c>
     </row>
-    <row r="428" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A428">
         <v>0.85296684118673649</v>
       </c>
     </row>
-    <row r="429" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A429">
         <v>0.67375886524822703</v>
       </c>
     </row>
-    <row r="430" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A430">
         <v>0.84511784511784505</v>
       </c>
     </row>
-    <row r="431" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A431">
         <v>0.61279461279461278</v>
       </c>
     </row>
-    <row r="432" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A432">
         <v>0.47259136212624592</v>
       </c>
     </row>
-    <row r="433" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A433">
         <v>0.78991596638655459</v>
       </c>
     </row>
-    <row r="434" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A434">
         <v>0.72616487455197132</v>
       </c>
     </row>
-    <row r="435" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A435">
         <v>0.57954545454545447</v>
       </c>
     </row>
-    <row r="436" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A436">
         <v>0.50990099009900991</v>
       </c>
     </row>
-    <row r="437" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A437">
         <v>0.59366576819407013</v>
       </c>
     </row>
-    <row r="438" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A438">
         <v>0.521505376344086</v>
       </c>
     </row>
-    <row r="439" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A439">
         <v>0.46041308089500871</v>
       </c>
     </row>
-    <row r="440" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A440">
         <v>0.4875100725221595</v>
       </c>
     </row>
-    <row r="441" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A441">
         <v>0.73599439775910369</v>
       </c>
     </row>
-    <row r="442" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A442">
         <v>0.92021276595744683</v>
       </c>
     </row>
-    <row r="443" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="443" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A443">
         <v>0.4654166666666667</v>
       </c>
     </row>
-    <row r="444" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="444" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A444">
         <v>0.73762376237623761</v>
       </c>
     </row>
-    <row r="445" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="445" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A445">
         <v>0.46746031746031752</v>
       </c>
     </row>
-    <row r="446" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="446" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A446">
         <v>0.87128712871287128</v>
       </c>
     </row>
-    <row r="447" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="447" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A447">
         <v>0.78333333333333333</v>
       </c>
     </row>
-    <row r="448" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="448" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A448">
         <v>0.55820895522388059</v>
       </c>
     </row>
-    <row r="449" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="449" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A449">
         <v>0.57281553398058249</v>
       </c>
     </row>
-    <row r="450" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="450" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A450">
         <v>0.62517482517482525</v>
       </c>
     </row>
-    <row r="451" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="451" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A451">
         <v>0.78365384615384626</v>
       </c>
     </row>
-    <row r="452" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="452" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A452">
         <v>0.42976190476190479</v>
       </c>
     </row>
-    <row r="453" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="453" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A453">
         <v>0.63020833333333337</v>
       </c>
     </row>
-    <row r="454" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="454" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A454">
         <v>0.74273504273504276</v>
       </c>
     </row>
-    <row r="455" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="455" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A455">
         <v>0.32491438356164382</v>
       </c>
     </row>
-    <row r="456" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="456" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A456">
         <v>0.71673525377229086</v>
       </c>
     </row>
-    <row r="457" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="457" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A457">
         <v>0.45978021978021982</v>
       </c>
     </row>
-    <row r="458" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="458" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A458">
         <v>0.52826086956521734</v>
       </c>
     </row>
-    <row r="459" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="459" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A459">
         <v>0.65402843601895733</v>
       </c>
     </row>
-    <row r="460" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="460" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A460">
         <v>0.67876344086021501</v>
       </c>
     </row>
-    <row r="461" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="461" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A461">
         <v>0.3611111111111111</v>
       </c>
     </row>
-    <row r="462" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="462" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A462">
         <v>0.65270413573700958</v>
       </c>
     </row>
-    <row r="463" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="463" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A463">
         <v>0.61682242990654212</v>
       </c>
@@ -6158,15 +6158,27 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9AEBD852-084B-422D-940A-A630199944A5}">
-  <dimension ref="A1:L25"/>
+  <dimension ref="A1:L28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I33" sqref="I33"/>
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="3" width="11.73046875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.46484375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.73046875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.59765625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.19921875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.73046875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.59765625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.73046875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.86328125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -6204,7 +6216,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A2">
         <v>0.45</v>
       </c>
@@ -6242,7 +6254,7 @@
         <v>5.6262789151543097E-15</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A3">
         <v>0.47368421052631582</v>
       </c>
@@ -6280,7 +6292,7 @@
         <v>5.6262789151543097E-15</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A4">
         <v>0.4</v>
       </c>
@@ -6318,7 +6330,7 @@
         <v>5.6262789151543097E-15</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A5">
         <v>0.5</v>
       </c>
@@ -6356,7 +6368,7 @@
         <v>5.6262789151543097E-15</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A6">
         <v>0.23076923076923081</v>
       </c>
@@ -6394,7 +6406,7 @@
         <v>5.6262789151543097E-15</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A7">
         <v>0.2</v>
       </c>
@@ -6432,7 +6444,7 @@
         <v>5.6262789151543097E-15</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A8">
         <v>0.22222222222222221</v>
       </c>
@@ -6470,7 +6482,7 @@
         <v>5.6262789151543097E-15</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A9">
         <v>0.5</v>
       </c>
@@ -6508,7 +6520,7 @@
         <v>5.6262789151543097E-15</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A10">
         <v>0.63636363636363635</v>
       </c>
@@ -6546,7 +6558,7 @@
         <v>5.6262789151543097E-15</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A11">
         <v>0.375</v>
       </c>
@@ -6584,7 +6596,7 @@
         <v>5.6262789151543097E-15</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A12">
         <v>0.47058823529411759</v>
       </c>
@@ -6622,7 +6634,7 @@
         <v>5.6262789151543097E-15</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A13">
         <v>0.2</v>
       </c>
@@ -6660,7 +6672,7 @@
         <v>5.6262789151543097E-15</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A14">
         <v>0.22222222222222221</v>
       </c>
@@ -6698,7 +6710,7 @@
         <v>5.6262789151543097E-15</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A15">
         <v>0.42857142857142849</v>
       </c>
@@ -6736,7 +6748,7 @@
         <v>5.6262789151543097E-15</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A16">
         <v>0.1875</v>
       </c>
@@ -6774,7 +6786,7 @@
         <v>5.6262789151543097E-15</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A17">
         <v>0.1333333333333333</v>
       </c>
@@ -6812,7 +6824,7 @@
         <v>5.6262789151543097E-15</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A18">
         <v>0.26315789473684209</v>
       </c>
@@ -6850,7 +6862,7 @@
         <v>5.6262789151543097E-15</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A19">
         <v>0.4375</v>
       </c>
@@ -6888,7 +6900,7 @@
         <v>5.6262789151543097E-15</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A20">
         <v>1</v>
       </c>
@@ -6926,7 +6938,7 @@
         <v>5.6262789151543097E-15</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A21">
         <v>0.5</v>
       </c>
@@ -6964,7 +6976,7 @@
         <v>5.6262789151543097E-15</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A22">
         <v>0.7142857142857143</v>
       </c>
@@ -7002,7 +7014,7 @@
         <v>5.6262789151543097E-15</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A23">
         <v>0.4</v>
       </c>
@@ -7040,7 +7052,7 @@
         <v>5.6262789151543097E-15</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A24">
         <v>0.52941176470588236</v>
       </c>
@@ -7078,7 +7090,7 @@
         <v>5.6262789151543097E-15</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A25">
         <v>0.47368421052631582</v>
       </c>
@@ -7114,6 +7126,98 @@
       </c>
       <c r="L25">
         <v>5.6262789151543097E-15</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A27">
+        <f>AVERAGE(A2:A25)</f>
+        <v>0.41451225431488586</v>
+      </c>
+      <c r="B27">
+        <f t="shared" ref="B27:K27" si="0">AVERAGE(B2:B25)</f>
+        <v>0.50120834877268694</v>
+      </c>
+      <c r="C27">
+        <f t="shared" si="0"/>
+        <v>0.42903154215726919</v>
+      </c>
+      <c r="D27">
+        <f t="shared" si="0"/>
+        <v>2.6008439659755453E-2</v>
+      </c>
+      <c r="E27">
+        <f t="shared" si="0"/>
+        <v>0.39111169349656194</v>
+      </c>
+      <c r="F27">
+        <f t="shared" si="0"/>
+        <v>0.49199201533760356</v>
+      </c>
+      <c r="G27">
+        <f t="shared" si="0"/>
+        <v>0.41731915242044354</v>
+      </c>
+      <c r="H27">
+        <f t="shared" si="0"/>
+        <v>2.6008439659755453E-2</v>
+      </c>
+      <c r="I27">
+        <f t="shared" si="0"/>
+        <v>30.583333333333332</v>
+      </c>
+      <c r="J27">
+        <f t="shared" si="0"/>
+        <v>-9.6051632974931047E-3</v>
+      </c>
+      <c r="K27">
+        <f t="shared" si="0"/>
+        <v>0.19613150813696889</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A28">
+        <f>_xlfn.STDEV.P(A2:A25)</f>
+        <v>0.19195997900736053</v>
+      </c>
+      <c r="B28">
+        <f t="shared" ref="B28:K28" si="1">_xlfn.STDEV.P(B2:B25)</f>
+        <v>0.16638066471592047</v>
+      </c>
+      <c r="C28">
+        <f t="shared" si="1"/>
+        <v>0.13722176526931662</v>
+      </c>
+      <c r="D28">
+        <f t="shared" si="1"/>
+        <v>5.3890107372500044E-2</v>
+      </c>
+      <c r="E28">
+        <f t="shared" si="1"/>
+        <v>0.16196592751854685</v>
+      </c>
+      <c r="F28">
+        <f t="shared" si="1"/>
+        <v>0.13873075202325263</v>
+      </c>
+      <c r="G28">
+        <f t="shared" si="1"/>
+        <v>0.1272380067169912</v>
+      </c>
+      <c r="H28">
+        <f t="shared" si="1"/>
+        <v>5.3890107372500044E-2</v>
+      </c>
+      <c r="I28">
+        <f t="shared" si="1"/>
+        <v>8.3562185759402485</v>
+      </c>
+      <c r="J28">
+        <f t="shared" si="1"/>
+        <v>0.36352794131033744</v>
+      </c>
+      <c r="K28">
+        <f t="shared" si="1"/>
+        <v>0.25819273704939638</v>
       </c>
     </row>
   </sheetData>
@@ -7123,502 +7227,514 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C10D504-B98A-4A0E-9074-ED470C963A54}">
-  <dimension ref="A1:A98"/>
+  <dimension ref="A1:A101"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H31" sqref="H31"/>
+    <sheetView tabSelected="1" topLeftCell="A71" workbookViewId="0">
+      <selection activeCell="A102" sqref="A102"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A2">
         <v>0.70720164609053504</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A3">
         <v>0.77749999999999997</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A4">
         <v>0.85588235294117643</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A5">
         <v>0.63277848911651724</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A6">
         <v>0.60781249999999998</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A7">
         <v>0.75</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A8">
         <v>0.90671182266009853</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A9">
         <v>0.64259259259259249</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A10">
         <v>0.83916623777663402</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A11">
         <v>0.85523809523809524</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A12">
         <v>0.85333333333333328</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A13">
         <v>0.76289473684210529</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A14">
         <v>0.72759103641456579</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A15">
         <v>0.62797619047619047</v>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A16">
         <v>0.72641857037582902</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A17">
         <v>0.73193080878915384</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A18">
         <v>0.71435185185185179</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A19">
         <v>0.76433566433566436</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A20">
         <v>0.75803921568627453</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A21">
         <v>0.75993589743589751</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A22">
         <v>0.71391752577319578</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A23">
         <v>0.75191919191919199</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A24">
         <v>0.93949579831932772</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A25">
         <v>0.53681506849315075</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A26">
         <v>0.81969230769230772</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A27">
         <v>0.80743079164643039</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A28">
         <v>0.50824587706146929</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A29">
         <v>0.79378591189614822</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A30">
         <v>0.79578246392896779</v>
       </c>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A31">
         <v>0.82861292665214237</v>
       </c>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A32">
         <v>0.91865079365079372</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A33">
         <v>0.87706919945725914</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A34">
         <v>0.70466814861860905</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A35">
         <v>0.80625000000000002</v>
       </c>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A36">
         <v>0.86363636363636365</v>
       </c>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A37">
         <v>0.80432995341189373</v>
       </c>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A38">
         <v>0.70264550264550263</v>
       </c>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A39">
         <v>0.64008941877794334</v>
       </c>
     </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A40">
         <v>0.80374823196605383</v>
       </c>
     </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A41">
         <v>0.94517825832846281</v>
       </c>
     </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A42">
         <v>0.73642634623943026</v>
       </c>
     </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A43">
         <v>0.66420250896057353</v>
       </c>
     </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A44">
         <v>0.59074074074074079</v>
       </c>
     </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A45">
         <v>0.83035460992907806</v>
       </c>
     </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A46">
         <v>0.84198113207547165</v>
       </c>
     </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A47">
         <v>0.73733075435203099</v>
       </c>
     </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A48">
         <v>0.78784313725490196</v>
       </c>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A49">
         <v>0.78922908693275018</v>
       </c>
     </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A50">
         <v>0.84751916095199675</v>
       </c>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A51">
         <v>0.43309859154929581</v>
       </c>
     </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A52">
         <v>0.74588815789473695</v>
       </c>
     </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A53">
         <v>0.90775510204081622</v>
       </c>
     </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A54">
         <v>0.80496323529411762</v>
       </c>
     </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A55">
         <v>0.62632978723404253</v>
       </c>
     </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A56">
         <v>0.84391534391534384</v>
       </c>
     </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A57">
         <v>0.8946488294314382</v>
       </c>
     </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A58">
         <v>0.71871619184998192</v>
       </c>
     </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A59">
         <v>0.59857142857142864</v>
       </c>
     </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A60">
         <v>0.58349577647823259</v>
       </c>
     </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A61">
         <v>0.78441722972972971</v>
       </c>
     </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A62">
         <v>0.69271664008506117</v>
       </c>
     </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A63">
         <v>0.73544973544973546</v>
       </c>
     </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A64">
         <v>0.8012345679012346</v>
       </c>
     </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A65">
         <v>0.90066666666666673</v>
       </c>
     </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A66">
         <v>0.8532142857142857</v>
       </c>
     </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A67">
         <v>0.79359567901234562</v>
       </c>
     </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A68">
         <v>0.76641949152542377</v>
       </c>
     </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A69">
         <v>0.90916955017301038</v>
       </c>
     </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A70">
         <v>0.85818181818181838</v>
       </c>
     </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A71">
         <v>0.63690476190476186</v>
       </c>
     </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A72">
         <v>0.85362173038229372</v>
       </c>
     </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A73">
         <v>0.72224231464737798</v>
       </c>
     </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A74">
         <v>0.84225171232876717</v>
       </c>
     </row>
-    <row r="75" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A75">
         <v>0.83542319749216309</v>
       </c>
     </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A76">
         <v>0.85901001112347053</v>
       </c>
     </row>
-    <row r="77" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A77">
         <v>0.56606060606060604</v>
       </c>
     </row>
-    <row r="78" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A78">
         <v>0.87161290322580642</v>
       </c>
     </row>
-    <row r="79" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A79">
         <v>0.90112994350282483</v>
       </c>
     </row>
-    <row r="80" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A80">
         <v>0.78233766233766222</v>
       </c>
     </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A81">
         <v>0.85892255892255898</v>
       </c>
     </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A82">
         <v>0.86619047619047618</v>
       </c>
     </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A83">
         <v>0.73145448655652734</v>
       </c>
     </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A84">
         <v>0.82773386034255603</v>
       </c>
     </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A85">
         <v>0.73393665158371035</v>
       </c>
     </row>
-    <row r="86" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A86">
         <v>0.72277227722772275</v>
       </c>
     </row>
-    <row r="87" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A87">
         <v>0.83838493180342066</v>
       </c>
     </row>
-    <row r="88" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A88">
         <v>0.84359605911330038</v>
       </c>
     </row>
-    <row r="89" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A89">
         <v>0.68928571428571428</v>
       </c>
     </row>
-    <row r="90" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A90">
         <v>0.85666942833471416</v>
       </c>
     </row>
-    <row r="91" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A91">
         <v>0.74603608529250964</v>
       </c>
     </row>
-    <row r="92" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A92">
         <v>0.7416666666666667</v>
       </c>
     </row>
-    <row r="93" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A93">
         <v>0.71122994652406424</v>
       </c>
     </row>
-    <row r="94" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A94">
         <v>0.89872495446265943</v>
       </c>
     </row>
-    <row r="95" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A95">
         <v>0.8542635658914729</v>
       </c>
     </row>
-    <row r="96" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A96">
         <v>0.7865491651205937</v>
       </c>
     </row>
-    <row r="97" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A97">
         <v>0.83317284545016856</v>
       </c>
     </row>
-    <row r="98" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A98">
         <v>0.6612244897959183</v>
+      </c>
+    </row>
+    <row r="100" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A100">
+        <f>AVERAGE(A2:A98)</f>
+        <v>0.77024885946946309</v>
+      </c>
+    </row>
+    <row r="101" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A101">
+        <f>_xlfn.STDEV.P(A2:A98)</f>
+        <v>0.10037315613931573</v>
       </c>
     </row>
   </sheetData>

--- a/analysis.xlsx
+++ b/analysis.xlsx
@@ -5,18 +5,20 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mgphy\Documents\GitHub\Koopman\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mgphy\GitHub_scripts\Koopman\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F9BD08A-2613-422D-B1E6-8C9A75E5F724}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDD25CAE-2A5A-4959-84C2-9B05F9A53789}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="23236" windowHeight="13875" firstSheet="1" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="15285" yWindow="2340" windowWidth="15615" windowHeight="12960" firstSheet="4" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="time_gt_facebook_ct1" sheetId="1" r:id="rId1"/>
     <sheet name="edge_gt_facebook_ct1" sheetId="2" r:id="rId2"/>
     <sheet name="time_gt_infectious_ct1" sheetId="3" r:id="rId3"/>
     <sheet name="edge_gt_infectious_ct1" sheetId="4" r:id="rId4"/>
+    <sheet name="time_gt_dblp_ct1" sheetId="5" r:id="rId5"/>
+    <sheet name="edge_gt_dblp_ct1" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="13">
   <si>
     <t>thr_precision</t>
   </si>
@@ -448,22 +450,22 @@
       <selection activeCell="J88" sqref="J88:J89"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.73046875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="3" width="12" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="15" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.59765625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.1328125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.73046875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="19.73046875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="18.3984375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.73046875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.265625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="15.265625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="15.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -501,7 +503,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>0.27272727272727271</v>
       </c>
@@ -539,7 +541,7 @@
         <v>2.1009595581846269E-249</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>0.76470588235294112</v>
       </c>
@@ -577,7 +579,7 @@
         <v>2.1009595581846269E-249</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>0.84090909090909094</v>
       </c>
@@ -615,7 +617,7 @@
         <v>2.1009595581846269E-249</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>0.78125</v>
       </c>
@@ -653,7 +655,7 @@
         <v>2.1009595581846269E-249</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>0.62222222222222223</v>
       </c>
@@ -691,7 +693,7 @@
         <v>2.1009595581846269E-249</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>0.5</v>
       </c>
@@ -729,7 +731,7 @@
         <v>2.1009595581846269E-249</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>0.2</v>
       </c>
@@ -767,7 +769,7 @@
         <v>2.1009595581846269E-249</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>1</v>
       </c>
@@ -805,7 +807,7 @@
         <v>2.1009595581846269E-249</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>0.80952380952380953</v>
       </c>
@@ -843,7 +845,7 @@
         <v>2.1009595581846269E-249</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>0.90909090909090906</v>
       </c>
@@ -881,7 +883,7 @@
         <v>2.1009595581846269E-249</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>0.7142857142857143</v>
       </c>
@@ -919,7 +921,7 @@
         <v>2.1009595581846269E-249</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>0.80303030303030298</v>
       </c>
@@ -957,7 +959,7 @@
         <v>2.1009595581846269E-249</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>0.7142857142857143</v>
       </c>
@@ -995,7 +997,7 @@
         <v>2.1009595581846269E-249</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>0.33333333333333331</v>
       </c>
@@ -1033,7 +1035,7 @@
         <v>2.1009595581846269E-249</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>0.75806451612903225</v>
       </c>
@@ -1071,7 +1073,7 @@
         <v>2.1009595581846269E-249</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>0.3888888888888889</v>
       </c>
@@ -1109,7 +1111,7 @@
         <v>2.1009595581846269E-249</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>0.42857142857142849</v>
       </c>
@@ -1147,7 +1149,7 @@
         <v>2.1009595581846269E-249</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>0.69491525423728817</v>
       </c>
@@ -1185,7 +1187,7 @@
         <v>2.1009595581846269E-249</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>0.5</v>
       </c>
@@ -1223,7 +1225,7 @@
         <v>2.1009595581846269E-249</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>0.5</v>
       </c>
@@ -1261,7 +1263,7 @@
         <v>2.1009595581846269E-249</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>0.22222222222222221</v>
       </c>
@@ -1299,7 +1301,7 @@
         <v>2.1009595581846269E-249</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>0.83720930232558144</v>
       </c>
@@ -1337,7 +1339,7 @@
         <v>2.1009595581846269E-249</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>0.33333333333333331</v>
       </c>
@@ -1375,7 +1377,7 @@
         <v>2.1009595581846269E-249</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>0.7441860465116279</v>
       </c>
@@ -1413,7 +1415,7 @@
         <v>2.1009595581846269E-249</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>0.86842105263157898</v>
       </c>
@@ -1451,7 +1453,7 @@
         <v>2.1009595581846269E-249</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>0.83870967741935487</v>
       </c>
@@ -1489,7 +1491,7 @@
         <v>2.1009595581846269E-249</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>0.79411764705882348</v>
       </c>
@@ -1527,7 +1529,7 @@
         <v>2.1009595581846269E-249</v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>0.16666666666666671</v>
       </c>
@@ -1565,7 +1567,7 @@
         <v>2.1009595581846269E-249</v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>0.57999999999999996</v>
       </c>
@@ -1603,7 +1605,7 @@
         <v>2.1009595581846269E-249</v>
       </c>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>0.33333333333333331</v>
       </c>
@@ -1641,7 +1643,7 @@
         <v>2.1009595581846269E-249</v>
       </c>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>0.76363636363636367</v>
       </c>
@@ -1679,7 +1681,7 @@
         <v>2.1009595581846269E-249</v>
       </c>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>0.76315789473684215</v>
       </c>
@@ -1717,7 +1719,7 @@
         <v>2.1009595581846269E-249</v>
       </c>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>0.82089552238805974</v>
       </c>
@@ -1755,7 +1757,7 @@
         <v>2.1009595581846269E-249</v>
       </c>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>0.84210526315789469</v>
       </c>
@@ -1793,7 +1795,7 @@
         <v>2.1009595581846269E-249</v>
       </c>
     </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>0.6875</v>
       </c>
@@ -1831,7 +1833,7 @@
         <v>2.1009595581846269E-249</v>
       </c>
     </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>0.84848484848484851</v>
       </c>
@@ -1869,7 +1871,7 @@
         <v>2.1009595581846269E-249</v>
       </c>
     </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>0.41666666666666669</v>
       </c>
@@ -1907,7 +1909,7 @@
         <v>2.1009595581846269E-249</v>
       </c>
     </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>0.8571428571428571</v>
       </c>
@@ -1945,7 +1947,7 @@
         <v>2.1009595581846269E-249</v>
       </c>
     </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>0.48148148148148151</v>
       </c>
@@ -1983,7 +1985,7 @@
         <v>2.1009595581846269E-249</v>
       </c>
     </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>0.703125</v>
       </c>
@@ -2021,7 +2023,7 @@
         <v>2.1009595581846269E-249</v>
       </c>
     </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>0</v>
       </c>
@@ -2059,7 +2061,7 @@
         <v>2.1009595581846269E-249</v>
       </c>
     </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>0.25</v>
       </c>
@@ -2097,7 +2099,7 @@
         <v>2.1009595581846269E-249</v>
       </c>
     </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>0.70588235294117652</v>
       </c>
@@ -2135,7 +2137,7 @@
         <v>2.1009595581846269E-249</v>
       </c>
     </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>0.93478260869565222</v>
       </c>
@@ -2173,7 +2175,7 @@
         <v>2.1009595581846269E-249</v>
       </c>
     </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>0.75</v>
       </c>
@@ -2211,7 +2213,7 @@
         <v>2.1009595581846269E-249</v>
       </c>
     </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>0.66666666666666663</v>
       </c>
@@ -2249,7 +2251,7 @@
         <v>2.1009595581846269E-249</v>
       </c>
     </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>0.62790697674418605</v>
       </c>
@@ -2287,7 +2289,7 @@
         <v>2.1009595581846269E-249</v>
       </c>
     </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>0.33333333333333331</v>
       </c>
@@ -2325,7 +2327,7 @@
         <v>2.1009595581846269E-249</v>
       </c>
     </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>0.77358490566037741</v>
       </c>
@@ -2363,7 +2365,7 @@
         <v>2.1009595581846269E-249</v>
       </c>
     </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>0.84375</v>
       </c>
@@ -2401,7 +2403,7 @@
         <v>2.1009595581846269E-249</v>
       </c>
     </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>0.83673469387755106</v>
       </c>
@@ -2439,7 +2441,7 @@
         <v>2.1009595581846269E-249</v>
       </c>
     </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>0.82857142857142863</v>
       </c>
@@ -2477,7 +2479,7 @@
         <v>2.1009595581846269E-249</v>
       </c>
     </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>0</v>
       </c>
@@ -2515,7 +2517,7 @@
         <v>2.1009595581846269E-249</v>
       </c>
     </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>0.73333333333333328</v>
       </c>
@@ -2553,7 +2555,7 @@
         <v>2.1009595581846269E-249</v>
       </c>
     </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="56" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>0.64</v>
       </c>
@@ -2591,7 +2593,7 @@
         <v>2.1009595581846269E-249</v>
       </c>
     </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="57" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>0.42105263157894729</v>
       </c>
@@ -2629,7 +2631,7 @@
         <v>2.1009595581846269E-249</v>
       </c>
     </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="58" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>0.2</v>
       </c>
@@ -2667,7 +2669,7 @@
         <v>2.1009595581846269E-249</v>
       </c>
     </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="59" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>0.2857142857142857</v>
       </c>
@@ -2705,7 +2707,7 @@
         <v>2.1009595581846269E-249</v>
       </c>
     </row>
-    <row r="60" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="60" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>0.79411764705882348</v>
       </c>
@@ -2743,7 +2745,7 @@
         <v>2.1009595581846269E-249</v>
       </c>
     </row>
-    <row r="61" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="61" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>0.77142857142857146</v>
       </c>
@@ -2781,7 +2783,7 @@
         <v>2.1009595581846269E-249</v>
       </c>
     </row>
-    <row r="62" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="62" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>0</v>
       </c>
@@ -2819,7 +2821,7 @@
         <v>2.1009595581846269E-249</v>
       </c>
     </row>
-    <row r="63" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="63" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>0.72</v>
       </c>
@@ -2857,7 +2859,7 @@
         <v>2.1009595581846269E-249</v>
       </c>
     </row>
-    <row r="64" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="64" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>0.4</v>
       </c>
@@ -2895,7 +2897,7 @@
         <v>2.1009595581846269E-249</v>
       </c>
     </row>
-    <row r="65" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="65" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>0.33333333333333331</v>
       </c>
@@ -2933,7 +2935,7 @@
         <v>2.1009595581846269E-249</v>
       </c>
     </row>
-    <row r="66" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="66" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>0.5714285714285714</v>
       </c>
@@ -2971,7 +2973,7 @@
         <v>2.1009595581846269E-249</v>
       </c>
     </row>
-    <row r="67" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="67" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>0.7931034482758621</v>
       </c>
@@ -3009,7 +3011,7 @@
         <v>2.1009595581846269E-249</v>
       </c>
     </row>
-    <row r="68" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="68" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>0</v>
       </c>
@@ -3047,7 +3049,7 @@
         <v>2.1009595581846269E-249</v>
       </c>
     </row>
-    <row r="69" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="69" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>0.76923076923076927</v>
       </c>
@@ -3085,7 +3087,7 @@
         <v>2.1009595581846269E-249</v>
       </c>
     </row>
-    <row r="70" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="70" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>0.72972972972972971</v>
       </c>
@@ -3123,7 +3125,7 @@
         <v>2.1009595581846269E-249</v>
       </c>
     </row>
-    <row r="71" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="71" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>0.3</v>
       </c>
@@ -3161,7 +3163,7 @@
         <v>2.1009595581846269E-249</v>
       </c>
     </row>
-    <row r="72" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="72" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>0.75</v>
       </c>
@@ -3199,7 +3201,7 @@
         <v>2.1009595581846269E-249</v>
       </c>
     </row>
-    <row r="73" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="73" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>0.50793650793650791</v>
       </c>
@@ -3237,7 +3239,7 @@
         <v>2.1009595581846269E-249</v>
       </c>
     </row>
-    <row r="74" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="74" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>0.83018867924528306</v>
       </c>
@@ -3275,7 +3277,7 @@
         <v>2.1009595581846269E-249</v>
       </c>
     </row>
-    <row r="75" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="75" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>0.85185185185185186</v>
       </c>
@@ -3313,7 +3315,7 @@
         <v>2.1009595581846269E-249</v>
       </c>
     </row>
-    <row r="76" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="76" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>0.25</v>
       </c>
@@ -3351,7 +3353,7 @@
         <v>2.1009595581846269E-249</v>
       </c>
     </row>
-    <row r="77" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="77" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>0.45454545454545447</v>
       </c>
@@ -3389,7 +3391,7 @@
         <v>2.1009595581846269E-249</v>
       </c>
     </row>
-    <row r="78" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="78" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>0</v>
       </c>
@@ -3427,7 +3429,7 @@
         <v>2.1009595581846269E-249</v>
       </c>
     </row>
-    <row r="79" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="79" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>0.29411764705882348</v>
       </c>
@@ -3465,7 +3467,7 @@
         <v>2.1009595581846269E-249</v>
       </c>
     </row>
-    <row r="80" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="80" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>1</v>
       </c>
@@ -3503,7 +3505,7 @@
         <v>2.1009595581846269E-249</v>
       </c>
     </row>
-    <row r="81" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="81" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>0.7142857142857143</v>
       </c>
@@ -3541,7 +3543,7 @@
         <v>2.1009595581846269E-249</v>
       </c>
     </row>
-    <row r="82" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="82" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>0.2</v>
       </c>
@@ -3579,7 +3581,7 @@
         <v>2.1009595581846269E-249</v>
       </c>
     </row>
-    <row r="83" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="83" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>0.78947368421052633</v>
       </c>
@@ -3617,7 +3619,7 @@
         <v>2.1009595581846269E-249</v>
       </c>
     </row>
-    <row r="84" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="84" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>0</v>
       </c>
@@ -3655,7 +3657,7 @@
         <v>2.1009595581846269E-249</v>
       </c>
     </row>
-    <row r="85" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="85" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>0.25</v>
       </c>
@@ -3693,7 +3695,7 @@
         <v>2.1009595581846269E-249</v>
       </c>
     </row>
-    <row r="86" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="86" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>0.33333333333333331</v>
       </c>
@@ -3731,7 +3733,7 @@
         <v>2.1009595581846269E-249</v>
       </c>
     </row>
-    <row r="88" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="88" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A88">
         <f>AVERAGE(A2:A86)</f>
         <v>0.57267785504535984</v>
@@ -3777,7 +3779,7 @@
         <v>0.14476985296128944</v>
       </c>
     </row>
-    <row r="89" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="89" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A89">
         <f>_xlfn.STDEV.P(A2:A86)</f>
         <v>0.27214814491389477</v>
@@ -3834,2319 +3836,2319 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>0.78465346534653468</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>0.41014492753623188</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>0.67735042735042739</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>0.55345911949685522</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>0.49906015037593981</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>0.55778688524590159</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>0.44945355191256831</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>0.59377289377289366</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>0.63229755178907721</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>0.407258064516129</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>0.79261363636363635</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>0.74450549450549453</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>0.66056338028169004</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>0.66019417475728159</v>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>0.59609374999999998</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>0.66352201257861632</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>0.71006944444444442</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>0.45151033386327499</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>0.91999999999999993</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>0.5033333333333333</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>0.63963963963963966</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>0.8275290215588722</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>0.50815850815850816</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>0.27777777777777779</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>0.66596638655462181</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>0.64673913043478259</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>0.6655092592592593</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>0.501</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>0.48127853881278537</v>
       </c>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>0.44819819819819823</v>
       </c>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>0.6063829787234043</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>0.63043478260869568</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>0.5427413411938099</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>0.54682539682539688</v>
       </c>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>0.66187290969899659</v>
       </c>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>0.79104477611940294</v>
       </c>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>0.56923639020825723</v>
       </c>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>0.74528301886792458</v>
       </c>
     </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>0.69624329159212883</v>
       </c>
     </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>0.57363253856942487</v>
       </c>
     </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>0.88461538461538458</v>
       </c>
     </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>0.52884615384615385</v>
       </c>
     </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>0.34343434343434343</v>
       </c>
     </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>0.86290322580645162</v>
       </c>
     </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>0.57517482517482521</v>
       </c>
     </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>0.85106382978723405</v>
       </c>
     </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>0.70370370370370372</v>
       </c>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>0.60144927536231885</v>
       </c>
     </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>0.81901041666666663</v>
       </c>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>0.42753623188405798</v>
       </c>
     </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>0.44974358974358969</v>
       </c>
     </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>0.52045633359559407</v>
       </c>
     </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>0.64777327935222684</v>
       </c>
     </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>0.68617021276595747</v>
       </c>
     </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>0.78421052631578947</v>
       </c>
     </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>0.46410256410256412</v>
       </c>
     </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>0.65909090909090917</v>
       </c>
     </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>0.54865616311399446</v>
       </c>
     </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>0.65824175824175823</v>
       </c>
     </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>0.58940719144800779</v>
       </c>
     </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>0.53975903614457832</v>
       </c>
     </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>0.61013567438148442</v>
       </c>
     </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>0.69808102345415779</v>
       </c>
     </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>0.5995798319327732</v>
       </c>
     </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>0.74584199584199584</v>
       </c>
     </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>0.68867924528301894</v>
       </c>
     </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>0.39175257731958768</v>
       </c>
     </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>0.58354011579818033</v>
       </c>
     </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>0.429160419790105</v>
       </c>
     </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>0.5059370160041301</v>
       </c>
     </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>0.69311215290299322</v>
       </c>
     </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="73" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>0.62639109697933226</v>
       </c>
     </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="74" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>0.79089253187613839</v>
       </c>
     </row>
-    <row r="75" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="75" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>0.75601374570446733</v>
       </c>
     </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="76" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>0.62816901408450709</v>
       </c>
     </row>
-    <row r="77" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="77" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>0.6206896551724137</v>
       </c>
     </row>
-    <row r="78" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="78" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>0.6010204081632653</v>
       </c>
     </row>
-    <row r="79" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="79" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>0.77124183006535951</v>
       </c>
     </row>
-    <row r="80" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="80" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>0.59032012195121952</v>
       </c>
     </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="81" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>0.56698564593301437</v>
       </c>
     </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="82" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>0.46879999999999999</v>
       </c>
     </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="83" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>0.74659863945578231</v>
       </c>
     </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="84" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>0.69534050179211471</v>
       </c>
     </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="85" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>0.73466666666666669</v>
       </c>
     </row>
-    <row r="86" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="86" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>0.50960735171261484</v>
       </c>
     </row>
-    <row r="87" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="87" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>0.73620253164556959</v>
       </c>
     </row>
-    <row r="88" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="88" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>0.62561205273069687</v>
       </c>
     </row>
-    <row r="89" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="89" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>0.5070785070785071</v>
       </c>
     </row>
-    <row r="90" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="90" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>0.98076923076923084</v>
       </c>
     </row>
-    <row r="91" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="91" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>0.59993792675356916</v>
       </c>
     </row>
-    <row r="92" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="92" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>0.48616780045351482</v>
       </c>
     </row>
-    <row r="93" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="93" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>0.66137566137566139</v>
       </c>
     </row>
-    <row r="94" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="94" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>0.68793706293706303</v>
       </c>
     </row>
-    <row r="95" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="95" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>0.79347826086956519</v>
       </c>
     </row>
-    <row r="96" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="96" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>0.79634703196347023</v>
       </c>
     </row>
-    <row r="97" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="97" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>0.6250620347394541</v>
       </c>
     </row>
-    <row r="98" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="98" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>0.61818181818181817</v>
       </c>
     </row>
-    <row r="99" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="99" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>0.44527629233511579</v>
       </c>
     </row>
-    <row r="100" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="100" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>0.43388429752066121</v>
       </c>
     </row>
-    <row r="101" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="101" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>0.68584825234441604</v>
       </c>
     </row>
-    <row r="102" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="102" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A102">
         <v>0.73174603174603181</v>
       </c>
     </row>
-    <row r="103" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="103" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A103">
         <v>0.59768064228367535</v>
       </c>
     </row>
-    <row r="104" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="104" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A104">
         <v>0.46725571725571718</v>
       </c>
     </row>
-    <row r="105" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="105" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A105">
         <v>0.55222437137330749</v>
       </c>
     </row>
-    <row r="106" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="106" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A106">
         <v>0.60696517412935325</v>
       </c>
     </row>
-    <row r="107" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="107" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A107">
         <v>0.5857354028085735</v>
       </c>
     </row>
-    <row r="108" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="108" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A108">
         <v>0.81036931818181812</v>
       </c>
     </row>
-    <row r="109" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="109" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A109">
         <v>0.61707746478873238</v>
       </c>
     </row>
-    <row r="110" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="110" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A110">
         <v>0.48914431673052372</v>
       </c>
     </row>
-    <row r="111" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="111" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A111">
         <v>0.8</v>
       </c>
     </row>
-    <row r="112" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="112" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A112">
         <v>0.56609574000878349</v>
       </c>
     </row>
-    <row r="113" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="113" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A113">
         <v>0.47368421052631582</v>
       </c>
     </row>
-    <row r="114" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="114" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A114">
         <v>0.61969696969696975</v>
       </c>
     </row>
-    <row r="115" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="115" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A115">
         <v>0.97340425531914898</v>
       </c>
     </row>
-    <row r="116" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="116" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A116">
         <v>0.48428731762065103</v>
       </c>
     </row>
-    <row r="117" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="117" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A117">
         <v>0.59653647752394989</v>
       </c>
     </row>
-    <row r="118" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="118" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A118">
         <v>0.40465631929046558</v>
       </c>
     </row>
-    <row r="119" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="119" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A119">
         <v>0.66817838246409678</v>
       </c>
     </row>
-    <row r="120" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="120" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A120">
         <v>0.67683031869078381</v>
       </c>
     </row>
-    <row r="121" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="121" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A121">
         <v>0.57358156028368801</v>
       </c>
     </row>
-    <row r="122" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="122" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A122">
         <v>0.79411764705882348</v>
       </c>
     </row>
-    <row r="123" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="123" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A123">
         <v>0.59262672811059902</v>
       </c>
     </row>
-    <row r="124" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="124" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A124">
         <v>0.63829787234042556</v>
       </c>
     </row>
-    <row r="125" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="125" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A125">
         <v>0.7393617021276595</v>
       </c>
     </row>
-    <row r="126" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="126" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A126">
         <v>0.57448979591836724</v>
       </c>
     </row>
-    <row r="127" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="127" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A127">
         <v>0.5831939799331104</v>
       </c>
     </row>
-    <row r="128" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="128" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A128">
         <v>0.60833902939166096</v>
       </c>
     </row>
-    <row r="129" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="129" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A129">
         <v>0.64824120603015067</v>
       </c>
     </row>
-    <row r="130" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="130" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A130">
         <v>0.46652452025586361</v>
       </c>
     </row>
-    <row r="131" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="131" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A131">
         <v>0.64722222222222225</v>
       </c>
     </row>
-    <row r="132" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="132" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A132">
         <v>0.60790980672870432</v>
       </c>
     </row>
-    <row r="133" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="133" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A133">
         <v>0.61762391817466566</v>
       </c>
     </row>
-    <row r="134" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="134" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A134">
         <v>0.40272288098375048</v>
       </c>
     </row>
-    <row r="135" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="135" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A135">
         <v>0.76029962546816476</v>
       </c>
     </row>
-    <row r="136" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="136" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A136">
         <v>0.59411764705882353</v>
       </c>
     </row>
-    <row r="137" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="137" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A137">
         <v>0.80499999999999994</v>
       </c>
     </row>
-    <row r="138" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="138" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A138">
         <v>0.52556818181818177</v>
       </c>
     </row>
-    <row r="139" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="139" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A139">
         <v>0.65662064942640475</v>
       </c>
     </row>
-    <row r="140" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="140" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A140">
         <v>0.88834951456310685</v>
       </c>
     </row>
-    <row r="141" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="141" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A141">
         <v>0.90047393364928907</v>
       </c>
     </row>
-    <row r="142" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="142" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A142">
         <v>0.64030612244897955</v>
       </c>
     </row>
-    <row r="143" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="143" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A143">
         <v>0.67294034090909094</v>
       </c>
     </row>
-    <row r="144" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="144" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A144">
         <v>0.67755270773046716</v>
       </c>
     </row>
-    <row r="145" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="145" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A145">
         <v>0.77936507936507937</v>
       </c>
     </row>
-    <row r="146" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="146" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A146">
         <v>0.51211072664359869</v>
       </c>
     </row>
-    <row r="147" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="147" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A147">
         <v>0.77623762376237626</v>
       </c>
     </row>
-    <row r="148" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="148" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A148">
         <v>0.56451612903225801</v>
       </c>
     </row>
-    <row r="149" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="149" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A149">
         <v>0.73401297497683038</v>
       </c>
     </row>
-    <row r="150" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="150" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A150">
         <v>0.40009990009990021</v>
       </c>
     </row>
-    <row r="151" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="151" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A151">
         <v>0.47373188405797101</v>
       </c>
     </row>
-    <row r="152" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="152" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A152">
         <v>0.83592644978783592</v>
       </c>
     </row>
-    <row r="153" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="153" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A153">
         <v>0.49793103448275861</v>
       </c>
     </row>
-    <row r="154" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="154" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A154">
         <v>0.52187948350071733</v>
       </c>
     </row>
-    <row r="155" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="155" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A155">
         <v>0.61650485436893199</v>
       </c>
     </row>
-    <row r="156" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="156" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A156">
         <v>0.62289562289562284</v>
       </c>
     </row>
-    <row r="157" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="157" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A157">
         <v>0.69772727272727286</v>
       </c>
     </row>
-    <row r="158" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="158" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A158">
         <v>0.67455357142857142</v>
       </c>
     </row>
-    <row r="159" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="159" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A159">
         <v>0.68882602545968885</v>
       </c>
     </row>
-    <row r="160" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="160" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A160">
         <v>0.43636363636363629</v>
       </c>
     </row>
-    <row r="161" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="161" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A161">
         <v>0.47421549264867241</v>
       </c>
     </row>
-    <row r="162" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="162" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A162">
         <v>0.50358422939068093</v>
       </c>
     </row>
-    <row r="163" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="163" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A163">
         <v>0.49407894736842112</v>
       </c>
     </row>
-    <row r="164" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="164" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A164">
         <v>0.53209242618741981</v>
       </c>
     </row>
-    <row r="165" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="165" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A165">
         <v>0.62017336485421581</v>
       </c>
     </row>
-    <row r="166" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="166" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A166">
         <v>0.5146520146520146</v>
       </c>
     </row>
-    <row r="167" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="167" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A167">
         <v>0.40491875274483968</v>
       </c>
     </row>
-    <row r="168" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="168" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A168">
         <v>0.65346534653465349</v>
       </c>
     </row>
-    <row r="169" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="169" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A169">
         <v>0.53842592592592597</v>
       </c>
     </row>
-    <row r="170" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="170" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A170">
         <v>0.424834193072955</v>
       </c>
     </row>
-    <row r="171" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="171" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A171">
         <v>0.60739436619718312</v>
       </c>
     </row>
-    <row r="172" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="172" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A172">
         <v>0.69811320754716988</v>
       </c>
     </row>
-    <row r="173" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="173" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A173">
         <v>0.44</v>
       </c>
     </row>
-    <row r="174" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="174" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A174">
         <v>0.60904255319148937</v>
       </c>
     </row>
-    <row r="175" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="175" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A175">
         <v>0.6985815602836879</v>
       </c>
     </row>
-    <row r="176" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="176" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A176">
         <v>0.52644230769230771</v>
       </c>
     </row>
-    <row r="177" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="177" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A177">
         <v>0.71577380952380942</v>
       </c>
     </row>
-    <row r="178" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="178" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A178">
         <v>0.62816901408450698</v>
       </c>
     </row>
-    <row r="179" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="179" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A179">
         <v>0.52811515969410705</v>
       </c>
     </row>
-    <row r="180" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="180" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A180">
         <v>0.68911685994647631</v>
       </c>
     </row>
-    <row r="181" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="181" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A181">
         <v>0.72382198952879584</v>
       </c>
     </row>
-    <row r="182" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="182" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A182">
         <v>0.45567010309278361</v>
       </c>
     </row>
-    <row r="183" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="183" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A183">
         <v>0.68124999999999991</v>
       </c>
     </row>
-    <row r="184" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="184" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A184">
         <v>0.74675324675324672</v>
       </c>
     </row>
-    <row r="185" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="185" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A185">
         <v>0.6738983050847458</v>
       </c>
     </row>
-    <row r="186" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="186" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A186">
         <v>0.68448795180722888</v>
       </c>
     </row>
-    <row r="187" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="187" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A187">
         <v>0.52970297029702973</v>
       </c>
     </row>
-    <row r="188" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="188" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A188">
         <v>0.92788461538461542</v>
       </c>
     </row>
-    <row r="189" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="189" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A189">
         <v>0.72865497076023389</v>
       </c>
     </row>
-    <row r="190" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="190" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A190">
         <v>0.69444444444444442</v>
       </c>
     </row>
-    <row r="191" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="191" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A191">
         <v>0.39778062313273582</v>
       </c>
     </row>
-    <row r="192" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="192" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A192">
         <v>0.54465075154730336</v>
       </c>
     </row>
-    <row r="193" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="193" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A193">
         <v>0.40659340659340659</v>
       </c>
     </row>
-    <row r="194" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="194" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A194">
         <v>0.67999999999999994</v>
       </c>
     </row>
-    <row r="195" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="195" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A195">
         <v>0.83736263736263727</v>
       </c>
     </row>
-    <row r="196" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="196" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A196">
         <v>0.63699906803355077</v>
       </c>
     </row>
-    <row r="197" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="197" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A197">
         <v>0.55255681818181812</v>
       </c>
     </row>
-    <row r="198" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="198" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A198">
         <v>0.72010869565217395</v>
       </c>
     </row>
-    <row r="199" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="199" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A199">
         <v>0.68847539015606241</v>
       </c>
     </row>
-    <row r="200" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="200" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A200">
         <v>0.5</v>
       </c>
     </row>
-    <row r="201" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="201" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A201">
         <v>0.67173913043478262</v>
       </c>
     </row>
-    <row r="202" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="202" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A202">
         <v>0.55218855218855223</v>
       </c>
     </row>
-    <row r="203" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="203" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A203">
         <v>0.87943262411347511</v>
       </c>
     </row>
-    <row r="204" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="204" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A204">
         <v>0.51865079365079358</v>
       </c>
     </row>
-    <row r="205" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="205" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A205">
         <v>0.60344827586206895</v>
       </c>
     </row>
-    <row r="206" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="206" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A206">
         <v>0.5</v>
       </c>
     </row>
-    <row r="207" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="207" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A207">
         <v>0.60599334073251931</v>
       </c>
     </row>
-    <row r="208" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="208" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A208">
         <v>0.6712904581757041</v>
       </c>
     </row>
-    <row r="209" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="209" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A209">
         <v>0.50452898550724634</v>
       </c>
     </row>
-    <row r="210" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="210" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A210">
         <v>0.98058252427184467</v>
       </c>
     </row>
-    <row r="211" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="211" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A211">
         <v>0.81</v>
       </c>
     </row>
-    <row r="212" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="212" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A212">
         <v>0.45759368836291908</v>
       </c>
     </row>
-    <row r="213" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="213" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A213">
         <v>0.46959459459459463</v>
       </c>
     </row>
-    <row r="214" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="214" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A214">
         <v>0.57369614512471656</v>
       </c>
     </row>
-    <row r="215" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="215" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A215">
         <v>0.61274509803921573</v>
       </c>
     </row>
-    <row r="216" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="216" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A216">
         <v>0.78</v>
       </c>
     </row>
-    <row r="217" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="217" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A217">
         <v>0.72146118721461194</v>
       </c>
     </row>
-    <row r="218" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="218" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A218">
         <v>0.9285714285714286</v>
       </c>
     </row>
-    <row r="219" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="219" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A219">
         <v>0.49038461538461542</v>
       </c>
     </row>
-    <row r="220" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="220" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A220">
         <v>0.70268199233716488</v>
       </c>
     </row>
-    <row r="221" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="221" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A221">
         <v>0.7286324786324786</v>
       </c>
     </row>
-    <row r="222" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="222" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A222">
         <v>0.73816568047337272</v>
       </c>
     </row>
-    <row r="223" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="223" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A223">
         <v>0.83870967741935476</v>
       </c>
     </row>
-    <row r="224" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="224" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A224">
         <v>0.52482269503546097</v>
       </c>
     </row>
-    <row r="225" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="225" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A225">
         <v>0.38638638638638639</v>
       </c>
     </row>
-    <row r="226" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="226" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A226">
         <v>0.40867850098619329</v>
       </c>
     </row>
-    <row r="227" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="227" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A227">
         <v>0.59682539682539681</v>
       </c>
     </row>
-    <row r="228" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="228" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A228">
         <v>0.6875</v>
       </c>
     </row>
-    <row r="229" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="229" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A229">
         <v>0.70432868672046955</v>
       </c>
     </row>
-    <row r="230" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="230" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A230">
         <v>0.46071428571428569</v>
       </c>
     </row>
-    <row r="231" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="231" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A231">
         <v>0.79068825910931184</v>
       </c>
     </row>
-    <row r="232" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="232" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A232">
         <v>0.62565550625252109</v>
       </c>
     </row>
-    <row r="233" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="233" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A233">
         <v>0.81351200446677829</v>
       </c>
     </row>
-    <row r="234" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="234" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A234">
         <v>0.44147157190635461</v>
       </c>
     </row>
-    <row r="235" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="235" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A235">
         <v>0.63298890164561805</v>
       </c>
     </row>
-    <row r="236" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="236" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A236">
         <v>0.72826086956521741</v>
       </c>
     </row>
-    <row r="237" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="237" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A237">
         <v>0.39128787878787891</v>
       </c>
     </row>
-    <row r="238" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="238" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A238">
         <v>0.5409986257443884</v>
       </c>
     </row>
-    <row r="239" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="239" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A239">
         <v>0.87813620071684584</v>
       </c>
     </row>
-    <row r="240" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="240" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A240">
         <v>0.71739130434782616</v>
       </c>
     </row>
-    <row r="241" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="241" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A241">
         <v>0.63906250000000009</v>
       </c>
     </row>
-    <row r="242" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="242" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A242">
         <v>0.63802816901408455</v>
       </c>
     </row>
-    <row r="243" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="243" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A243">
         <v>0.58762886597938135</v>
       </c>
     </row>
-    <row r="244" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="244" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A244">
         <v>0.66711650922177235</v>
       </c>
     </row>
-    <row r="245" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="245" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A245">
         <v>0.71268656716417911</v>
       </c>
     </row>
-    <row r="246" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="246" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A246">
         <v>0.36153846153846148</v>
       </c>
     </row>
-    <row r="247" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="247" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A247">
         <v>0.67972350230414746</v>
       </c>
     </row>
-    <row r="248" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="248" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A248">
         <v>0.68378378378378391</v>
       </c>
     </row>
-    <row r="249" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="249" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A249">
         <v>0.5439453125</v>
       </c>
     </row>
-    <row r="250" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="250" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A250">
         <v>0.62831439393939392</v>
       </c>
     </row>
-    <row r="251" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="251" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A251">
         <v>0.74528301886792458</v>
       </c>
     </row>
-    <row r="252" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="252" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A252">
         <v>0.4693957115009747</v>
       </c>
     </row>
-    <row r="253" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="253" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A253">
         <v>0.66666666666666663</v>
       </c>
     </row>
-    <row r="254" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="254" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A254">
         <v>0.42822774659182039</v>
       </c>
     </row>
-    <row r="255" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="255" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A255">
         <v>0.55476190476190479</v>
       </c>
     </row>
-    <row r="256" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="256" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A256">
         <v>0.49706959706959708</v>
       </c>
     </row>
-    <row r="257" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="257" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A257">
         <v>0.74743589743589745</v>
       </c>
     </row>
-    <row r="258" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="258" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A258">
         <v>0.74516908212560384</v>
       </c>
     </row>
-    <row r="259" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="259" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A259">
         <v>0.9946236559139785</v>
       </c>
     </row>
-    <row r="260" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="260" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A260">
         <v>0.51804969526488509</v>
       </c>
     </row>
-    <row r="261" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="261" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A261">
         <v>0.74509803921568629</v>
       </c>
     </row>
-    <row r="262" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="262" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A262">
         <v>0.47311827956989239</v>
       </c>
     </row>
-    <row r="263" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="263" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A263">
         <v>0.41681574239713781</v>
       </c>
     </row>
-    <row r="264" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="264" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A264">
         <v>0.90816326530612235</v>
       </c>
     </row>
-    <row r="265" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="265" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A265">
         <v>0.64712918660287078</v>
       </c>
     </row>
-    <row r="266" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="266" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A266">
         <v>0.60049019607843135</v>
       </c>
     </row>
-    <row r="267" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="267" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A267">
         <v>0.99298245614035086</v>
       </c>
     </row>
-    <row r="268" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="268" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A268">
         <v>0.52138157894736836</v>
       </c>
     </row>
-    <row r="269" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="269" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A269">
         <v>0.53601609657947691</v>
       </c>
     </row>
-    <row r="270" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="270" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A270">
         <v>0.58762886597938147</v>
       </c>
     </row>
-    <row r="271" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="271" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A271">
         <v>0.80555555555555558</v>
       </c>
     </row>
-    <row r="272" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="272" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A272">
         <v>0.75252525252525249</v>
       </c>
     </row>
-    <row r="273" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="273" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A273">
         <v>0.58229813664596275</v>
       </c>
     </row>
-    <row r="274" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="274" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A274">
         <v>0.42478813559322032</v>
       </c>
     </row>
-    <row r="275" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="275" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A275">
         <v>0.70404984423676009</v>
       </c>
     </row>
-    <row r="276" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="276" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A276">
         <v>0.32902467685076381</v>
       </c>
     </row>
-    <row r="277" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="277" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A277">
         <v>0.67535744322960467</v>
       </c>
     </row>
-    <row r="278" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="278" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A278">
         <v>0.43202208419599719</v>
       </c>
     </row>
-    <row r="279" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="279" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A279">
         <v>0.75252525252525249</v>
       </c>
     </row>
-    <row r="280" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="280" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A280">
         <v>0.57088122605363978</v>
       </c>
     </row>
-    <row r="281" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="281" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A281">
         <v>0.50895140664961636</v>
       </c>
     </row>
-    <row r="282" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="282" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A282">
         <v>0.64254385964912286</v>
       </c>
     </row>
-    <row r="283" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="283" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A283">
         <v>0.81954887218045114</v>
       </c>
     </row>
-    <row r="284" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="284" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A284">
         <v>0.53003246753246747</v>
       </c>
     </row>
-    <row r="285" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="285" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A285">
         <v>0.76923076923076916</v>
       </c>
     </row>
-    <row r="286" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="286" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A286">
         <v>0.64</v>
       </c>
     </row>
-    <row r="287" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="287" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A287">
         <v>0.70388349514563109</v>
       </c>
     </row>
-    <row r="288" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="288" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A288">
         <v>0.74519230769230771</v>
       </c>
     </row>
-    <row r="289" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="289" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A289">
         <v>0.48785996612083571</v>
       </c>
     </row>
-    <row r="290" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="290" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A290">
         <v>0.69791666666666674</v>
       </c>
     </row>
-    <row r="291" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="291" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A291">
         <v>0.65404040404040409</v>
       </c>
     </row>
-    <row r="292" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="292" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A292">
         <v>0.39750519750519753</v>
       </c>
     </row>
-    <row r="293" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="293" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A293">
         <v>0.65817091454272869</v>
       </c>
     </row>
-    <row r="294" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="294" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A294">
         <v>0.42875816993464061</v>
       </c>
     </row>
-    <row r="295" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="295" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A295">
         <v>0.69918699186991884</v>
       </c>
     </row>
-    <row r="296" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="296" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A296">
         <v>0.66666666666666674</v>
       </c>
     </row>
-    <row r="297" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="297" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A297">
         <v>0.49337121212121221</v>
       </c>
     </row>
-    <row r="298" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="298" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A298">
         <v>0.63192307692307692</v>
       </c>
     </row>
-    <row r="299" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="299" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A299">
         <v>0.28705882352941181</v>
       </c>
     </row>
-    <row r="300" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="300" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A300">
         <v>0.55118755118755114</v>
       </c>
     </row>
-    <row r="301" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="301" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A301">
         <v>0.42787524366471741</v>
       </c>
     </row>
-    <row r="302" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="302" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A302">
         <v>0.55788982259570497</v>
       </c>
     </row>
-    <row r="303" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="303" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A303">
         <v>0.70167151162790697</v>
       </c>
     </row>
-    <row r="304" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="304" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A304">
         <v>0.83368421052631581</v>
       </c>
     </row>
-    <row r="305" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="305" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A305">
         <v>0.58793576184880536</v>
       </c>
     </row>
-    <row r="306" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="306" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A306">
         <v>0.78712871287128716</v>
       </c>
     </row>
-    <row r="307" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="307" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A307">
         <v>0.41311475409836068</v>
       </c>
     </row>
-    <row r="308" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="308" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A308">
         <v>0.54395604395604402</v>
       </c>
     </row>
-    <row r="309" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="309" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A309">
         <v>0.88265306122448983</v>
       </c>
     </row>
-    <row r="310" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="310" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A310">
         <v>0.48615916955017302</v>
       </c>
     </row>
-    <row r="311" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="311" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A311">
         <v>0.60052910052910047</v>
       </c>
     </row>
-    <row r="312" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="312" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A312">
         <v>0.36058823529411771</v>
       </c>
     </row>
-    <row r="313" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="313" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A313">
         <v>0.55994005994005991</v>
       </c>
     </row>
-    <row r="314" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="314" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A314">
         <v>0.59615384615384615</v>
       </c>
     </row>
-    <row r="315" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="315" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A315">
         <v>0.78535353535353536</v>
       </c>
     </row>
-    <row r="316" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="316" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A316">
         <v>0.33169533169533172</v>
       </c>
     </row>
-    <row r="317" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="317" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A317">
         <v>0.66185666185666181</v>
       </c>
     </row>
-    <row r="318" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="318" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A318">
         <v>0.66326530612244894</v>
       </c>
     </row>
-    <row r="319" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="319" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A319">
         <v>0.64583333333333337</v>
       </c>
     </row>
-    <row r="320" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="320" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A320">
         <v>0.73333333333333328</v>
       </c>
     </row>
-    <row r="321" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="321" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A321">
         <v>0.64153732446415379</v>
       </c>
     </row>
-    <row r="322" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="322" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A322">
         <v>0.71099290780141844</v>
       </c>
     </row>
-    <row r="323" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="323" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A323">
         <v>0.84246575342465757</v>
       </c>
     </row>
-    <row r="324" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="324" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A324">
         <v>0.63725490196078427</v>
       </c>
     </row>
-    <row r="325" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="325" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A325">
         <v>0.76842105263157889</v>
       </c>
     </row>
-    <row r="326" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="326" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A326">
         <v>0.56160714285714286</v>
       </c>
     </row>
-    <row r="327" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="327" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A327">
         <v>0.54235197368421051</v>
       </c>
     </row>
-    <row r="328" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="328" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A328">
         <v>0.44593626924453988</v>
       </c>
     </row>
-    <row r="329" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="329" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A329">
         <v>0.83333333333333337</v>
       </c>
     </row>
-    <row r="330" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="330" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A330">
         <v>0.65427373792600696</v>
       </c>
     </row>
-    <row r="331" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="331" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A331">
         <v>0.64385964912280702</v>
       </c>
     </row>
-    <row r="332" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="332" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A332">
         <v>0.94791666666666663</v>
       </c>
     </row>
-    <row r="333" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="333" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A333">
         <v>0.90136054421768719</v>
       </c>
     </row>
-    <row r="334" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="334" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A334">
         <v>0.71396011396011394</v>
       </c>
     </row>
-    <row r="335" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="335" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A335">
         <v>0.36763518966908798</v>
       </c>
     </row>
-    <row r="336" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="336" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A336">
         <v>0.38022113022113019</v>
       </c>
     </row>
-    <row r="337" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="337" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A337">
         <v>0.77173913043478248</v>
       </c>
     </row>
-    <row r="338" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="338" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A338">
         <v>0.69105113636363635</v>
       </c>
     </row>
-    <row r="339" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="339" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A339">
         <v>0.60377358490566035</v>
       </c>
     </row>
-    <row r="340" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="340" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A340">
         <v>0.29055816379760052</v>
       </c>
     </row>
-    <row r="341" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="341" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A341">
         <v>0.74528301886792447</v>
       </c>
     </row>
-    <row r="342" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="342" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A342">
         <v>0.58560606060606069</v>
       </c>
     </row>
-    <row r="343" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="343" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A343">
         <v>0.64909638554216864</v>
       </c>
     </row>
-    <row r="344" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="344" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A344">
         <v>0.55646551724137927</v>
       </c>
     </row>
-    <row r="345" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="345" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A345">
         <v>0.65306122448979598</v>
       </c>
     </row>
-    <row r="346" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="346" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A346">
         <v>0.83895131086142327</v>
       </c>
     </row>
-    <row r="347" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="347" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A347">
         <v>0.65346729708431839</v>
       </c>
     </row>
-    <row r="348" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="348" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A348">
         <v>0.40756704980842912</v>
       </c>
     </row>
-    <row r="349" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="349" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A349">
         <v>0.71904761904761905</v>
       </c>
     </row>
-    <row r="350" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="350" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A350">
         <v>0.43557692307692308</v>
       </c>
     </row>
-    <row r="351" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="351" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A351">
         <v>0.66040843214756262</v>
       </c>
     </row>
-    <row r="352" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="352" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A352">
         <v>0.96190476190476193</v>
       </c>
     </row>
-    <row r="353" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="353" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A353">
         <v>0.89999999999999991</v>
       </c>
     </row>
-    <row r="354" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="354" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A354">
         <v>0.71381306865177829</v>
       </c>
     </row>
-    <row r="355" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="355" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A355">
         <v>0.6206896551724137</v>
       </c>
     </row>
-    <row r="356" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="356" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A356">
         <v>0.509493670886076</v>
       </c>
     </row>
-    <row r="357" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="357" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A357">
         <v>0.8794642857142857</v>
       </c>
     </row>
-    <row r="358" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="358" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A358">
         <v>0.71457326892109507</v>
       </c>
     </row>
-    <row r="359" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="359" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A359">
         <v>0.45028957528957531</v>
       </c>
     </row>
-    <row r="360" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="360" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A360">
         <v>0.94554455445544561</v>
       </c>
     </row>
-    <row r="361" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="361" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A361">
         <v>0.4563543003851091</v>
       </c>
     </row>
-    <row r="362" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="362" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A362">
         <v>0.62526315789473685</v>
       </c>
     </row>
-    <row r="363" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="363" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A363">
         <v>0.57000000000000006</v>
       </c>
     </row>
-    <row r="364" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="364" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A364">
         <v>0.47858472998137802</v>
       </c>
     </row>
-    <row r="365" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="365" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A365">
         <v>0.625</v>
       </c>
     </row>
-    <row r="366" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="366" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A366">
         <v>0.51248923341946595</v>
       </c>
     </row>
-    <row r="367" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="367" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A367">
         <v>0.38330419580419578</v>
       </c>
     </row>
-    <row r="368" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="368" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A368">
         <v>0.41865605658709099</v>
       </c>
     </row>
-    <row r="369" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="369" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A369">
         <v>0.62735849056603776</v>
       </c>
     </row>
-    <row r="370" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="370" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A370">
         <v>0.55526083112290014</v>
       </c>
     </row>
-    <row r="371" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="371" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A371">
         <v>0.55673758865248224</v>
       </c>
     </row>
-    <row r="372" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="372" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A372">
         <v>0.50543478260869557</v>
       </c>
     </row>
-    <row r="373" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="373" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A373">
         <v>0.63073005093378609</v>
       </c>
     </row>
-    <row r="374" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="374" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A374">
         <v>0.52299465240641707</v>
       </c>
     </row>
-    <row r="375" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="375" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A375">
         <v>0.66323417238749027</v>
       </c>
     </row>
-    <row r="376" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="376" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A376">
         <v>0.93269230769230771</v>
       </c>
     </row>
-    <row r="377" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="377" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A377">
         <v>0.70297029702970293</v>
       </c>
     </row>
-    <row r="378" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="378" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A378">
         <v>0.35492549668874168</v>
       </c>
     </row>
-    <row r="379" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="379" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A379">
         <v>0.67548500881834217</v>
       </c>
     </row>
-    <row r="380" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="380" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A380">
         <v>0.60256410256410253</v>
       </c>
     </row>
-    <row r="381" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="381" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A381">
         <v>0.61743450767841013</v>
       </c>
     </row>
-    <row r="382" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="382" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A382">
         <v>0.49897959183673468</v>
       </c>
     </row>
-    <row r="383" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="383" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A383">
         <v>0.71361132966168372</v>
       </c>
     </row>
-    <row r="384" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="384" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A384">
         <v>0.44379276637341158</v>
       </c>
     </row>
-    <row r="385" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="385" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A385">
         <v>0.63058419243986252</v>
       </c>
     </row>
-    <row r="386" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="386" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A386">
         <v>0.66470588235294115</v>
       </c>
     </row>
-    <row r="387" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="387" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A387">
         <v>0.27272727272727271</v>
       </c>
     </row>
-    <row r="388" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="388" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A388">
         <v>0.7857142857142857</v>
       </c>
     </row>
-    <row r="389" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="389" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A389">
         <v>0.5542735042735043</v>
       </c>
     </row>
-    <row r="390" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="390" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A390">
         <v>0.75</v>
       </c>
     </row>
-    <row r="391" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="391" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A391">
         <v>0.65236258437801353</v>
       </c>
     </row>
-    <row r="392" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="392" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A392">
         <v>0.62037037037037035</v>
       </c>
     </row>
-    <row r="393" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="393" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A393">
         <v>0.79591836734693877</v>
       </c>
     </row>
-    <row r="394" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="394" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A394">
         <v>0.74629629629629624</v>
       </c>
     </row>
-    <row r="395" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="395" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A395">
         <v>0.59039876113046852</v>
       </c>
     </row>
-    <row r="396" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="396" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A396">
         <v>0.66666666666666663</v>
       </c>
     </row>
-    <row r="397" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="397" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A397">
         <v>0.58338012352610891</v>
       </c>
     </row>
-    <row r="398" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="398" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A398">
         <v>0.80299667036625966</v>
       </c>
     </row>
-    <row r="399" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="399" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A399">
         <v>0.89565217391304353</v>
       </c>
     </row>
-    <row r="400" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="400" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A400">
         <v>0.77812018489984591</v>
       </c>
     </row>
-    <row r="401" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="401" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A401">
         <v>0.43805516596540439</v>
       </c>
     </row>
-    <row r="402" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="402" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A402">
         <v>0.52159624413145544</v>
       </c>
     </row>
-    <row r="403" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="403" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A403">
         <v>0.74999999999999989</v>
       </c>
     </row>
-    <row r="404" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="404" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A404">
         <v>0.72106481481481488</v>
       </c>
     </row>
-    <row r="405" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="405" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A405">
         <v>0.60252100840336131</v>
       </c>
     </row>
-    <row r="406" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="406" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A406">
         <v>0.58455882352941169</v>
       </c>
     </row>
-    <row r="407" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="407" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A407">
         <v>0.70891089108910887</v>
       </c>
     </row>
-    <row r="408" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="408" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A408">
         <v>0.6219806763285024</v>
       </c>
     </row>
-    <row r="409" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="409" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A409">
         <v>0.69587628865979378</v>
       </c>
     </row>
-    <row r="410" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="410" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A410">
         <v>0.69178082191780821</v>
       </c>
     </row>
-    <row r="411" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="411" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A411">
         <v>0.6785714285714286</v>
       </c>
     </row>
-    <row r="412" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="412" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A412">
         <v>0.7088888888888889</v>
       </c>
     </row>
-    <row r="413" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="413" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A413">
         <v>0.81749829118250172</v>
       </c>
     </row>
-    <row r="414" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="414" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A414">
         <v>0.54017857142857151</v>
       </c>
     </row>
-    <row r="415" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="415" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A415">
         <v>0.85093632958801491</v>
       </c>
     </row>
-    <row r="416" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="416" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A416">
         <v>0.7</v>
       </c>
     </row>
-    <row r="417" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="417" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A417">
         <v>0.73287981859410423</v>
       </c>
     </row>
-    <row r="418" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="418" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A418">
         <v>0.64478114478114479</v>
       </c>
     </row>
-    <row r="419" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="419" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A419">
         <v>0.51260504201680668</v>
       </c>
     </row>
-    <row r="420" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="420" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A420">
         <v>0.42268041237113407</v>
       </c>
     </row>
-    <row r="421" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="421" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A421">
         <v>0.62411347517730498</v>
       </c>
     </row>
-    <row r="422" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="422" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A422">
         <v>0.60175438596491226</v>
       </c>
     </row>
-    <row r="423" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="423" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A423">
         <v>0.24846480869154469</v>
       </c>
     </row>
-    <row r="424" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="424" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A424">
         <v>0.66506024096385541</v>
       </c>
     </row>
-    <row r="425" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="425" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A425">
         <v>0.75627240143369179</v>
       </c>
     </row>
-    <row r="426" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="426" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A426">
         <v>0.66721311475409828</v>
       </c>
     </row>
-    <row r="427" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="427" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A427">
         <v>0.62290969899665549</v>
       </c>
     </row>
-    <row r="428" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="428" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A428">
         <v>0.85296684118673649</v>
       </c>
     </row>
-    <row r="429" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="429" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A429">
         <v>0.67375886524822703</v>
       </c>
     </row>
-    <row r="430" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="430" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A430">
         <v>0.84511784511784505</v>
       </c>
     </row>
-    <row r="431" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="431" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A431">
         <v>0.61279461279461278</v>
       </c>
     </row>
-    <row r="432" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="432" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A432">
         <v>0.47259136212624592</v>
       </c>
     </row>
-    <row r="433" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="433" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A433">
         <v>0.78991596638655459</v>
       </c>
     </row>
-    <row r="434" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="434" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A434">
         <v>0.72616487455197132</v>
       </c>
     </row>
-    <row r="435" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="435" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A435">
         <v>0.57954545454545447</v>
       </c>
     </row>
-    <row r="436" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="436" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A436">
         <v>0.50990099009900991</v>
       </c>
     </row>
-    <row r="437" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="437" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A437">
         <v>0.59366576819407013</v>
       </c>
     </row>
-    <row r="438" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="438" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A438">
         <v>0.521505376344086</v>
       </c>
     </row>
-    <row r="439" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="439" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A439">
         <v>0.46041308089500871</v>
       </c>
     </row>
-    <row r="440" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="440" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A440">
         <v>0.4875100725221595</v>
       </c>
     </row>
-    <row r="441" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="441" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A441">
         <v>0.73599439775910369</v>
       </c>
     </row>
-    <row r="442" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="442" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A442">
         <v>0.92021276595744683</v>
       </c>
     </row>
-    <row r="443" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="443" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A443">
         <v>0.4654166666666667</v>
       </c>
     </row>
-    <row r="444" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="444" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A444">
         <v>0.73762376237623761</v>
       </c>
     </row>
-    <row r="445" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="445" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A445">
         <v>0.46746031746031752</v>
       </c>
     </row>
-    <row r="446" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="446" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A446">
         <v>0.87128712871287128</v>
       </c>
     </row>
-    <row r="447" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="447" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A447">
         <v>0.78333333333333333</v>
       </c>
     </row>
-    <row r="448" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="448" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A448">
         <v>0.55820895522388059</v>
       </c>
     </row>
-    <row r="449" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="449" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A449">
         <v>0.57281553398058249</v>
       </c>
     </row>
-    <row r="450" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="450" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A450">
         <v>0.62517482517482525</v>
       </c>
     </row>
-    <row r="451" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="451" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A451">
         <v>0.78365384615384626</v>
       </c>
     </row>
-    <row r="452" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="452" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A452">
         <v>0.42976190476190479</v>
       </c>
     </row>
-    <row r="453" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="453" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A453">
         <v>0.63020833333333337</v>
       </c>
     </row>
-    <row r="454" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="454" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A454">
         <v>0.74273504273504276</v>
       </c>
     </row>
-    <row r="455" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="455" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A455">
         <v>0.32491438356164382</v>
       </c>
     </row>
-    <row r="456" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="456" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A456">
         <v>0.71673525377229086</v>
       </c>
     </row>
-    <row r="457" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="457" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A457">
         <v>0.45978021978021982</v>
       </c>
     </row>
-    <row r="458" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="458" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A458">
         <v>0.52826086956521734</v>
       </c>
     </row>
-    <row r="459" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="459" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A459">
         <v>0.65402843601895733</v>
       </c>
     </row>
-    <row r="460" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="460" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A460">
         <v>0.67876344086021501</v>
       </c>
     </row>
-    <row r="461" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="461" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A461">
         <v>0.3611111111111111</v>
       </c>
     </row>
-    <row r="462" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="462" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A462">
         <v>0.65270413573700958</v>
       </c>
     </row>
-    <row r="463" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="463" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A463">
         <v>0.61682242990654212</v>
       </c>
@@ -6164,21 +6166,21 @@
       <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="3" width="11.73046875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.46484375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.73046875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.59765625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.19921875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17.73046875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16.59765625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.73046875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="13.86328125" bestFit="1" customWidth="1"/>
+    <col min="1" max="3" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -6216,7 +6218,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>0.45</v>
       </c>
@@ -6254,7 +6256,7 @@
         <v>5.6262789151543097E-15</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>0.47368421052631582</v>
       </c>
@@ -6292,7 +6294,7 @@
         <v>5.6262789151543097E-15</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>0.4</v>
       </c>
@@ -6330,7 +6332,7 @@
         <v>5.6262789151543097E-15</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>0.5</v>
       </c>
@@ -6368,7 +6370,7 @@
         <v>5.6262789151543097E-15</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>0.23076923076923081</v>
       </c>
@@ -6406,7 +6408,7 @@
         <v>5.6262789151543097E-15</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>0.2</v>
       </c>
@@ -6444,7 +6446,7 @@
         <v>5.6262789151543097E-15</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>0.22222222222222221</v>
       </c>
@@ -6482,7 +6484,7 @@
         <v>5.6262789151543097E-15</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>0.5</v>
       </c>
@@ -6520,7 +6522,7 @@
         <v>5.6262789151543097E-15</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>0.63636363636363635</v>
       </c>
@@ -6558,7 +6560,7 @@
         <v>5.6262789151543097E-15</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>0.375</v>
       </c>
@@ -6596,7 +6598,7 @@
         <v>5.6262789151543097E-15</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>0.47058823529411759</v>
       </c>
@@ -6634,7 +6636,7 @@
         <v>5.6262789151543097E-15</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>0.2</v>
       </c>
@@ -6672,7 +6674,7 @@
         <v>5.6262789151543097E-15</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>0.22222222222222221</v>
       </c>
@@ -6710,7 +6712,7 @@
         <v>5.6262789151543097E-15</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>0.42857142857142849</v>
       </c>
@@ -6748,7 +6750,7 @@
         <v>5.6262789151543097E-15</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>0.1875</v>
       </c>
@@ -6786,7 +6788,7 @@
         <v>5.6262789151543097E-15</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>0.1333333333333333</v>
       </c>
@@ -6824,7 +6826,7 @@
         <v>5.6262789151543097E-15</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>0.26315789473684209</v>
       </c>
@@ -6862,7 +6864,7 @@
         <v>5.6262789151543097E-15</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>0.4375</v>
       </c>
@@ -6900,7 +6902,7 @@
         <v>5.6262789151543097E-15</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>1</v>
       </c>
@@ -6938,7 +6940,7 @@
         <v>5.6262789151543097E-15</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>0.5</v>
       </c>
@@ -6976,7 +6978,7 @@
         <v>5.6262789151543097E-15</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>0.7142857142857143</v>
       </c>
@@ -7014,7 +7016,7 @@
         <v>5.6262789151543097E-15</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>0.4</v>
       </c>
@@ -7052,7 +7054,7 @@
         <v>5.6262789151543097E-15</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>0.52941176470588236</v>
       </c>
@@ -7090,7 +7092,7 @@
         <v>5.6262789151543097E-15</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>0.47368421052631582</v>
       </c>
@@ -7128,7 +7130,7 @@
         <v>5.6262789151543097E-15</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A27">
         <f>AVERAGE(A2:A25)</f>
         <v>0.41451225431488586</v>
@@ -7174,7 +7176,7 @@
         <v>0.19613150813696889</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A28">
         <f>_xlfn.STDEV.P(A2:A25)</f>
         <v>0.19195997900736053</v>
@@ -7229,512 +7231,4890 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C10D504-B98A-4A0E-9074-ED470C963A54}">
   <dimension ref="A1:A101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A71" workbookViewId="0">
+    <sheetView topLeftCell="A71" workbookViewId="0">
       <selection activeCell="A102" sqref="A102"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>0.70720164609053504</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>0.77749999999999997</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>0.85588235294117643</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>0.63277848911651724</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>0.60781249999999998</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>0.75</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>0.90671182266009853</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>0.64259259259259249</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>0.83916623777663402</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>0.85523809523809524</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>0.85333333333333328</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>0.76289473684210529</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>0.72759103641456579</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>0.62797619047619047</v>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>0.72641857037582902</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>0.73193080878915384</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>0.71435185185185179</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>0.76433566433566436</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>0.75803921568627453</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>0.75993589743589751</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>0.71391752577319578</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>0.75191919191919199</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>0.93949579831932772</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>0.53681506849315075</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>0.81969230769230772</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>0.80743079164643039</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>0.50824587706146929</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>0.79378591189614822</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>0.79578246392896779</v>
       </c>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>0.82861292665214237</v>
       </c>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>0.91865079365079372</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>0.87706919945725914</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>0.70466814861860905</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>0.80625000000000002</v>
       </c>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>0.86363636363636365</v>
       </c>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>0.80432995341189373</v>
       </c>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>0.70264550264550263</v>
       </c>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>0.64008941877794334</v>
       </c>
     </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>0.80374823196605383</v>
       </c>
     </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>0.94517825832846281</v>
       </c>
     </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>0.73642634623943026</v>
       </c>
     </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>0.66420250896057353</v>
       </c>
     </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>0.59074074074074079</v>
       </c>
     </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>0.83035460992907806</v>
       </c>
     </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>0.84198113207547165</v>
       </c>
     </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>0.73733075435203099</v>
       </c>
     </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>0.78784313725490196</v>
       </c>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>0.78922908693275018</v>
       </c>
     </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>0.84751916095199675</v>
       </c>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>0.43309859154929581</v>
       </c>
     </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>0.74588815789473695</v>
       </c>
     </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>0.90775510204081622</v>
       </c>
     </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>0.80496323529411762</v>
       </c>
     </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>0.62632978723404253</v>
       </c>
     </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>0.84391534391534384</v>
       </c>
     </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>0.8946488294314382</v>
       </c>
     </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>0.71871619184998192</v>
       </c>
     </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>0.59857142857142864</v>
       </c>
     </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>0.58349577647823259</v>
       </c>
     </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>0.78441722972972971</v>
       </c>
     </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>0.69271664008506117</v>
       </c>
     </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>0.73544973544973546</v>
       </c>
     </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>0.8012345679012346</v>
       </c>
     </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>0.90066666666666673</v>
       </c>
     </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>0.8532142857142857</v>
       </c>
     </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>0.79359567901234562</v>
       </c>
     </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>0.76641949152542377</v>
       </c>
     </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>0.90916955017301038</v>
       </c>
     </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>0.85818181818181838</v>
       </c>
     </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>0.63690476190476186</v>
       </c>
     </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>0.85362173038229372</v>
       </c>
     </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="73" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>0.72224231464737798</v>
       </c>
     </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="74" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>0.84225171232876717</v>
       </c>
     </row>
-    <row r="75" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="75" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>0.83542319749216309</v>
       </c>
     </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="76" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>0.85901001112347053</v>
       </c>
     </row>
-    <row r="77" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="77" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>0.56606060606060604</v>
       </c>
     </row>
-    <row r="78" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="78" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>0.87161290322580642</v>
       </c>
     </row>
-    <row r="79" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="79" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>0.90112994350282483</v>
       </c>
     </row>
-    <row r="80" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="80" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>0.78233766233766222</v>
       </c>
     </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="81" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>0.85892255892255898</v>
       </c>
     </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="82" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>0.86619047619047618</v>
       </c>
     </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="83" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>0.73145448655652734</v>
       </c>
     </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="84" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>0.82773386034255603</v>
       </c>
     </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="85" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>0.73393665158371035</v>
       </c>
     </row>
-    <row r="86" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="86" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>0.72277227722772275</v>
       </c>
     </row>
-    <row r="87" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="87" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>0.83838493180342066</v>
       </c>
     </row>
-    <row r="88" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="88" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>0.84359605911330038</v>
       </c>
     </row>
-    <row r="89" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="89" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>0.68928571428571428</v>
       </c>
     </row>
-    <row r="90" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="90" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>0.85666942833471416</v>
       </c>
     </row>
-    <row r="91" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="91" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>0.74603608529250964</v>
       </c>
     </row>
-    <row r="92" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="92" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>0.7416666666666667</v>
       </c>
     </row>
-    <row r="93" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="93" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>0.71122994652406424</v>
       </c>
     </row>
-    <row r="94" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="94" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>0.89872495446265943</v>
       </c>
     </row>
-    <row r="95" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="95" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>0.8542635658914729</v>
       </c>
     </row>
-    <row r="96" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="96" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>0.7865491651205937</v>
       </c>
     </row>
-    <row r="97" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="97" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>0.83317284545016856</v>
       </c>
     </row>
-    <row r="98" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="98" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>0.6612244897959183</v>
       </c>
     </row>
-    <row r="100" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="100" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A100">
         <f>AVERAGE(A2:A98)</f>
         <v>0.77024885946946309</v>
       </c>
     </row>
-    <row r="101" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="101" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A101">
         <f>_xlfn.STDEV.P(A2:A98)</f>
         <v>0.10037315613931573</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{84F48DAC-115E-48D4-8C14-8489C0420078}">
+  <dimension ref="A1:L66"/>
+  <sheetViews>
+    <sheetView topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="J70" sqref="J70"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>0.25</v>
+      </c>
+      <c r="B2">
+        <v>0.14285714285714279</v>
+      </c>
+      <c r="C2">
+        <v>0.1818181818181818</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>0.3</v>
+      </c>
+      <c r="F2">
+        <v>0.2142857142857143</v>
+      </c>
+      <c r="G2">
+        <v>0.25</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
+      <c r="I2">
+        <v>26</v>
+      </c>
+      <c r="J2">
+        <v>-5.8202392493553103E-3</v>
+      </c>
+      <c r="K2">
+        <v>0.2262142529701727</v>
+      </c>
+      <c r="L2">
+        <v>1.4579553161954629E-110</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>0.16666666666666671</v>
+      </c>
+      <c r="C3">
+        <v>0.2857142857142857</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+      <c r="F3">
+        <v>0.5</v>
+      </c>
+      <c r="G3">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>26</v>
+      </c>
+      <c r="J3">
+        <v>0.21257313470335659</v>
+      </c>
+      <c r="K3">
+        <v>7.0708972758329672E-4</v>
+      </c>
+      <c r="L3">
+        <v>1.4579553161954629E-110</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>0.7142857142857143</v>
+      </c>
+      <c r="B4">
+        <v>0.25</v>
+      </c>
+      <c r="C4">
+        <v>0.37037037037037029</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>0.625</v>
+      </c>
+      <c r="F4">
+        <v>0.25</v>
+      </c>
+      <c r="G4">
+        <v>0.35714285714285721</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <v>26</v>
+      </c>
+      <c r="J4">
+        <v>-4.3899700520920813E-2</v>
+      </c>
+      <c r="K4">
+        <v>0.24262173782637661</v>
+      </c>
+      <c r="L4">
+        <v>1.4579553161954629E-110</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>1</v>
+      </c>
+      <c r="B5">
+        <v>0.38461538461538458</v>
+      </c>
+      <c r="C5">
+        <v>0.55555555555555558</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5">
+        <v>0.76923076923076927</v>
+      </c>
+      <c r="G5">
+        <v>0.86956521739130443</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>26</v>
+      </c>
+      <c r="J5">
+        <v>0.22287886724803621</v>
+      </c>
+      <c r="K5">
+        <v>0.30807262065813379</v>
+      </c>
+      <c r="L5">
+        <v>1.4579553161954629E-110</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>1</v>
+      </c>
+      <c r="B6">
+        <v>0.1111111111111111</v>
+      </c>
+      <c r="C6">
+        <v>0.2</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="F6">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="G6">
+        <v>0.5</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <v>26</v>
+      </c>
+      <c r="J6">
+        <v>0.34127412328566747</v>
+      </c>
+      <c r="K6">
+        <v>1.006095345124239E-2</v>
+      </c>
+      <c r="L6">
+        <v>1.4579553161954629E-110</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>0.75</v>
+      </c>
+      <c r="B7">
+        <v>0.15</v>
+      </c>
+      <c r="C7">
+        <v>0.25</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7">
+        <v>0.625</v>
+      </c>
+      <c r="F7">
+        <v>0.25</v>
+      </c>
+      <c r="G7">
+        <v>0.35714285714285721</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="I7">
+        <v>26</v>
+      </c>
+      <c r="J7">
+        <v>-9.5715369521031685E-2</v>
+      </c>
+      <c r="K7">
+        <v>0.68284657473579291</v>
+      </c>
+      <c r="L7">
+        <v>1.4579553161954629E-110</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>1</v>
+      </c>
+      <c r="B8">
+        <v>0.2608695652173913</v>
+      </c>
+      <c r="C8">
+        <v>0.41379310344827591</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="F8">
+        <v>0.30434782608695649</v>
+      </c>
+      <c r="G8">
+        <v>0.46666666666666667</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+      <c r="I8">
+        <v>26</v>
+      </c>
+      <c r="J8">
+        <v>-0.35693076314969419</v>
+      </c>
+      <c r="K8">
+        <v>1.5108348644582751E-4</v>
+      </c>
+      <c r="L8">
+        <v>1.4579553161954629E-110</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>1</v>
+      </c>
+      <c r="B9">
+        <v>0.2142857142857143</v>
+      </c>
+      <c r="C9">
+        <v>0.35294117647058831</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="F9">
+        <v>0.5</v>
+      </c>
+      <c r="G9">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="I9">
+        <v>26</v>
+      </c>
+      <c r="J9">
+        <v>3.3122729709655623E-2</v>
+      </c>
+      <c r="K9">
+        <v>5.3368535250381249E-4</v>
+      </c>
+      <c r="L9">
+        <v>1.4579553161954629E-110</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>1</v>
+      </c>
+      <c r="B10">
+        <v>0.5</v>
+      </c>
+      <c r="C10">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="F10">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="G10">
+        <v>0.8</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
+      <c r="I10">
+        <v>26</v>
+      </c>
+      <c r="J10">
+        <v>0.45891696888871941</v>
+      </c>
+      <c r="K10">
+        <v>9.1405361807810614E-2</v>
+      </c>
+      <c r="L10">
+        <v>1.4579553161954629E-110</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>1</v>
+      </c>
+      <c r="B11">
+        <v>0.5</v>
+      </c>
+      <c r="C11">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="F11">
+        <v>0.5714285714285714</v>
+      </c>
+      <c r="G11">
+        <v>0.72727272727272729</v>
+      </c>
+      <c r="H11">
+        <v>0</v>
+      </c>
+      <c r="I11">
+        <v>20</v>
+      </c>
+      <c r="J11">
+        <v>-0.18802517074689629</v>
+      </c>
+      <c r="K11">
+        <v>2.190892182532406E-4</v>
+      </c>
+      <c r="L11">
+        <v>1.4579553161954629E-110</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>1</v>
+      </c>
+      <c r="B12">
+        <v>0.2857142857142857</v>
+      </c>
+      <c r="C12">
+        <v>0.44444444444444448</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
+      <c r="F12">
+        <v>0.35714285714285721</v>
+      </c>
+      <c r="G12">
+        <v>0.52631578947368418</v>
+      </c>
+      <c r="H12">
+        <v>0</v>
+      </c>
+      <c r="I12">
+        <v>27</v>
+      </c>
+      <c r="J12">
+        <v>0.34872011026901378</v>
+      </c>
+      <c r="K12">
+        <v>2.0738665405524009E-7</v>
+      </c>
+      <c r="L12">
+        <v>1.4579553161954629E-110</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>1</v>
+      </c>
+      <c r="B13">
+        <v>0.1111111111111111</v>
+      </c>
+      <c r="C13">
+        <v>0.2</v>
+      </c>
+      <c r="D13">
+        <v>0</v>
+      </c>
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="F13">
+        <v>0.16666666666666671</v>
+      </c>
+      <c r="G13">
+        <v>0.2857142857142857</v>
+      </c>
+      <c r="H13">
+        <v>0</v>
+      </c>
+      <c r="I13">
+        <v>27</v>
+      </c>
+      <c r="J13">
+        <v>-3.5114673737447727E-2</v>
+      </c>
+      <c r="K13">
+        <v>7.6251397050857289E-3</v>
+      </c>
+      <c r="L13">
+        <v>1.4579553161954629E-110</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>1</v>
+      </c>
+      <c r="B14">
+        <v>0.2105263157894737</v>
+      </c>
+      <c r="C14">
+        <v>0.34782608695652167</v>
+      </c>
+      <c r="D14">
+        <v>0</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
+      <c r="F14">
+        <v>0.31578947368421051</v>
+      </c>
+      <c r="G14">
+        <v>0.47999999999999993</v>
+      </c>
+      <c r="H14">
+        <v>0</v>
+      </c>
+      <c r="I14">
+        <v>17</v>
+      </c>
+      <c r="J14">
+        <v>-0.1135466111347159</v>
+      </c>
+      <c r="K14">
+        <v>0.50345679748485295</v>
+      </c>
+      <c r="L14">
+        <v>1.4579553161954629E-110</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>1</v>
+      </c>
+      <c r="B15">
+        <v>0.2142857142857143</v>
+      </c>
+      <c r="C15">
+        <v>0.35294117647058831</v>
+      </c>
+      <c r="D15">
+        <v>0</v>
+      </c>
+      <c r="E15">
+        <v>0.875</v>
+      </c>
+      <c r="F15">
+        <v>0.5</v>
+      </c>
+      <c r="G15">
+        <v>0.63636363636363635</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+      <c r="I15">
+        <v>26</v>
+      </c>
+      <c r="J15">
+        <v>-0.29816679459058398</v>
+      </c>
+      <c r="K15">
+        <v>2.61098545524717E-7</v>
+      </c>
+      <c r="L15">
+        <v>1.4579553161954629E-110</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>1</v>
+      </c>
+      <c r="B16">
+        <v>0.25</v>
+      </c>
+      <c r="C16">
+        <v>0.4</v>
+      </c>
+      <c r="D16">
+        <v>0</v>
+      </c>
+      <c r="E16">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="F16">
+        <v>0.5</v>
+      </c>
+      <c r="G16">
+        <v>0.4</v>
+      </c>
+      <c r="H16">
+        <v>0</v>
+      </c>
+      <c r="I16">
+        <v>26</v>
+      </c>
+      <c r="J16">
+        <v>0.1518943523916339</v>
+      </c>
+      <c r="K16">
+        <v>0.13454489108133899</v>
+      </c>
+      <c r="L16">
+        <v>1.4579553161954629E-110</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>1</v>
+      </c>
+      <c r="B17">
+        <v>0.14285714285714279</v>
+      </c>
+      <c r="C17">
+        <v>0.25</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+      <c r="E17">
+        <v>1</v>
+      </c>
+      <c r="F17">
+        <v>0.2857142857142857</v>
+      </c>
+      <c r="G17">
+        <v>0.44444444444444448</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>26</v>
+      </c>
+      <c r="J17">
+        <v>0.42449064492747302</v>
+      </c>
+      <c r="K17">
+        <v>7.292297354933329E-5</v>
+      </c>
+      <c r="L17">
+        <v>1.4579553161954629E-110</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>1</v>
+      </c>
+      <c r="B18">
+        <v>0.26666666666666672</v>
+      </c>
+      <c r="C18">
+        <v>0.4210526315789474</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+      <c r="E18">
+        <v>1</v>
+      </c>
+      <c r="F18">
+        <v>0.46666666666666667</v>
+      </c>
+      <c r="G18">
+        <v>0.63636363636363635</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>27</v>
+      </c>
+      <c r="J18">
+        <v>0.1710906288104812</v>
+      </c>
+      <c r="K18">
+        <v>4.2057599024679579E-3</v>
+      </c>
+      <c r="L18">
+        <v>1.4579553161954629E-110</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>1</v>
+      </c>
+      <c r="B19">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="C19">
+        <v>0.5</v>
+      </c>
+      <c r="D19">
+        <v>0</v>
+      </c>
+      <c r="E19">
+        <v>0.6</v>
+      </c>
+      <c r="F19">
+        <v>0.5</v>
+      </c>
+      <c r="G19">
+        <v>0.54545454545454541</v>
+      </c>
+      <c r="H19">
+        <v>0</v>
+      </c>
+      <c r="I19">
+        <v>26</v>
+      </c>
+      <c r="J19">
+        <v>-0.25907653078989118</v>
+      </c>
+      <c r="K19">
+        <v>2.828924706042717E-5</v>
+      </c>
+      <c r="L19">
+        <v>1.4579553161954629E-110</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>0</v>
+      </c>
+      <c r="B20">
+        <v>0</v>
+      </c>
+      <c r="C20">
+        <v>0</v>
+      </c>
+      <c r="D20">
+        <v>0</v>
+      </c>
+      <c r="E20">
+        <v>0.4</v>
+      </c>
+      <c r="F20">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="G20">
+        <v>0.36363636363636359</v>
+      </c>
+      <c r="H20">
+        <v>0</v>
+      </c>
+      <c r="I20">
+        <v>26</v>
+      </c>
+      <c r="J20">
+        <v>0.1039653550266551</v>
+      </c>
+      <c r="K20">
+        <v>0.106030642338397</v>
+      </c>
+      <c r="L20">
+        <v>1.4579553161954629E-110</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>1</v>
+      </c>
+      <c r="B21">
+        <v>0.2</v>
+      </c>
+      <c r="C21">
+        <v>0.33333333333333343</v>
+      </c>
+      <c r="D21">
+        <v>0</v>
+      </c>
+      <c r="E21">
+        <v>0.6</v>
+      </c>
+      <c r="F21">
+        <v>0.2</v>
+      </c>
+      <c r="G21">
+        <v>0.3</v>
+      </c>
+      <c r="H21">
+        <v>0</v>
+      </c>
+      <c r="I21">
+        <v>28</v>
+      </c>
+      <c r="J21">
+        <v>-3.4787258323882762E-2</v>
+      </c>
+      <c r="K21">
+        <v>0.75674672274502619</v>
+      </c>
+      <c r="L21">
+        <v>1.4579553161954629E-110</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>0.88888888888888884</v>
+      </c>
+      <c r="B22">
+        <v>0.2424242424242424</v>
+      </c>
+      <c r="C22">
+        <v>0.38095238095238088</v>
+      </c>
+      <c r="D22">
+        <v>0</v>
+      </c>
+      <c r="E22">
+        <v>0.90909090909090906</v>
+      </c>
+      <c r="F22">
+        <v>0.30303030303030298</v>
+      </c>
+      <c r="G22">
+        <v>0.45454545454545447</v>
+      </c>
+      <c r="H22">
+        <v>0</v>
+      </c>
+      <c r="I22">
+        <v>9</v>
+      </c>
+      <c r="J22">
+        <v>-0.36219012135889689</v>
+      </c>
+      <c r="K22">
+        <v>3.5054251267720368E-3</v>
+      </c>
+      <c r="L22">
+        <v>1.4579553161954629E-110</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>1</v>
+      </c>
+      <c r="B23">
+        <v>6.25E-2</v>
+      </c>
+      <c r="C23">
+        <v>0.1176470588235294</v>
+      </c>
+      <c r="D23">
+        <v>0</v>
+      </c>
+      <c r="E23">
+        <v>1</v>
+      </c>
+      <c r="F23">
+        <v>0.1875</v>
+      </c>
+      <c r="G23">
+        <v>0.31578947368421051</v>
+      </c>
+      <c r="H23">
+        <v>0</v>
+      </c>
+      <c r="I23">
+        <v>26</v>
+      </c>
+      <c r="J23">
+        <v>0.23683977076972801</v>
+      </c>
+      <c r="K23">
+        <v>4.255014647251879E-6</v>
+      </c>
+      <c r="L23">
+        <v>1.4579553161954629E-110</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>1</v>
+      </c>
+      <c r="B24">
+        <v>0.14285714285714279</v>
+      </c>
+      <c r="C24">
+        <v>0.25</v>
+      </c>
+      <c r="D24">
+        <v>0</v>
+      </c>
+      <c r="E24">
+        <v>0.22222222222222221</v>
+      </c>
+      <c r="F24">
+        <v>0.2857142857142857</v>
+      </c>
+      <c r="G24">
+        <v>0.25</v>
+      </c>
+      <c r="H24">
+        <v>0</v>
+      </c>
+      <c r="I24">
+        <v>26</v>
+      </c>
+      <c r="J24">
+        <v>-0.25663579356415578</v>
+      </c>
+      <c r="K24">
+        <v>2.5038518532532641E-3</v>
+      </c>
+      <c r="L24">
+        <v>1.4579553161954629E-110</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>1</v>
+      </c>
+      <c r="B25">
+        <v>0.25</v>
+      </c>
+      <c r="C25">
+        <v>0.4</v>
+      </c>
+      <c r="D25">
+        <v>0</v>
+      </c>
+      <c r="E25">
+        <v>0.22222222222222221</v>
+      </c>
+      <c r="F25">
+        <v>0.5</v>
+      </c>
+      <c r="G25">
+        <v>0.30769230769230771</v>
+      </c>
+      <c r="H25">
+        <v>0</v>
+      </c>
+      <c r="I25">
+        <v>26</v>
+      </c>
+      <c r="J25">
+        <v>0.14096640248197029</v>
+      </c>
+      <c r="K25">
+        <v>0.37546795691860768</v>
+      </c>
+      <c r="L25">
+        <v>1.4579553161954629E-110</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>1</v>
+      </c>
+      <c r="B26">
+        <v>0.25</v>
+      </c>
+      <c r="C26">
+        <v>0.4</v>
+      </c>
+      <c r="D26">
+        <v>0</v>
+      </c>
+      <c r="E26">
+        <v>1</v>
+      </c>
+      <c r="F26">
+        <v>0.4375</v>
+      </c>
+      <c r="G26">
+        <v>0.60869565217391308</v>
+      </c>
+      <c r="H26">
+        <v>0</v>
+      </c>
+      <c r="I26">
+        <v>26</v>
+      </c>
+      <c r="J26">
+        <v>0.17717447499851929</v>
+      </c>
+      <c r="K26">
+        <v>1.8395179046340479E-4</v>
+      </c>
+      <c r="L26">
+        <v>1.4579553161954629E-110</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>0.8</v>
+      </c>
+      <c r="B27">
+        <v>0.27586206896551718</v>
+      </c>
+      <c r="C27">
+        <v>0.4102564102564103</v>
+      </c>
+      <c r="D27">
+        <v>0</v>
+      </c>
+      <c r="E27">
+        <v>0.81818181818181823</v>
+      </c>
+      <c r="F27">
+        <v>0.31034482758620691</v>
+      </c>
+      <c r="G27">
+        <v>0.45000000000000012</v>
+      </c>
+      <c r="H27">
+        <v>0</v>
+      </c>
+      <c r="I27">
+        <v>8</v>
+      </c>
+      <c r="J27">
+        <v>-0.52139485492689008</v>
+      </c>
+      <c r="K27">
+        <v>0.46203008052483407</v>
+      </c>
+      <c r="L27">
+        <v>1.4579553161954629E-110</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>1</v>
+      </c>
+      <c r="B28">
+        <v>0.27272727272727271</v>
+      </c>
+      <c r="C28">
+        <v>0.42857142857142849</v>
+      </c>
+      <c r="D28">
+        <v>0</v>
+      </c>
+      <c r="E28">
+        <v>1</v>
+      </c>
+      <c r="F28">
+        <v>0.36363636363636359</v>
+      </c>
+      <c r="G28">
+        <v>0.53333333333333333</v>
+      </c>
+      <c r="H28">
+        <v>0</v>
+      </c>
+      <c r="I28">
+        <v>26</v>
+      </c>
+      <c r="J28">
+        <v>0.37039947980926502</v>
+      </c>
+      <c r="K28">
+        <v>1.660342124460677E-4</v>
+      </c>
+      <c r="L28">
+        <v>1.4579553161954629E-110</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>1</v>
+      </c>
+      <c r="B29">
+        <v>0.14285714285714279</v>
+      </c>
+      <c r="C29">
+        <v>0.25</v>
+      </c>
+      <c r="D29">
+        <v>0</v>
+      </c>
+      <c r="E29">
+        <v>1</v>
+      </c>
+      <c r="F29">
+        <v>0.42857142857142849</v>
+      </c>
+      <c r="G29">
+        <v>0.6</v>
+      </c>
+      <c r="H29">
+        <v>0</v>
+      </c>
+      <c r="I29">
+        <v>26</v>
+      </c>
+      <c r="J29">
+        <v>0.13327636391603739</v>
+      </c>
+      <c r="K29">
+        <v>1.0543204256776221E-2</v>
+      </c>
+      <c r="L29">
+        <v>1.4579553161954629E-110</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>1</v>
+      </c>
+      <c r="B30">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="C30">
+        <v>0.5</v>
+      </c>
+      <c r="D30">
+        <v>0</v>
+      </c>
+      <c r="E30">
+        <v>1</v>
+      </c>
+      <c r="F30">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="G30">
+        <v>0.8</v>
+      </c>
+      <c r="H30">
+        <v>0</v>
+      </c>
+      <c r="I30">
+        <v>26</v>
+      </c>
+      <c r="J30">
+        <v>0.23978155417203631</v>
+      </c>
+      <c r="K30">
+        <v>0.1062522237441957</v>
+      </c>
+      <c r="L30">
+        <v>1.4579553161954629E-110</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>0.2</v>
+      </c>
+      <c r="B31">
+        <v>0.4</v>
+      </c>
+      <c r="C31">
+        <v>0.26666666666666672</v>
+      </c>
+      <c r="D31">
+        <v>0</v>
+      </c>
+      <c r="E31">
+        <v>0.27272727272727271</v>
+      </c>
+      <c r="F31">
+        <v>0.6</v>
+      </c>
+      <c r="G31">
+        <v>0.37499999999999989</v>
+      </c>
+      <c r="H31">
+        <v>0</v>
+      </c>
+      <c r="I31">
+        <v>26</v>
+      </c>
+      <c r="J31">
+        <v>0.13452240567360679</v>
+      </c>
+      <c r="K31">
+        <v>0.55714285714285716</v>
+      </c>
+      <c r="L31">
+        <v>1.4579553161954629E-110</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>1</v>
+      </c>
+      <c r="B32">
+        <v>0.14285714285714279</v>
+      </c>
+      <c r="C32">
+        <v>0.25</v>
+      </c>
+      <c r="D32">
+        <v>0</v>
+      </c>
+      <c r="E32">
+        <v>1</v>
+      </c>
+      <c r="F32">
+        <v>0.42857142857142849</v>
+      </c>
+      <c r="G32">
+        <v>0.6</v>
+      </c>
+      <c r="H32">
+        <v>0</v>
+      </c>
+      <c r="I32">
+        <v>26</v>
+      </c>
+      <c r="J32">
+        <v>0.21694406473674391</v>
+      </c>
+      <c r="K32">
+        <v>0.5</v>
+      </c>
+      <c r="L32">
+        <v>1.4579553161954629E-110</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>0.22222222222222221</v>
+      </c>
+      <c r="B33">
+        <v>0.4</v>
+      </c>
+      <c r="C33">
+        <v>0.2857142857142857</v>
+      </c>
+      <c r="D33">
+        <v>0</v>
+      </c>
+      <c r="E33">
+        <v>0.3</v>
+      </c>
+      <c r="F33">
+        <v>0.6</v>
+      </c>
+      <c r="G33">
+        <v>0.4</v>
+      </c>
+      <c r="H33">
+        <v>0</v>
+      </c>
+      <c r="I33">
+        <v>26</v>
+      </c>
+      <c r="J33">
+        <v>7.8267989510012251E-2</v>
+      </c>
+      <c r="K33">
+        <v>0.55714285714285716</v>
+      </c>
+      <c r="L33">
+        <v>1.4579553161954629E-110</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>0.1111111111111111</v>
+      </c>
+      <c r="B34">
+        <v>0.25</v>
+      </c>
+      <c r="C34">
+        <v>0.1538461538461538</v>
+      </c>
+      <c r="D34">
+        <v>0</v>
+      </c>
+      <c r="E34">
+        <v>0</v>
+      </c>
+      <c r="F34">
+        <v>0</v>
+      </c>
+      <c r="G34">
+        <v>0</v>
+      </c>
+      <c r="H34">
+        <v>0</v>
+      </c>
+      <c r="I34">
+        <v>26</v>
+      </c>
+      <c r="J34">
+        <v>1.6839725391799021E-3</v>
+      </c>
+      <c r="K34">
+        <v>0.82857142857142851</v>
+      </c>
+      <c r="L34">
+        <v>1.4579553161954629E-110</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>1</v>
+      </c>
+      <c r="B35">
+        <v>0.3125</v>
+      </c>
+      <c r="C35">
+        <v>0.47619047619047622</v>
+      </c>
+      <c r="D35">
+        <v>0</v>
+      </c>
+      <c r="E35">
+        <v>1</v>
+      </c>
+      <c r="F35">
+        <v>0.4375</v>
+      </c>
+      <c r="G35">
+        <v>0.60869565217391308</v>
+      </c>
+      <c r="H35">
+        <v>0</v>
+      </c>
+      <c r="I35">
+        <v>29</v>
+      </c>
+      <c r="J35">
+        <v>-0.14614463503801331</v>
+      </c>
+      <c r="K35">
+        <v>2.2742379746337751E-4</v>
+      </c>
+      <c r="L35">
+        <v>1.4579553161954629E-110</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>1</v>
+      </c>
+      <c r="B36">
+        <v>0.27777777777777779</v>
+      </c>
+      <c r="C36">
+        <v>0.43478260869565222</v>
+      </c>
+      <c r="D36">
+        <v>0</v>
+      </c>
+      <c r="E36">
+        <v>1</v>
+      </c>
+      <c r="F36">
+        <v>0.44444444444444442</v>
+      </c>
+      <c r="G36">
+        <v>0.61538461538461531</v>
+      </c>
+      <c r="H36">
+        <v>0</v>
+      </c>
+      <c r="I36">
+        <v>26</v>
+      </c>
+      <c r="J36">
+        <v>-0.20508955063092019</v>
+      </c>
+      <c r="K36">
+        <v>1.686201311031335E-6</v>
+      </c>
+      <c r="L36">
+        <v>1.4579553161954629E-110</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>1</v>
+      </c>
+      <c r="B37">
+        <v>0.14285714285714279</v>
+      </c>
+      <c r="C37">
+        <v>0.25</v>
+      </c>
+      <c r="D37">
+        <v>0</v>
+      </c>
+      <c r="E37">
+        <v>1</v>
+      </c>
+      <c r="F37">
+        <v>0.42857142857142849</v>
+      </c>
+      <c r="G37">
+        <v>0.6</v>
+      </c>
+      <c r="H37">
+        <v>0</v>
+      </c>
+      <c r="I37">
+        <v>26</v>
+      </c>
+      <c r="J37">
+        <v>0.13588434108285119</v>
+      </c>
+      <c r="K37">
+        <v>3.9275432125199093E-2</v>
+      </c>
+      <c r="L37">
+        <v>1.4579553161954629E-110</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>1</v>
+      </c>
+      <c r="B38">
+        <v>0.27272727272727271</v>
+      </c>
+      <c r="C38">
+        <v>0.42857142857142849</v>
+      </c>
+      <c r="D38">
+        <v>0</v>
+      </c>
+      <c r="E38">
+        <v>1</v>
+      </c>
+      <c r="F38">
+        <v>0.36363636363636359</v>
+      </c>
+      <c r="G38">
+        <v>0.53333333333333333</v>
+      </c>
+      <c r="H38">
+        <v>0</v>
+      </c>
+      <c r="I38">
+        <v>26</v>
+      </c>
+      <c r="J38">
+        <v>0.39671347732251933</v>
+      </c>
+      <c r="K38">
+        <v>7.3423768396223407E-4</v>
+      </c>
+      <c r="L38">
+        <v>1.4579553161954629E-110</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>1</v>
+      </c>
+      <c r="B39">
+        <v>0.1333333333333333</v>
+      </c>
+      <c r="C39">
+        <v>0.23529411764705879</v>
+      </c>
+      <c r="D39">
+        <v>0</v>
+      </c>
+      <c r="E39">
+        <v>1</v>
+      </c>
+      <c r="F39">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="G39">
+        <v>0.5</v>
+      </c>
+      <c r="H39">
+        <v>0</v>
+      </c>
+      <c r="I39">
+        <v>26</v>
+      </c>
+      <c r="J39">
+        <v>0.23554575813614859</v>
+      </c>
+      <c r="K39">
+        <v>2.370248575036158E-5</v>
+      </c>
+      <c r="L39">
+        <v>1.4579553161954629E-110</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>1</v>
+      </c>
+      <c r="B40">
+        <v>0.10526315789473679</v>
+      </c>
+      <c r="C40">
+        <v>0.19047619047619049</v>
+      </c>
+      <c r="D40">
+        <v>0</v>
+      </c>
+      <c r="E40">
+        <v>1</v>
+      </c>
+      <c r="F40">
+        <v>0.26315789473684209</v>
+      </c>
+      <c r="G40">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="H40">
+        <v>0</v>
+      </c>
+      <c r="I40">
+        <v>26</v>
+      </c>
+      <c r="J40">
+        <v>3.2680058415069838E-2</v>
+      </c>
+      <c r="K40">
+        <v>0.52577714506555451</v>
+      </c>
+      <c r="L40">
+        <v>1.4579553161954629E-110</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>1</v>
+      </c>
+      <c r="B41">
+        <v>0.1875</v>
+      </c>
+      <c r="C41">
+        <v>0.31578947368421051</v>
+      </c>
+      <c r="D41">
+        <v>0</v>
+      </c>
+      <c r="E41">
+        <v>1</v>
+      </c>
+      <c r="F41">
+        <v>0.375</v>
+      </c>
+      <c r="G41">
+        <v>0.54545454545454541</v>
+      </c>
+      <c r="H41">
+        <v>0</v>
+      </c>
+      <c r="I41">
+        <v>27</v>
+      </c>
+      <c r="J41">
+        <v>7.3231940212075519E-2</v>
+      </c>
+      <c r="K41">
+        <v>8.0793885209358395E-3</v>
+      </c>
+      <c r="L41">
+        <v>1.4579553161954629E-110</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>1</v>
+      </c>
+      <c r="B42">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="C42">
+        <v>0.5</v>
+      </c>
+      <c r="D42">
+        <v>0</v>
+      </c>
+      <c r="E42">
+        <v>1</v>
+      </c>
+      <c r="F42">
+        <v>0.16666666666666671</v>
+      </c>
+      <c r="G42">
+        <v>0.2857142857142857</v>
+      </c>
+      <c r="H42">
+        <v>0</v>
+      </c>
+      <c r="I42">
+        <v>27</v>
+      </c>
+      <c r="J42">
+        <v>3.2436360906504128E-3</v>
+      </c>
+      <c r="K42">
+        <v>2.111556521614865E-2</v>
+      </c>
+      <c r="L42">
+        <v>1.4579553161954629E-110</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>0</v>
+      </c>
+      <c r="B43">
+        <v>0</v>
+      </c>
+      <c r="C43">
+        <v>0</v>
+      </c>
+      <c r="D43">
+        <v>0</v>
+      </c>
+      <c r="E43">
+        <v>0.2857142857142857</v>
+      </c>
+      <c r="F43">
+        <v>0.4</v>
+      </c>
+      <c r="G43">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="H43">
+        <v>0</v>
+      </c>
+      <c r="I43">
+        <v>26</v>
+      </c>
+      <c r="J43">
+        <v>8.4303380252985158E-2</v>
+      </c>
+      <c r="K43">
+        <v>1.1141544456334789E-2</v>
+      </c>
+      <c r="L43">
+        <v>1.4579553161954629E-110</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>1</v>
+      </c>
+      <c r="B44">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="C44">
+        <v>0.5</v>
+      </c>
+      <c r="D44">
+        <v>0</v>
+      </c>
+      <c r="E44">
+        <v>1</v>
+      </c>
+      <c r="F44">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="G44">
+        <v>0.73684210526315785</v>
+      </c>
+      <c r="H44">
+        <v>0</v>
+      </c>
+      <c r="I44">
+        <v>26</v>
+      </c>
+      <c r="J44">
+        <v>-2.697126234750187E-2</v>
+      </c>
+      <c r="K44">
+        <v>2.2981629236274749E-4</v>
+      </c>
+      <c r="L44">
+        <v>1.4579553161954629E-110</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>1</v>
+      </c>
+      <c r="B45">
+        <v>4.5454545454545463E-2</v>
+      </c>
+      <c r="C45">
+        <v>8.6956521739130446E-2</v>
+      </c>
+      <c r="D45">
+        <v>0</v>
+      </c>
+      <c r="E45">
+        <v>1</v>
+      </c>
+      <c r="F45">
+        <v>9.0909090909090912E-2</v>
+      </c>
+      <c r="G45">
+        <v>0.16666666666666671</v>
+      </c>
+      <c r="H45">
+        <v>0</v>
+      </c>
+      <c r="I45">
+        <v>26</v>
+      </c>
+      <c r="J45">
+        <v>7.2938097556055168E-2</v>
+      </c>
+      <c r="K45">
+        <v>0.31396000209322372</v>
+      </c>
+      <c r="L45">
+        <v>1.4579553161954629E-110</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>0</v>
+      </c>
+      <c r="B46">
+        <v>0</v>
+      </c>
+      <c r="C46">
+        <v>0</v>
+      </c>
+      <c r="D46">
+        <v>0</v>
+      </c>
+      <c r="E46">
+        <v>1</v>
+      </c>
+      <c r="F46">
+        <v>0.36363636363636359</v>
+      </c>
+      <c r="G46">
+        <v>0.53333333333333333</v>
+      </c>
+      <c r="H46">
+        <v>0</v>
+      </c>
+      <c r="I46">
+        <v>26</v>
+      </c>
+      <c r="J46">
+        <v>2.6228176040181489E-2</v>
+      </c>
+      <c r="K46">
+        <v>4.2950121324962072E-2</v>
+      </c>
+      <c r="L46">
+        <v>1.4579553161954629E-110</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>1</v>
+      </c>
+      <c r="B47">
+        <v>0.45454545454545447</v>
+      </c>
+      <c r="C47">
+        <v>0.625</v>
+      </c>
+      <c r="D47">
+        <v>0</v>
+      </c>
+      <c r="E47">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="F47">
+        <v>0.45454545454545447</v>
+      </c>
+      <c r="G47">
+        <v>0.58823529411764708</v>
+      </c>
+      <c r="H47">
+        <v>0</v>
+      </c>
+      <c r="I47">
+        <v>26</v>
+      </c>
+      <c r="J47">
+        <v>-0.24738989558163599</v>
+      </c>
+      <c r="K47">
+        <v>8.0390366799437743E-3</v>
+      </c>
+      <c r="L47">
+        <v>1.4579553161954629E-110</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>1</v>
+      </c>
+      <c r="B48">
+        <v>0.3125</v>
+      </c>
+      <c r="C48">
+        <v>0.47619047619047622</v>
+      </c>
+      <c r="D48">
+        <v>0</v>
+      </c>
+      <c r="E48">
+        <v>1</v>
+      </c>
+      <c r="F48">
+        <v>0.25</v>
+      </c>
+      <c r="G48">
+        <v>0.4</v>
+      </c>
+      <c r="H48">
+        <v>0</v>
+      </c>
+      <c r="I48">
+        <v>27</v>
+      </c>
+      <c r="J48">
+        <v>0.26913384930410827</v>
+      </c>
+      <c r="K48">
+        <v>4.1351123024644133E-5</v>
+      </c>
+      <c r="L48">
+        <v>1.4579553161954629E-110</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="B49">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="C49">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="D49">
+        <v>0</v>
+      </c>
+      <c r="E49">
+        <v>0</v>
+      </c>
+      <c r="F49">
+        <v>0</v>
+      </c>
+      <c r="G49">
+        <v>0</v>
+      </c>
+      <c r="H49">
+        <v>0</v>
+      </c>
+      <c r="I49">
+        <v>26</v>
+      </c>
+      <c r="J49">
+        <v>-0.1031164405216337</v>
+      </c>
+      <c r="K49">
+        <v>0.21476842253171821</v>
+      </c>
+      <c r="L49">
+        <v>1.4579553161954629E-110</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>1</v>
+      </c>
+      <c r="B50">
+        <v>0.125</v>
+      </c>
+      <c r="C50">
+        <v>0.22222222222222221</v>
+      </c>
+      <c r="D50">
+        <v>0</v>
+      </c>
+      <c r="E50">
+        <v>1</v>
+      </c>
+      <c r="F50">
+        <v>0.375</v>
+      </c>
+      <c r="G50">
+        <v>0.54545454545454541</v>
+      </c>
+      <c r="H50">
+        <v>0</v>
+      </c>
+      <c r="I50">
+        <v>26</v>
+      </c>
+      <c r="J50">
+        <v>0.31993686343452588</v>
+      </c>
+      <c r="K50">
+        <v>3.7736412467871183E-2</v>
+      </c>
+      <c r="L50">
+        <v>1.4579553161954629E-110</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <v>0.14285714285714279</v>
+      </c>
+      <c r="B51">
+        <v>0.16666666666666671</v>
+      </c>
+      <c r="C51">
+        <v>0.1538461538461538</v>
+      </c>
+      <c r="D51">
+        <v>0</v>
+      </c>
+      <c r="E51">
+        <v>0.22222222222222221</v>
+      </c>
+      <c r="F51">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="G51">
+        <v>0.26666666666666672</v>
+      </c>
+      <c r="H51">
+        <v>0</v>
+      </c>
+      <c r="I51">
+        <v>26</v>
+      </c>
+      <c r="J51">
+        <v>0.14745497607819091</v>
+      </c>
+      <c r="K51">
+        <v>2.117752500923541E-2</v>
+      </c>
+      <c r="L51">
+        <v>1.4579553161954629E-110</v>
+      </c>
+    </row>
+    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <v>1</v>
+      </c>
+      <c r="B52">
+        <v>0.1111111111111111</v>
+      </c>
+      <c r="C52">
+        <v>0.2</v>
+      </c>
+      <c r="D52">
+        <v>0</v>
+      </c>
+      <c r="E52">
+        <v>1</v>
+      </c>
+      <c r="F52">
+        <v>0.16666666666666671</v>
+      </c>
+      <c r="G52">
+        <v>0.2857142857142857</v>
+      </c>
+      <c r="H52">
+        <v>0</v>
+      </c>
+      <c r="I52">
+        <v>26</v>
+      </c>
+      <c r="J52">
+        <v>0.2347897309252317</v>
+      </c>
+      <c r="K52">
+        <v>1.139723704435155E-3</v>
+      </c>
+      <c r="L52">
+        <v>1.4579553161954629E-110</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A53">
+        <v>1</v>
+      </c>
+      <c r="B53">
+        <v>0.2857142857142857</v>
+      </c>
+      <c r="C53">
+        <v>0.44444444444444448</v>
+      </c>
+      <c r="D53">
+        <v>0</v>
+      </c>
+      <c r="E53">
+        <v>1</v>
+      </c>
+      <c r="F53">
+        <v>0.5</v>
+      </c>
+      <c r="G53">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="H53">
+        <v>0</v>
+      </c>
+      <c r="I53">
+        <v>25</v>
+      </c>
+      <c r="J53">
+        <v>0.3303279257375929</v>
+      </c>
+      <c r="K53">
+        <v>1.230038294544438E-4</v>
+      </c>
+      <c r="L53">
+        <v>1.4579553161954629E-110</v>
+      </c>
+    </row>
+    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A54">
+        <v>1</v>
+      </c>
+      <c r="B54">
+        <v>0.46666666666666667</v>
+      </c>
+      <c r="C54">
+        <v>0.63636363636363635</v>
+      </c>
+      <c r="D54">
+        <v>0</v>
+      </c>
+      <c r="E54">
+        <v>1</v>
+      </c>
+      <c r="F54">
+        <v>0.6</v>
+      </c>
+      <c r="G54">
+        <v>0.74999999999999989</v>
+      </c>
+      <c r="H54">
+        <v>0</v>
+      </c>
+      <c r="I54">
+        <v>26</v>
+      </c>
+      <c r="J54">
+        <v>0.44126895586228843</v>
+      </c>
+      <c r="K54">
+        <v>1.2260085753286679E-4</v>
+      </c>
+      <c r="L54">
+        <v>1.4579553161954629E-110</v>
+      </c>
+    </row>
+    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A55">
+        <v>1</v>
+      </c>
+      <c r="B55">
+        <v>0.2142857142857143</v>
+      </c>
+      <c r="C55">
+        <v>0.35294117647058831</v>
+      </c>
+      <c r="D55">
+        <v>0</v>
+      </c>
+      <c r="E55">
+        <v>1</v>
+      </c>
+      <c r="F55">
+        <v>0.35714285714285721</v>
+      </c>
+      <c r="G55">
+        <v>0.52631578947368418</v>
+      </c>
+      <c r="H55">
+        <v>0</v>
+      </c>
+      <c r="I55">
+        <v>26</v>
+      </c>
+      <c r="J55">
+        <v>9.0394869805224459E-2</v>
+      </c>
+      <c r="K55">
+        <v>1.370514187467069E-5</v>
+      </c>
+      <c r="L55">
+        <v>1.4579553161954629E-110</v>
+      </c>
+    </row>
+    <row r="56" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A56">
+        <v>1</v>
+      </c>
+      <c r="B56">
+        <v>0.25</v>
+      </c>
+      <c r="C56">
+        <v>0.4</v>
+      </c>
+      <c r="D56">
+        <v>0</v>
+      </c>
+      <c r="E56">
+        <v>0.22222222222222221</v>
+      </c>
+      <c r="F56">
+        <v>0.5</v>
+      </c>
+      <c r="G56">
+        <v>0.30769230769230771</v>
+      </c>
+      <c r="H56">
+        <v>0</v>
+      </c>
+      <c r="I56">
+        <v>26</v>
+      </c>
+      <c r="J56">
+        <v>0.16288469172088171</v>
+      </c>
+      <c r="K56">
+        <v>0.24694105992444471</v>
+      </c>
+      <c r="L56">
+        <v>1.4579553161954629E-110</v>
+      </c>
+    </row>
+    <row r="57" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A57">
+        <v>0</v>
+      </c>
+      <c r="B57">
+        <v>0</v>
+      </c>
+      <c r="C57">
+        <v>0</v>
+      </c>
+      <c r="D57">
+        <v>0</v>
+      </c>
+      <c r="E57">
+        <v>0.22222222222222221</v>
+      </c>
+      <c r="F57">
+        <v>0.4</v>
+      </c>
+      <c r="G57">
+        <v>0.2857142857142857</v>
+      </c>
+      <c r="H57">
+        <v>0</v>
+      </c>
+      <c r="I57">
+        <v>26</v>
+      </c>
+      <c r="J57">
+        <v>0.1006210719481123</v>
+      </c>
+      <c r="K57">
+        <v>2.5411773301436329E-2</v>
+      </c>
+      <c r="L57">
+        <v>1.4579553161954629E-110</v>
+      </c>
+    </row>
+    <row r="58" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A58">
+        <v>1</v>
+      </c>
+      <c r="B58">
+        <v>0.26666666666666672</v>
+      </c>
+      <c r="C58">
+        <v>0.4210526315789474</v>
+      </c>
+      <c r="D58">
+        <v>0</v>
+      </c>
+      <c r="E58">
+        <v>1</v>
+      </c>
+      <c r="F58">
+        <v>0.53333333333333333</v>
+      </c>
+      <c r="G58">
+        <v>0.69565217391304357</v>
+      </c>
+      <c r="H58">
+        <v>0</v>
+      </c>
+      <c r="I58">
+        <v>26</v>
+      </c>
+      <c r="J58">
+        <v>0.23543938285545499</v>
+      </c>
+      <c r="K58">
+        <v>0.20149451256014189</v>
+      </c>
+      <c r="L58">
+        <v>1.4579553161954629E-110</v>
+      </c>
+    </row>
+    <row r="59" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A59">
+        <v>0.25</v>
+      </c>
+      <c r="B59">
+        <v>0.4</v>
+      </c>
+      <c r="C59">
+        <v>0.30769230769230771</v>
+      </c>
+      <c r="D59">
+        <v>0</v>
+      </c>
+      <c r="E59">
+        <v>0.2</v>
+      </c>
+      <c r="F59">
+        <v>0.4</v>
+      </c>
+      <c r="G59">
+        <v>0.26666666666666672</v>
+      </c>
+      <c r="H59">
+        <v>0</v>
+      </c>
+      <c r="I59">
+        <v>26</v>
+      </c>
+      <c r="J59">
+        <v>0.18219328284459341</v>
+      </c>
+      <c r="K59">
+        <v>0.1130599296157629</v>
+      </c>
+      <c r="L59">
+        <v>1.4579553161954629E-110</v>
+      </c>
+    </row>
+    <row r="60" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A60">
+        <v>1</v>
+      </c>
+      <c r="B60">
+        <v>0.35714285714285721</v>
+      </c>
+      <c r="C60">
+        <v>0.52631578947368418</v>
+      </c>
+      <c r="D60">
+        <v>0</v>
+      </c>
+      <c r="E60">
+        <v>1</v>
+      </c>
+      <c r="F60">
+        <v>0.42857142857142849</v>
+      </c>
+      <c r="G60">
+        <v>0.6</v>
+      </c>
+      <c r="H60">
+        <v>0</v>
+      </c>
+      <c r="I60">
+        <v>27</v>
+      </c>
+      <c r="J60">
+        <v>8.1557533601713916E-2</v>
+      </c>
+      <c r="K60">
+        <v>3.311914199101091E-2</v>
+      </c>
+      <c r="L60">
+        <v>1.4579553161954629E-110</v>
+      </c>
+    </row>
+    <row r="61" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A61">
+        <v>1</v>
+      </c>
+      <c r="B61">
+        <v>0.45454545454545447</v>
+      </c>
+      <c r="C61">
+        <v>0.625</v>
+      </c>
+      <c r="D61">
+        <v>0</v>
+      </c>
+      <c r="E61">
+        <v>1</v>
+      </c>
+      <c r="F61">
+        <v>0.45454545454545447</v>
+      </c>
+      <c r="G61">
+        <v>0.625</v>
+      </c>
+      <c r="H61">
+        <v>0</v>
+      </c>
+      <c r="I61">
+        <v>26</v>
+      </c>
+      <c r="J61">
+        <v>8.6217573604854599E-3</v>
+      </c>
+      <c r="K61">
+        <v>8.2042236092914773E-7</v>
+      </c>
+      <c r="L61">
+        <v>1.4579553161954629E-110</v>
+      </c>
+    </row>
+    <row r="62" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A62">
+        <v>1</v>
+      </c>
+      <c r="B62">
+        <v>0.19047619047619049</v>
+      </c>
+      <c r="C62">
+        <v>0.32</v>
+      </c>
+      <c r="D62">
+        <v>0</v>
+      </c>
+      <c r="E62">
+        <v>1</v>
+      </c>
+      <c r="F62">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="G62">
+        <v>0.5</v>
+      </c>
+      <c r="H62">
+        <v>0</v>
+      </c>
+      <c r="I62">
+        <v>26</v>
+      </c>
+      <c r="J62">
+        <v>-0.13745030232952071</v>
+      </c>
+      <c r="K62">
+        <v>1.536503347372822E-3</v>
+      </c>
+      <c r="L62">
+        <v>1.4579553161954629E-110</v>
+      </c>
+    </row>
+    <row r="63" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A63">
+        <v>0.22222222222222221</v>
+      </c>
+      <c r="B63">
+        <v>0.4</v>
+      </c>
+      <c r="C63">
+        <v>0.2857142857142857</v>
+      </c>
+      <c r="D63">
+        <v>0</v>
+      </c>
+      <c r="E63">
+        <v>0.27272727272727271</v>
+      </c>
+      <c r="F63">
+        <v>0.6</v>
+      </c>
+      <c r="G63">
+        <v>0.37499999999999989</v>
+      </c>
+      <c r="H63">
+        <v>0</v>
+      </c>
+      <c r="I63">
+        <v>26</v>
+      </c>
+      <c r="J63">
+        <v>0.1102682459211486</v>
+      </c>
+      <c r="K63">
+        <v>0.81108918144996811</v>
+      </c>
+      <c r="L63">
+        <v>1.4579553161954629E-110</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A65">
+        <f>AVERAGE(A2:A63)</f>
+        <v>0.82072452636968773</v>
+      </c>
+      <c r="B65">
+        <f t="shared" ref="B65:K65" si="0">AVERAGE(B2:B63)</f>
+        <v>0.23859762578062599</v>
+      </c>
+      <c r="C65">
+        <f t="shared" si="0"/>
+        <v>0.33927347320418555</v>
+      </c>
+      <c r="D65">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E65">
+        <f t="shared" si="0"/>
+        <v>0.7800196667132151</v>
+      </c>
+      <c r="F65">
+        <f t="shared" si="0"/>
+        <v>0.387625842721878</v>
+      </c>
+      <c r="G65">
+        <f t="shared" si="0"/>
+        <v>0.47636573872956806</v>
+      </c>
+      <c r="H65">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I65">
+        <f t="shared" si="0"/>
+        <v>25.370967741935484</v>
+      </c>
+      <c r="J65">
+        <f t="shared" si="0"/>
+        <v>7.3177087553424086E-2</v>
+      </c>
+      <c r="K65">
+        <f t="shared" si="0"/>
+        <v>0.14771595126963269</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A66">
+        <f>_xlfn.STDEV.P(A2:A63)</f>
+        <v>0.33954323057117231</v>
+      </c>
+      <c r="B66">
+        <f t="shared" ref="B66:K66" si="1">_xlfn.STDEV.P(B2:B63)</f>
+        <v>0.12434365093227932</v>
+      </c>
+      <c r="C66">
+        <f t="shared" si="1"/>
+        <v>0.16129757618930363</v>
+      </c>
+      <c r="D66">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E66">
+        <f t="shared" si="1"/>
+        <v>0.32880287995056562</v>
+      </c>
+      <c r="F66">
+        <f t="shared" si="1"/>
+        <v>0.15470805549578256</v>
+      </c>
+      <c r="G66">
+        <f t="shared" si="1"/>
+        <v>0.18242921157990724</v>
+      </c>
+      <c r="H66">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I66">
+        <f t="shared" si="1"/>
+        <v>3.423042746464132</v>
+      </c>
+      <c r="J66">
+        <f t="shared" si="1"/>
+        <v>0.21155357282798881</v>
+      </c>
+      <c r="K66">
+        <f t="shared" si="1"/>
+        <v>0.23094075746201342</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0FB6216-5706-458E-AC5B-3064917A89CE}">
+  <dimension ref="A1:A373"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A347" workbookViewId="0">
+      <selection activeCell="A374" sqref="A374"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>0.90751633986928104</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>0.84588159588159595</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>0.87037037037037035</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>0.85043532338308458</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>0.82947368421052625</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>0.89454209065679924</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>0.77564102564102566</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>0.81867283950617276</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>0.86923076923076925</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>0.87370600414078681</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>0.87842292089249496</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>0.84962835906232137</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>0.80303030303030298</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>0.98333333333333328</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>0.93388888888888888</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>0.94457516339869274</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>0.93518518518518523</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>0.76006355932203395</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>0.93540945790080743</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>0.88392050587172544</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>0.92105263157894735</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>0.83221821924858475</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>0.84222222222222221</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>0.9325714285714285</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>0.91843971631205679</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>0.92587312900926588</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>0.91145833333333337</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>0.91375968992248058</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>0.88580246913580241</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>0.84901960784313724</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>0.89678178963893251</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>0.92972972972972978</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>0.96470588235294119</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>0.97866419294990725</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>0.85278745644599296</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>0.92962962962962969</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>0.9448680351906158</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>0.93872053872053873</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>0.85555555555555551</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>0.86070686070686064</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>0.78276269185360092</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>0.90697674418604657</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>0.89837398373983735</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>0.83444444444444443</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>0.89078674948240177</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <v>0.8198661863098301</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <v>0.92757475083056484</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A53">
+        <v>0.9526864474739376</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A54">
+        <v>0.99216300940438873</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A55">
+        <v>0.94749034749034755</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A56">
+        <v>0.99939024390243902</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A57">
+        <v>0.73794549266247378</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A58">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A59">
+        <v>0.97460317460317458</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A60">
+        <v>0.96235521235521237</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A61">
+        <v>0.96857142857142853</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A62">
+        <v>0.95596432552954291</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A63">
+        <v>0.88153310104529625</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A64">
+        <v>0.84105603448275867</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A65">
+        <v>0.8606701940035274</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A66">
+        <v>0.87409090909090903</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A67">
+        <v>0.82203638497652576</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A68">
+        <v>0.9205426356589147</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A69">
+        <v>0.95714285714285718</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A70">
+        <v>0.80278232405891981</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A71">
+        <v>0.97438975590236088</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A72">
+        <v>0.91919191919191923</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A73">
+        <v>0.6785714285714286</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A74">
+        <v>0.86111111111111116</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A75">
+        <v>0.94896331738437012</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A76">
+        <v>0.98944193061840113</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A77">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A78">
+        <v>0.76536731634182908</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A79">
+        <v>0.76139162561576357</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A80">
+        <v>0.96892497200447936</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A81">
+        <v>0.98085106382978726</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A82">
+        <v>0.96278887583235406</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A83">
+        <v>0.86399897066392173</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A84">
+        <v>0.92503748125937035</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A85">
+        <v>0.98273910582908885</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A86">
+        <v>0.97085610200364292</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A87">
+        <v>0.99431818181818188</v>
+      </c>
+    </row>
+    <row r="88" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A88">
+        <v>0.9905325443786982</v>
+      </c>
+    </row>
+    <row r="89" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A89">
+        <v>0.96005917159763321</v>
+      </c>
+    </row>
+    <row r="90" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A90">
+        <v>0.97675736961451243</v>
+      </c>
+    </row>
+    <row r="91" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A91">
+        <v>0.88749999999999996</v>
+      </c>
+    </row>
+    <row r="92" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A92">
+        <v>0.8153067678684377</v>
+      </c>
+    </row>
+    <row r="93" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A93">
+        <v>0.85238095238095246</v>
+      </c>
+    </row>
+    <row r="94" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A94">
+        <v>0.93478260869565233</v>
+      </c>
+    </row>
+    <row r="95" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A95">
+        <v>0.75761648745519716</v>
+      </c>
+    </row>
+    <row r="96" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A96">
+        <v>0.71125098347757676</v>
+      </c>
+    </row>
+    <row r="97" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A97">
+        <v>0.95725958516656195</v>
+      </c>
+    </row>
+    <row r="98" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A98">
+        <v>0.8059370846256092</v>
+      </c>
+    </row>
+    <row r="99" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A99">
+        <v>0.96298472385428902</v>
+      </c>
+    </row>
+    <row r="100" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A100">
+        <v>0.98648648648648662</v>
+      </c>
+    </row>
+    <row r="101" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A101">
+        <v>0.87771836007130133</v>
+      </c>
+    </row>
+    <row r="102" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A102">
+        <v>0.93055555555555558</v>
+      </c>
+    </row>
+    <row r="103" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A103">
+        <v>0.84740691489361708</v>
+      </c>
+    </row>
+    <row r="104" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A104">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="105" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A105">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="106" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A106">
+        <v>0.9670719351570416</v>
+      </c>
+    </row>
+    <row r="107" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A107">
+        <v>0.99587231700605383</v>
+      </c>
+    </row>
+    <row r="108" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A108">
+        <v>0.98529411764705876</v>
+      </c>
+    </row>
+    <row r="109" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A109">
+        <v>0.81414473684210531</v>
+      </c>
+    </row>
+    <row r="110" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A110">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="111" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A111">
+        <v>0.95186335403726707</v>
+      </c>
+    </row>
+    <row r="112" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A112">
+        <v>0.93280632411067188</v>
+      </c>
+    </row>
+    <row r="113" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A113">
+        <v>0.98682170542635661</v>
+      </c>
+    </row>
+    <row r="114" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A114">
+        <v>0.88454545454545452</v>
+      </c>
+    </row>
+    <row r="115" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A115">
+        <v>0.88064236111111105</v>
+      </c>
+    </row>
+    <row r="116" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A116">
+        <v>0.90562036055143158</v>
+      </c>
+    </row>
+    <row r="117" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A117">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="118" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A118">
+        <v>0.92264344262295084</v>
+      </c>
+    </row>
+    <row r="119" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A119">
+        <v>0.94279661016949146</v>
+      </c>
+    </row>
+    <row r="120" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A120">
+        <v>0.93018018018018012</v>
+      </c>
+    </row>
+    <row r="121" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A121">
+        <v>0.93561208267090623</v>
+      </c>
+    </row>
+    <row r="122" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A122">
+        <v>0.93085106382978733</v>
+      </c>
+    </row>
+    <row r="123" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A123">
+        <v>0.84496124031007747</v>
+      </c>
+    </row>
+    <row r="124" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A124">
+        <v>0.96011904761904754</v>
+      </c>
+    </row>
+    <row r="125" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A125">
+        <v>0.92754662840746049</v>
+      </c>
+    </row>
+    <row r="126" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A126">
+        <v>0.93311111111111111</v>
+      </c>
+    </row>
+    <row r="127" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A127">
+        <v>0.8924603174603174</v>
+      </c>
+    </row>
+    <row r="128" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A128">
+        <v>0.96094802046862371</v>
+      </c>
+    </row>
+    <row r="129" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A129">
+        <v>0.91631355932203395</v>
+      </c>
+    </row>
+    <row r="130" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A130">
+        <v>0.87554996857322442</v>
+      </c>
+    </row>
+    <row r="131" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A131">
+        <v>0.88352685050798252</v>
+      </c>
+    </row>
+    <row r="132" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A132">
+        <v>0.91070124178232292</v>
+      </c>
+    </row>
+    <row r="133" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A133">
+        <v>0.81944444444444442</v>
+      </c>
+    </row>
+    <row r="134" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A134">
+        <v>0.90159574468085102</v>
+      </c>
+    </row>
+    <row r="135" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A135">
+        <v>0.97947454844006576</v>
+      </c>
+    </row>
+    <row r="136" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A136">
+        <v>0.93757503001200482</v>
+      </c>
+    </row>
+    <row r="137" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A137">
+        <v>0.92631578947368409</v>
+      </c>
+    </row>
+    <row r="138" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A138">
+        <v>0.91352657004830917</v>
+      </c>
+    </row>
+    <row r="139" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A139">
+        <v>0.92342342342342343</v>
+      </c>
+    </row>
+    <row r="140" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A140">
+        <v>0.72429210134128175</v>
+      </c>
+    </row>
+    <row r="141" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A141">
+        <v>0.89330469029717152</v>
+      </c>
+    </row>
+    <row r="142" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A142">
+        <v>0.67632850241545894</v>
+      </c>
+    </row>
+    <row r="143" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A143">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="144" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A144">
+        <v>0.28409090909090912</v>
+      </c>
+    </row>
+    <row r="145" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A145">
+        <v>0.88616557734204793</v>
+      </c>
+    </row>
+    <row r="146" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A146">
+        <v>0.95123384253819032</v>
+      </c>
+    </row>
+    <row r="147" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A147">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="148" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A148">
+        <v>0.91888619854721543</v>
+      </c>
+    </row>
+    <row r="149" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A149">
+        <v>0.43076923076923079</v>
+      </c>
+    </row>
+    <row r="150" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A150">
+        <v>0.78190559440559437</v>
+      </c>
+    </row>
+    <row r="151" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A151">
+        <v>0.9916666666666667</v>
+      </c>
+    </row>
+    <row r="152" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A152">
+        <v>0.93577163247100803</v>
+      </c>
+    </row>
+    <row r="153" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A153">
+        <v>0.89665096807953948</v>
+      </c>
+    </row>
+    <row r="154" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A154">
+        <v>0.89091831557584977</v>
+      </c>
+    </row>
+    <row r="155" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A155">
+        <v>0.93023255813953487</v>
+      </c>
+    </row>
+    <row r="156" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A156">
+        <v>0.93214285714285716</v>
+      </c>
+    </row>
+    <row r="157" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A157">
+        <v>0.83703703703703702</v>
+      </c>
+    </row>
+    <row r="158" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A158">
+        <v>0.65079365079365081</v>
+      </c>
+    </row>
+    <row r="159" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A159">
+        <v>0.96180555555555558</v>
+      </c>
+    </row>
+    <row r="160" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A160">
+        <v>0.90415140415140427</v>
+      </c>
+    </row>
+    <row r="161" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A161">
+        <v>0.93498168498168499</v>
+      </c>
+    </row>
+    <row r="162" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A162">
+        <v>0.85066666666666668</v>
+      </c>
+    </row>
+    <row r="163" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A163">
+        <v>0.96726677577741405</v>
+      </c>
+    </row>
+    <row r="164" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A164">
+        <v>0.95604395604395609</v>
+      </c>
+    </row>
+    <row r="165" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A165">
+        <v>0.90769779044903776</v>
+      </c>
+    </row>
+    <row r="166" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A166">
+        <v>0.90995762711864403</v>
+      </c>
+    </row>
+    <row r="167" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A167">
+        <v>0.94727891156462585</v>
+      </c>
+    </row>
+    <row r="168" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A168">
+        <v>0.89200000000000002</v>
+      </c>
+    </row>
+    <row r="169" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A169">
+        <v>0.85160734787600467</v>
+      </c>
+    </row>
+    <row r="170" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A170">
+        <v>0.87935323383084585</v>
+      </c>
+    </row>
+    <row r="171" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A171">
+        <v>0.95499999999999996</v>
+      </c>
+    </row>
+    <row r="172" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A172">
+        <v>0.81598240469208216</v>
+      </c>
+    </row>
+    <row r="173" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A173">
+        <v>0.8851351351351352</v>
+      </c>
+    </row>
+    <row r="174" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A174">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="175" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A175">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="176" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A176">
+        <v>0.97912087912087908</v>
+      </c>
+    </row>
+    <row r="177" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A177">
+        <v>0.9814814814814814</v>
+      </c>
+    </row>
+    <row r="178" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A178">
+        <v>0.97017268445839877</v>
+      </c>
+    </row>
+    <row r="179" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A179">
+        <v>0.9118131868131869</v>
+      </c>
+    </row>
+    <row r="180" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A180">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="181" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A181">
+        <v>0.989247311827957</v>
+      </c>
+    </row>
+    <row r="182" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A182">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="183" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A183">
+        <v>0.94496124031007744</v>
+      </c>
+    </row>
+    <row r="184" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A184">
+        <v>0.93454790823211875</v>
+      </c>
+    </row>
+    <row r="185" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A185">
+        <v>0.99764705882352933</v>
+      </c>
+    </row>
+    <row r="186" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A186">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="187" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A187">
+        <v>0.90514905149051483</v>
+      </c>
+    </row>
+    <row r="188" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A188">
+        <v>0.82407407407407396</v>
+      </c>
+    </row>
+    <row r="189" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A189">
+        <v>0.85300462249614795</v>
+      </c>
+    </row>
+    <row r="190" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A190">
+        <v>0.9818481848184818</v>
+      </c>
+    </row>
+    <row r="191" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A191">
+        <v>0.87058823529411766</v>
+      </c>
+    </row>
+    <row r="192" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A192">
+        <v>0.95454545454545447</v>
+      </c>
+    </row>
+    <row r="193" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A193">
+        <v>0.79458519622454049</v>
+      </c>
+    </row>
+    <row r="194" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A194">
+        <v>0.93095679830373701</v>
+      </c>
+    </row>
+    <row r="195" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A195">
+        <v>0.99285714285714288</v>
+      </c>
+    </row>
+    <row r="196" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A196">
+        <v>0.97751322751322756</v>
+      </c>
+    </row>
+    <row r="197" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A197">
+        <v>0.81902985074626866</v>
+      </c>
+    </row>
+    <row r="198" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A198">
+        <v>0.97289972899728994</v>
+      </c>
+    </row>
+    <row r="199" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A199">
+        <v>0.93082663605051663</v>
+      </c>
+    </row>
+    <row r="200" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A200">
+        <v>0.8271604938271605</v>
+      </c>
+    </row>
+    <row r="201" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A201">
+        <v>0.97018633540372667</v>
+      </c>
+    </row>
+    <row r="202" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A202">
+        <v>0.94062078272604599</v>
+      </c>
+    </row>
+    <row r="203" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A203">
+        <v>0.92245989304812837</v>
+      </c>
+    </row>
+    <row r="204" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A204">
+        <v>0.75334403424291063</v>
+      </c>
+    </row>
+    <row r="205" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A205">
+        <v>0.94574551131928175</v>
+      </c>
+    </row>
+    <row r="206" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A206">
+        <v>0.87749287749287752</v>
+      </c>
+    </row>
+    <row r="207" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A207">
+        <v>0.70774999999999999</v>
+      </c>
+    </row>
+    <row r="208" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A208">
+        <v>0.97799564270152506</v>
+      </c>
+    </row>
+    <row r="209" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A209">
+        <v>0.88026607538802659</v>
+      </c>
+    </row>
+    <row r="210" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A210">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="211" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A211">
+        <v>0.98194014447884415</v>
+      </c>
+    </row>
+    <row r="212" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A212">
+        <v>0.96054421768707487</v>
+      </c>
+    </row>
+    <row r="213" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A213">
+        <v>0.9731182795698925</v>
+      </c>
+    </row>
+    <row r="214" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A214">
+        <v>0.89598278335724535</v>
+      </c>
+    </row>
+    <row r="215" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A215">
+        <v>0.97465437788018439</v>
+      </c>
+    </row>
+    <row r="216" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A216">
+        <v>0.9965986394557822</v>
+      </c>
+    </row>
+    <row r="217" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A217">
+        <v>0.82324524012503553</v>
+      </c>
+    </row>
+    <row r="218" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A218">
+        <v>0.92666666666666664</v>
+      </c>
+    </row>
+    <row r="219" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A219">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="220" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A220">
+        <v>0.93576876756322758</v>
+      </c>
+    </row>
+    <row r="221" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A221">
+        <v>0.91005291005291011</v>
+      </c>
+    </row>
+    <row r="222" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A222">
+        <v>0.95121951219512202</v>
+      </c>
+    </row>
+    <row r="223" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A223">
+        <v>0.87176079734219269</v>
+      </c>
+    </row>
+    <row r="224" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A224">
+        <v>0.90701298701298705</v>
+      </c>
+    </row>
+    <row r="225" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A225">
+        <v>0.84051724137931028</v>
+      </c>
+    </row>
+    <row r="226" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A226">
+        <v>0.86301750486246176</v>
+      </c>
+    </row>
+    <row r="227" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A227">
+        <v>0.93671679197994984</v>
+      </c>
+    </row>
+    <row r="228" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A228">
+        <v>0.94047619047619047</v>
+      </c>
+    </row>
+    <row r="229" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A229">
+        <v>0.90512820512820524</v>
+      </c>
+    </row>
+    <row r="230" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A230">
+        <v>0.55998509687034281</v>
+      </c>
+    </row>
+    <row r="231" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A231">
+        <v>0.91516913319238902</v>
+      </c>
+    </row>
+    <row r="232" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A232">
+        <v>0.89263157894736844</v>
+      </c>
+    </row>
+    <row r="233" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A233">
+        <v>0.87906273620559339</v>
+      </c>
+    </row>
+    <row r="234" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A234">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="235" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A235">
+        <v>0.95911295911295913</v>
+      </c>
+    </row>
+    <row r="236" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A236">
+        <v>0.97117117117117124</v>
+      </c>
+    </row>
+    <row r="237" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A237">
+        <v>0.74350495984884268</v>
+      </c>
+    </row>
+    <row r="238" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A238">
+        <v>0.97017543859649125</v>
+      </c>
+    </row>
+    <row r="239" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A239">
+        <v>0.91397392290249435</v>
+      </c>
+    </row>
+    <row r="240" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A240">
+        <v>0.93714285714285717</v>
+      </c>
+    </row>
+    <row r="241" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A241">
+        <v>0.96983029541169075</v>
+      </c>
+    </row>
+    <row r="242" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A242">
+        <v>0.95234567901234568</v>
+      </c>
+    </row>
+    <row r="243" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A243">
+        <v>0.79774705581157201</v>
+      </c>
+    </row>
+    <row r="244" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A244">
+        <v>0.95454545454545459</v>
+      </c>
+    </row>
+    <row r="245" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A245">
+        <v>0.94505494505494503</v>
+      </c>
+    </row>
+    <row r="246" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A246">
+        <v>0.92307692307692313</v>
+      </c>
+    </row>
+    <row r="247" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A247">
+        <v>0.95057915057915054</v>
+      </c>
+    </row>
+    <row r="248" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A248">
+        <v>0.88278388278388287</v>
+      </c>
+    </row>
+    <row r="249" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A249">
+        <v>0.80716586151368741</v>
+      </c>
+    </row>
+    <row r="250" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A250">
+        <v>0.79709821428571426</v>
+      </c>
+    </row>
+    <row r="251" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A251">
+        <v>0.99275362318840576</v>
+      </c>
+    </row>
+    <row r="252" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A252">
+        <v>0.8813628899835797</v>
+      </c>
+    </row>
+    <row r="253" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A253">
+        <v>0.79441760601180877</v>
+      </c>
+    </row>
+    <row r="254" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A254">
+        <v>0.71208483393357336</v>
+      </c>
+    </row>
+    <row r="255" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A255">
+        <v>0.96339869281045742</v>
+      </c>
+    </row>
+    <row r="256" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A256">
+        <v>0.83668582375478928</v>
+      </c>
+    </row>
+    <row r="257" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A257">
+        <v>0.94012864918357253</v>
+      </c>
+    </row>
+    <row r="258" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A258">
+        <v>0.8568638392857143</v>
+      </c>
+    </row>
+    <row r="259" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A259">
+        <v>0.93108931884442092</v>
+      </c>
+    </row>
+    <row r="260" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A260">
+        <v>0.9431884057971015</v>
+      </c>
+    </row>
+    <row r="261" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A261">
+        <v>0.93279999999999996</v>
+      </c>
+    </row>
+    <row r="262" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A262">
+        <v>0.90728900255754474</v>
+      </c>
+    </row>
+    <row r="263" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A263">
+        <v>0.83694083694083699</v>
+      </c>
+    </row>
+    <row r="264" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A264">
+        <v>0.98268698060941828</v>
+      </c>
+    </row>
+    <row r="265" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A265">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="266" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A266">
+        <v>0.8928571428571429</v>
+      </c>
+    </row>
+    <row r="267" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A267">
+        <v>0.95639534883720934</v>
+      </c>
+    </row>
+    <row r="268" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A268">
+        <v>0.96736596736596736</v>
+      </c>
+    </row>
+    <row r="269" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A269">
+        <v>0.85258358662613976</v>
+      </c>
+    </row>
+    <row r="270" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A270">
+        <v>0.99487179487179489</v>
+      </c>
+    </row>
+    <row r="271" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A271">
+        <v>0.94839015151515138</v>
+      </c>
+    </row>
+    <row r="272" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A272">
+        <v>0.86101499423298733</v>
+      </c>
+    </row>
+    <row r="273" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A273">
+        <v>0.81481481481481488</v>
+      </c>
+    </row>
+    <row r="274" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A274">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="275" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A275">
+        <v>0.82200000000000006</v>
+      </c>
+    </row>
+    <row r="276" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A276">
+        <v>0.77450980392156854</v>
+      </c>
+    </row>
+    <row r="277" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A277">
+        <v>0.93242521367521358</v>
+      </c>
+    </row>
+    <row r="278" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A278">
+        <v>0.94191780821917803</v>
+      </c>
+    </row>
+    <row r="279" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A279">
+        <v>0.88725490196078416</v>
+      </c>
+    </row>
+    <row r="280" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A280">
+        <v>0.92774822695035464</v>
+      </c>
+    </row>
+    <row r="281" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A281">
+        <v>0.83223443223443228</v>
+      </c>
+    </row>
+    <row r="282" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A282">
+        <v>0.87804878048780499</v>
+      </c>
+    </row>
+    <row r="283" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A283">
+        <v>0.77828513444951797</v>
+      </c>
+    </row>
+    <row r="284" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A284">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="285" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A285">
+        <v>0.90611664295874828</v>
+      </c>
+    </row>
+    <row r="286" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A286">
+        <v>0.97379032258064513</v>
+      </c>
+    </row>
+    <row r="287" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A287">
+        <v>0.90846153846153843</v>
+      </c>
+    </row>
+    <row r="288" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A288">
+        <v>0.84387755102040829</v>
+      </c>
+    </row>
+    <row r="289" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A289">
+        <v>0.9910714285714286</v>
+      </c>
+    </row>
+    <row r="290" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A290">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="291" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A291">
+        <v>0.9168421052631579</v>
+      </c>
+    </row>
+    <row r="292" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A292">
+        <v>0.86989795918367352</v>
+      </c>
+    </row>
+    <row r="293" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A293">
+        <v>0.83564814814814814</v>
+      </c>
+    </row>
+    <row r="294" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A294">
+        <v>0.78232758620689657</v>
+      </c>
+    </row>
+    <row r="295" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A295">
+        <v>0.7433333333333334</v>
+      </c>
+    </row>
+    <row r="296" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A296">
+        <v>0.99319727891156462</v>
+      </c>
+    </row>
+    <row r="297" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A297">
+        <v>0.88404133180252586</v>
+      </c>
+    </row>
+    <row r="298" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A298">
+        <v>0.84043632673769653</v>
+      </c>
+    </row>
+    <row r="299" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A299">
+        <v>0.81896551724137934</v>
+      </c>
+    </row>
+    <row r="300" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A300">
+        <v>0.70263157894736838</v>
+      </c>
+    </row>
+    <row r="301" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A301">
+        <v>0.97637390857729844</v>
+      </c>
+    </row>
+    <row r="302" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A302">
+        <v>0.98444444444444446</v>
+      </c>
+    </row>
+    <row r="303" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A303">
+        <v>0.95223130106851039</v>
+      </c>
+    </row>
+    <row r="304" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A304">
+        <v>0.94548872180451138</v>
+      </c>
+    </row>
+    <row r="305" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A305">
+        <v>0.85337650323774283</v>
+      </c>
+    </row>
+    <row r="306" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A306">
+        <v>0.86332417582417575</v>
+      </c>
+    </row>
+    <row r="307" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A307">
+        <v>0.91999999999999993</v>
+      </c>
+    </row>
+    <row r="308" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A308">
+        <v>0.87855113636363635</v>
+      </c>
+    </row>
+    <row r="309" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A309">
+        <v>0.92060946271050514</v>
+      </c>
+    </row>
+    <row r="310" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A310">
+        <v>0.9737919737919738</v>
+      </c>
+    </row>
+    <row r="311" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A311">
+        <v>0.97728579643473268</v>
+      </c>
+    </row>
+    <row r="312" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A312">
+        <v>0.93076923076923068</v>
+      </c>
+    </row>
+    <row r="313" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A313">
+        <v>0.93522267206477738</v>
+      </c>
+    </row>
+    <row r="314" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A314">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="315" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A315">
+        <v>0.93304638928742234</v>
+      </c>
+    </row>
+    <row r="316" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A316">
+        <v>0.86700767263427103</v>
+      </c>
+    </row>
+    <row r="317" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A317">
+        <v>0.86775362318840576</v>
+      </c>
+    </row>
+    <row r="318" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A318">
+        <v>0.88198757763975166</v>
+      </c>
+    </row>
+    <row r="319" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A319">
+        <v>0.93459595959595965</v>
+      </c>
+    </row>
+    <row r="320" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A320">
+        <v>0.83578947368421053</v>
+      </c>
+    </row>
+    <row r="321" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A321">
+        <v>0.87175452399685283</v>
+      </c>
+    </row>
+    <row r="322" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A322">
+        <v>0.80295566502463056</v>
+      </c>
+    </row>
+    <row r="323" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A323">
+        <v>0.97228758169934648</v>
+      </c>
+    </row>
+    <row r="324" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A324">
+        <v>0.84652460679857944</v>
+      </c>
+    </row>
+    <row r="325" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A325">
+        <v>0.9507389162561577</v>
+      </c>
+    </row>
+    <row r="326" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A326">
+        <v>0.93648867313915851</v>
+      </c>
+    </row>
+    <row r="327" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A327">
+        <v>0.84717868338557989</v>
+      </c>
+    </row>
+    <row r="328" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A328">
+        <v>0.96684782608695652</v>
+      </c>
+    </row>
+    <row r="329" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A329">
+        <v>0.93146647015475315</v>
+      </c>
+    </row>
+    <row r="330" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A330">
+        <v>0.89050417568821538</v>
+      </c>
+    </row>
+    <row r="331" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A331">
+        <v>0.99924812030075194</v>
+      </c>
+    </row>
+    <row r="332" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A332">
+        <v>0.92558139534883721</v>
+      </c>
+    </row>
+    <row r="333" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A333">
+        <v>0.92513259893920852</v>
+      </c>
+    </row>
+    <row r="334" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A334">
+        <v>0.9503875968992247</v>
+      </c>
+    </row>
+    <row r="335" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A335">
+        <v>0.79333643988816405</v>
+      </c>
+    </row>
+    <row r="336" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A336">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="337" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A337">
+        <v>0.85985915492957732</v>
+      </c>
+    </row>
+    <row r="338" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A338">
+        <v>0.92140921409214094</v>
+      </c>
+    </row>
+    <row r="339" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A339">
+        <v>0.96587301587301588</v>
+      </c>
+    </row>
+    <row r="340" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A340">
+        <v>0.97970085470085477</v>
+      </c>
+    </row>
+    <row r="341" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A341">
+        <v>0.94175654853620949</v>
+      </c>
+    </row>
+    <row r="342" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A342">
+        <v>0.91666666666666663</v>
+      </c>
+    </row>
+    <row r="343" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A343">
+        <v>0.95111111111111102</v>
+      </c>
+    </row>
+    <row r="344" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A344">
+        <v>0.91980146290491127</v>
+      </c>
+    </row>
+    <row r="345" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A345">
+        <v>0.85660377358490569</v>
+      </c>
+    </row>
+    <row r="346" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A346">
+        <v>0.96678571428571425</v>
+      </c>
+    </row>
+    <row r="347" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A347">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="348" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A348">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="349" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A349">
+        <v>0.94612068965517238</v>
+      </c>
+    </row>
+    <row r="350" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A350">
+        <v>0.92553191489361697</v>
+      </c>
+    </row>
+    <row r="351" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A351">
+        <v>0.95709052851909993</v>
+      </c>
+    </row>
+    <row r="352" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A352">
+        <v>0.93094339622641509</v>
+      </c>
+    </row>
+    <row r="353" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A353">
+        <v>0.9636591478696741</v>
+      </c>
+    </row>
+    <row r="354" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A354">
+        <v>0.85431372549019624</v>
+      </c>
+    </row>
+    <row r="355" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A355">
+        <v>0.81625131625131619</v>
+      </c>
+    </row>
+    <row r="356" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A356">
+        <v>0.98550724637681164</v>
+      </c>
+    </row>
+    <row r="357" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A357">
+        <v>0.87063953488372103</v>
+      </c>
+    </row>
+    <row r="358" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A358">
+        <v>0.88863463005339438</v>
+      </c>
+    </row>
+    <row r="359" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A359">
+        <v>0.89192949907235619</v>
+      </c>
+    </row>
+    <row r="360" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A360">
+        <v>0.93055555555555558</v>
+      </c>
+    </row>
+    <row r="361" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A361">
+        <v>0.96901041666666665</v>
+      </c>
+    </row>
+    <row r="362" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A362">
+        <v>0.89197530864197516</v>
+      </c>
+    </row>
+    <row r="363" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A363">
+        <v>0.77118644067796605</v>
+      </c>
+    </row>
+    <row r="364" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A364">
+        <v>0.85468362282878418</v>
+      </c>
+    </row>
+    <row r="365" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A365">
+        <v>0.89345172031076581</v>
+      </c>
+    </row>
+    <row r="366" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A366">
+        <v>0.86537480877103512</v>
+      </c>
+    </row>
+    <row r="367" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A367">
+        <v>0.99272825208726101</v>
+      </c>
+    </row>
+    <row r="368" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A368">
+        <v>0.91583054626532889</v>
+      </c>
+    </row>
+    <row r="369" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A369">
+        <v>0.85027173913043474</v>
+      </c>
+    </row>
+    <row r="370" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A370">
+        <v>0.92481203007518797</v>
+      </c>
+    </row>
+    <row r="372" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A372">
+        <f>AVERAGE(A2:A370)</f>
+        <v>0.90509466663055949</v>
+      </c>
+    </row>
+    <row r="373" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A373">
+        <f>_xlfn.STDEV.P(A2:A370)</f>
+        <v>8.2855508016907053E-2</v>
       </c>
     </row>
   </sheetData>

--- a/analysis.xlsx
+++ b/analysis.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mgphy\GitHub_scripts\Koopman\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDD25CAE-2A5A-4959-84C2-9B05F9A53789}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C24780A-22E0-4B97-A2A3-5B70B752074C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15285" yWindow="2340" windowWidth="15615" windowHeight="12960" firstSheet="4" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="22590" yWindow="4035" windowWidth="15615" windowHeight="12960" firstSheet="4" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="time_gt_facebook_ct1" sheetId="1" r:id="rId1"/>
@@ -7748,11 +7748,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{84F48DAC-115E-48D4-8C14-8489C0420078}">
   <dimension ref="A1:L66"/>
   <sheetViews>
-    <sheetView topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="J70" sqref="J70"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A44" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C65" sqref="C65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="12" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="15.28515625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
@@ -10250,7 +10264,7 @@
   <dimension ref="A1:A373"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A347" workbookViewId="0">
-      <selection activeCell="A374" sqref="A374"/>
+      <selection activeCell="E361" sqref="E361"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
